--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J612"/>
+  <dimension ref="A1:J633"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="E605" sqref="E605"/>
@@ -19491,6 +19491,657 @@
         <v>338.796762044303</v>
       </c>
     </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="C613" t="n">
+        <v>1890.599975585938</v>
+      </c>
+      <c r="D613" t="n">
+        <v>711.7999877929688</v>
+      </c>
+      <c r="E613" t="n">
+        <v>78.95999908447266</v>
+      </c>
+      <c r="F613" t="n">
+        <v>299.9500122070312</v>
+      </c>
+      <c r="G613" t="n">
+        <v>1323.25</v>
+      </c>
+      <c r="H613" t="n">
+        <v>29275.72984313965</v>
+      </c>
+      <c r="I613" t="n">
+        <v>0</v>
+      </c>
+      <c r="J613" t="n">
+        <v>338.796762044303</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="C614" t="n">
+        <v>1893.25</v>
+      </c>
+      <c r="D614" t="n">
+        <v>700.7999877929688</v>
+      </c>
+      <c r="E614" t="n">
+        <v>77</v>
+      </c>
+      <c r="F614" t="n">
+        <v>296.2000122070312</v>
+      </c>
+      <c r="G614" t="n">
+        <v>1298.650024414062</v>
+      </c>
+      <c r="H614" t="n">
+        <v>28928.15008544922</v>
+      </c>
+      <c r="I614" t="n">
+        <v>-0.01187262485180639</v>
+      </c>
+      <c r="J614" t="n">
+        <v>334.7743551875443</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="C615" t="n">
+        <v>1899.349975585938</v>
+      </c>
+      <c r="D615" t="n">
+        <v>696.0999755859375</v>
+      </c>
+      <c r="E615" t="n">
+        <v>75.83999633789062</v>
+      </c>
+      <c r="F615" t="n">
+        <v>299.2999877929688</v>
+      </c>
+      <c r="G615" t="n">
+        <v>1302.900024414062</v>
+      </c>
+      <c r="H615" t="n">
+        <v>28869.96923828125</v>
+      </c>
+      <c r="I615" t="n">
+        <v>-0.002011219071945895</v>
+      </c>
+      <c r="J615" t="n">
+        <v>334.1010506195927</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C616" t="n">
+        <v>1885.400024414062</v>
+      </c>
+      <c r="D616" t="n">
+        <v>683.5999755859375</v>
+      </c>
+      <c r="E616" t="n">
+        <v>73.80999755859375</v>
+      </c>
+      <c r="F616" t="n">
+        <v>296.8999938964844</v>
+      </c>
+      <c r="G616" t="n">
+        <v>1303.849975585938</v>
+      </c>
+      <c r="H616" t="n">
+        <v>28487.57955932617</v>
+      </c>
+      <c r="I616" t="n">
+        <v>-0.01324524026329871</v>
+      </c>
+      <c r="J616" t="n">
+        <v>329.6758019319157</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>1901.949951171875</v>
+      </c>
+      <c r="D617" t="n">
+        <v>689.4000244140625</v>
+      </c>
+      <c r="E617" t="n">
+        <v>74.47000122070312</v>
+      </c>
+      <c r="F617" t="n">
+        <v>297.1499938964844</v>
+      </c>
+      <c r="G617" t="n">
+        <v>1320.25</v>
+      </c>
+      <c r="H617" t="n">
+        <v>28715.86001586914</v>
+      </c>
+      <c r="I617" t="n">
+        <v>0.008013332830455756</v>
+      </c>
+      <c r="J617" t="n">
+        <v>332.3176038589435</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>1901.300048828125</v>
+      </c>
+      <c r="D618" t="n">
+        <v>688.9500122070312</v>
+      </c>
+      <c r="E618" t="n">
+        <v>74.16000366210938</v>
+      </c>
+      <c r="F618" t="n">
+        <v>298.9500122070312</v>
+      </c>
+      <c r="G618" t="n">
+        <v>1327.099975585938</v>
+      </c>
+      <c r="H618" t="n">
+        <v>28721.03076171875</v>
+      </c>
+      <c r="I618" t="n">
+        <v>0.0001800658537390795</v>
+      </c>
+      <c r="J618" t="n">
+        <v>332.3774429119949</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>1879.449951171875</v>
+      </c>
+      <c r="D619" t="n">
+        <v>687.5</v>
+      </c>
+      <c r="E619" t="n">
+        <v>76</v>
+      </c>
+      <c r="F619" t="n">
+        <v>290.6000061035156</v>
+      </c>
+      <c r="G619" t="n">
+        <v>1312.349975585938</v>
+      </c>
+      <c r="H619" t="n">
+        <v>28602.74978637695</v>
+      </c>
+      <c r="I619" t="n">
+        <v>-0.004118270556621158</v>
+      </c>
+      <c r="J619" t="n">
+        <v>331.0086226751654</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>1872.349975585938</v>
+      </c>
+      <c r="D620" t="n">
+        <v>673.5499877929688</v>
+      </c>
+      <c r="E620" t="n">
+        <v>74.72000122070312</v>
+      </c>
+      <c r="F620" t="n">
+        <v>283.6000061035156</v>
+      </c>
+      <c r="G620" t="n">
+        <v>1289.699951171875</v>
+      </c>
+      <c r="H620" t="n">
+        <v>28191.60983276367</v>
+      </c>
+      <c r="I620" t="n">
+        <v>-0.01437414083205038</v>
+      </c>
+      <c r="J620" t="n">
+        <v>326.2506581162095</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>1892.400024414062</v>
+      </c>
+      <c r="D621" t="n">
+        <v>664.1500244140625</v>
+      </c>
+      <c r="E621" t="n">
+        <v>74.33999633789062</v>
+      </c>
+      <c r="F621" t="n">
+        <v>281.5499877929688</v>
+      </c>
+      <c r="G621" t="n">
+        <v>1237.150024414062</v>
+      </c>
+      <c r="H621" t="n">
+        <v>28036.46997070312</v>
+      </c>
+      <c r="I621" t="n">
+        <v>-0.005503050836077006</v>
+      </c>
+      <c r="J621" t="n">
+        <v>324.4552841592924</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>1922.449951171875</v>
+      </c>
+      <c r="D622" t="n">
+        <v>664.5999755859375</v>
+      </c>
+      <c r="E622" t="n">
+        <v>78.05000305175781</v>
+      </c>
+      <c r="F622" t="n">
+        <v>285.75</v>
+      </c>
+      <c r="G622" t="n">
+        <v>1250.300048828125</v>
+      </c>
+      <c r="H622" t="n">
+        <v>28561.49984741211</v>
+      </c>
+      <c r="I622" t="n">
+        <v>0.01872667555001102</v>
+      </c>
+      <c r="J622" t="n">
+        <v>330.5312529962301</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>1957.599975585938</v>
+      </c>
+      <c r="D623" t="n">
+        <v>689.75</v>
+      </c>
+      <c r="E623" t="n">
+        <v>81.94999694824219</v>
+      </c>
+      <c r="F623" t="n">
+        <v>288.0499877929688</v>
+      </c>
+      <c r="G623" t="n">
+        <v>1237.699951171875</v>
+      </c>
+      <c r="H623" t="n">
+        <v>29297.64938354492</v>
+      </c>
+      <c r="I623" t="n">
+        <v>0.0257741904334731</v>
+      </c>
+      <c r="J623" t="n">
+        <v>339.0504284551695</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>1996.400024414062</v>
+      </c>
+      <c r="D624" t="n">
+        <v>729.1500244140625</v>
+      </c>
+      <c r="E624" t="n">
+        <v>81.69999694824219</v>
+      </c>
+      <c r="F624" t="n">
+        <v>291.7000122070312</v>
+      </c>
+      <c r="G624" t="n">
+        <v>1237.300048828125</v>
+      </c>
+      <c r="H624" t="n">
+        <v>29912.80038452148</v>
+      </c>
+      <c r="I624" t="n">
+        <v>0.02099659917843318</v>
+      </c>
+      <c r="J624" t="n">
+        <v>346.1693344027187</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>1988.050048828125</v>
+      </c>
+      <c r="D625" t="n">
+        <v>713.7000122070312</v>
+      </c>
+      <c r="E625" t="n">
+        <v>83.11000061035156</v>
+      </c>
+      <c r="F625" t="n">
+        <v>289.9500122070312</v>
+      </c>
+      <c r="G625" t="n">
+        <v>1241.5</v>
+      </c>
+      <c r="H625" t="n">
+        <v>29812.18057250977</v>
+      </c>
+      <c r="I625" t="n">
+        <v>-0.003363771051799782</v>
+      </c>
+      <c r="J625" t="n">
+        <v>345.004900016634</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>1989.900024414062</v>
+      </c>
+      <c r="D626" t="n">
+        <v>714.2000122070312</v>
+      </c>
+      <c r="E626" t="n">
+        <v>84.69999694824219</v>
+      </c>
+      <c r="F626" t="n">
+        <v>290.3999938964844</v>
+      </c>
+      <c r="G626" t="n">
+        <v>1226.599975585938</v>
+      </c>
+      <c r="H626" t="n">
+        <v>29926.49987792969</v>
+      </c>
+      <c r="I626" t="n">
+        <v>0.003834650911961043</v>
+      </c>
+      <c r="J626" t="n">
+        <v>346.3278733711138</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>2006.550048828125</v>
+      </c>
+      <c r="D627" t="n">
+        <v>731.0999755859375</v>
+      </c>
+      <c r="E627" t="n">
+        <v>82</v>
+      </c>
+      <c r="F627" t="n">
+        <v>284.2999877929688</v>
+      </c>
+      <c r="G627" t="n">
+        <v>1193.800048828125</v>
+      </c>
+      <c r="H627" t="n">
+        <v>29823.24993896484</v>
+      </c>
+      <c r="I627" t="n">
+        <v>-0.003450117433913109</v>
+      </c>
+      <c r="J627" t="n">
+        <v>345.1330015373461</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>1987.800048828125</v>
+      </c>
+      <c r="D628" t="n">
+        <v>743.25</v>
+      </c>
+      <c r="E628" t="n">
+        <v>80.81999969482422</v>
+      </c>
+      <c r="F628" t="n">
+        <v>282.8500061035156</v>
+      </c>
+      <c r="G628" t="n">
+        <v>1166.400024414062</v>
+      </c>
+      <c r="H628" t="n">
+        <v>29685.31034851074</v>
+      </c>
+      <c r="I628" t="n">
+        <v>-0.004625236710834788</v>
+      </c>
+      <c r="J628" t="n">
+        <v>343.536679708515</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>1998.599975585938</v>
+      </c>
+      <c r="D629" t="n">
+        <v>735.9500122070312</v>
+      </c>
+      <c r="E629" t="n">
+        <v>80.97000122070312</v>
+      </c>
+      <c r="F629" t="n">
+        <v>272.7000122070312</v>
+      </c>
+      <c r="G629" t="n">
+        <v>1121.300048828125</v>
+      </c>
+      <c r="H629" t="n">
+        <v>29455.8603515625</v>
+      </c>
+      <c r="I629" t="n">
+        <v>-0.0077294120982553</v>
+      </c>
+      <c r="J629" t="n">
+        <v>340.8813431401815</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>2048.10009765625</v>
+      </c>
+      <c r="D630" t="n">
+        <v>746.5</v>
+      </c>
+      <c r="E630" t="n">
+        <v>83.44999694824219</v>
+      </c>
+      <c r="F630" t="n">
+        <v>277.3500061035156</v>
+      </c>
+      <c r="G630" t="n">
+        <v>1149.400024414062</v>
+      </c>
+      <c r="H630" t="n">
+        <v>30118.95037841797</v>
+      </c>
+      <c r="I630" t="n">
+        <v>0.02251131078642199</v>
+      </c>
+      <c r="J630" t="n">
+        <v>348.5550289969032</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>2082.39990234375</v>
+      </c>
+      <c r="D631" t="n">
+        <v>773.9500122070312</v>
+      </c>
+      <c r="E631" t="n">
+        <v>82.88999938964844</v>
+      </c>
+      <c r="F631" t="n">
+        <v>286.2999877929688</v>
+      </c>
+      <c r="G631" t="n">
+        <v>1162.75</v>
+      </c>
+      <c r="H631" t="n">
+        <v>30664.31942749023</v>
+      </c>
+      <c r="I631" t="n">
+        <v>0.01810717313253569</v>
+      </c>
+      <c r="J631" t="n">
+        <v>354.8663752531661</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>2068.14990234375</v>
+      </c>
+      <c r="D632" t="n">
+        <v>781.8499755859375</v>
+      </c>
+      <c r="E632" t="n">
+        <v>83.79000091552734</v>
+      </c>
+      <c r="F632" t="n">
+        <v>291.7999877929688</v>
+      </c>
+      <c r="G632" t="n">
+        <v>1141.199951171875</v>
+      </c>
+      <c r="H632" t="n">
+        <v>30770.6690826416</v>
+      </c>
+      <c r="I632" t="n">
+        <v>0.003468188994144963</v>
+      </c>
+      <c r="J632" t="n">
+        <v>356.0971189102113</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>2061.60009765625</v>
+      </c>
+      <c r="D633" t="n">
+        <v>775.8499755859375</v>
+      </c>
+      <c r="E633" t="n">
+        <v>82.95999908447266</v>
+      </c>
+      <c r="F633" t="n">
+        <v>289.8500061035156</v>
+      </c>
+      <c r="G633" t="n">
+        <v>1118.449951171875</v>
+      </c>
+      <c r="H633" t="n">
+        <v>30542.33015441895</v>
+      </c>
+      <c r="I633" t="n">
+        <v>-0.007420668286718119</v>
+      </c>
+      <c r="J633" t="n">
+        <v>353.4546403129226</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J633"/>
+  <dimension ref="A1:J654"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="E605" sqref="E605"/>
@@ -20142,6 +20142,657 @@
         <v>353.4546403129226</v>
       </c>
     </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>1890.599975585938</v>
+      </c>
+      <c r="D634" t="n">
+        <v>711.7999877929688</v>
+      </c>
+      <c r="E634" t="n">
+        <v>78.95999908447266</v>
+      </c>
+      <c r="F634" t="n">
+        <v>299.9500122070312</v>
+      </c>
+      <c r="G634" t="n">
+        <v>1323.25</v>
+      </c>
+      <c r="H634" t="n">
+        <v>29275.72984313965</v>
+      </c>
+      <c r="I634" t="n">
+        <v>0</v>
+      </c>
+      <c r="J634" t="n">
+        <v>353.4546403129226</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>1893.25</v>
+      </c>
+      <c r="D635" t="n">
+        <v>700.7999877929688</v>
+      </c>
+      <c r="E635" t="n">
+        <v>77</v>
+      </c>
+      <c r="F635" t="n">
+        <v>296.2000122070312</v>
+      </c>
+      <c r="G635" t="n">
+        <v>1298.650024414062</v>
+      </c>
+      <c r="H635" t="n">
+        <v>28928.15008544922</v>
+      </c>
+      <c r="I635" t="n">
+        <v>-0.01187262485180639</v>
+      </c>
+      <c r="J635" t="n">
+        <v>349.2582059663571</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="C636" t="n">
+        <v>1899.349975585938</v>
+      </c>
+      <c r="D636" t="n">
+        <v>696.0999755859375</v>
+      </c>
+      <c r="E636" t="n">
+        <v>75.83999633789062</v>
+      </c>
+      <c r="F636" t="n">
+        <v>299.2999877929688</v>
+      </c>
+      <c r="G636" t="n">
+        <v>1302.900024414062</v>
+      </c>
+      <c r="H636" t="n">
+        <v>28869.96923828125</v>
+      </c>
+      <c r="I636" t="n">
+        <v>-0.002011219071945895</v>
+      </c>
+      <c r="J636" t="n">
+        <v>348.5557712014839</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C637" t="n">
+        <v>1885.400024414062</v>
+      </c>
+      <c r="D637" t="n">
+        <v>683.5999755859375</v>
+      </c>
+      <c r="E637" t="n">
+        <v>73.80999755859375</v>
+      </c>
+      <c r="F637" t="n">
+        <v>296.8999938964844</v>
+      </c>
+      <c r="G637" t="n">
+        <v>1303.849975585938</v>
+      </c>
+      <c r="H637" t="n">
+        <v>28487.57955932617</v>
+      </c>
+      <c r="I637" t="n">
+        <v>-0.01324524026329871</v>
+      </c>
+      <c r="J637" t="n">
+        <v>343.9390662667609</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C638" t="n">
+        <v>1901.949951171875</v>
+      </c>
+      <c r="D638" t="n">
+        <v>689.4000244140625</v>
+      </c>
+      <c r="E638" t="n">
+        <v>74.47000122070312</v>
+      </c>
+      <c r="F638" t="n">
+        <v>297.1499938964844</v>
+      </c>
+      <c r="G638" t="n">
+        <v>1320.25</v>
+      </c>
+      <c r="H638" t="n">
+        <v>28715.86001586914</v>
+      </c>
+      <c r="I638" t="n">
+        <v>0.008013332830455756</v>
+      </c>
+      <c r="J638" t="n">
+        <v>346.6951644781526</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C639" t="n">
+        <v>1901.300048828125</v>
+      </c>
+      <c r="D639" t="n">
+        <v>688.9500122070312</v>
+      </c>
+      <c r="E639" t="n">
+        <v>74.16000366210938</v>
+      </c>
+      <c r="F639" t="n">
+        <v>298.9500122070312</v>
+      </c>
+      <c r="G639" t="n">
+        <v>1327.099975585938</v>
+      </c>
+      <c r="H639" t="n">
+        <v>28721.03076171875</v>
+      </c>
+      <c r="I639" t="n">
+        <v>0.0001800658537390795</v>
+      </c>
+      <c r="J639" t="n">
+        <v>346.7575924389315</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C640" t="n">
+        <v>1879.449951171875</v>
+      </c>
+      <c r="D640" t="n">
+        <v>687.5</v>
+      </c>
+      <c r="E640" t="n">
+        <v>76</v>
+      </c>
+      <c r="F640" t="n">
+        <v>290.6000061035156</v>
+      </c>
+      <c r="G640" t="n">
+        <v>1312.349975585938</v>
+      </c>
+      <c r="H640" t="n">
+        <v>28602.74978637695</v>
+      </c>
+      <c r="I640" t="n">
+        <v>-0.004118270556621158</v>
+      </c>
+      <c r="J640" t="n">
+        <v>345.3295508557054</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C641" t="n">
+        <v>1872.349975585938</v>
+      </c>
+      <c r="D641" t="n">
+        <v>673.5499877929688</v>
+      </c>
+      <c r="E641" t="n">
+        <v>74.72000122070312</v>
+      </c>
+      <c r="F641" t="n">
+        <v>283.6000061035156</v>
+      </c>
+      <c r="G641" t="n">
+        <v>1289.699951171875</v>
+      </c>
+      <c r="H641" t="n">
+        <v>28191.60983276367</v>
+      </c>
+      <c r="I641" t="n">
+        <v>-0.01437414083205038</v>
+      </c>
+      <c r="J641" t="n">
+        <v>340.3657352582368</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C642" t="n">
+        <v>1892.400024414062</v>
+      </c>
+      <c r="D642" t="n">
+        <v>664.1500244140625</v>
+      </c>
+      <c r="E642" t="n">
+        <v>74.33999633789062</v>
+      </c>
+      <c r="F642" t="n">
+        <v>281.5499877929688</v>
+      </c>
+      <c r="G642" t="n">
+        <v>1237.150024414062</v>
+      </c>
+      <c r="H642" t="n">
+        <v>28036.46997070312</v>
+      </c>
+      <c r="I642" t="n">
+        <v>-0.005503050836077006</v>
+      </c>
+      <c r="J642" t="n">
+        <v>338.492685314252</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C643" t="n">
+        <v>1922.449951171875</v>
+      </c>
+      <c r="D643" t="n">
+        <v>664.5999755859375</v>
+      </c>
+      <c r="E643" t="n">
+        <v>78.05000305175781</v>
+      </c>
+      <c r="F643" t="n">
+        <v>285.75</v>
+      </c>
+      <c r="G643" t="n">
+        <v>1250.300048828125</v>
+      </c>
+      <c r="H643" t="n">
+        <v>28561.49984741211</v>
+      </c>
+      <c r="I643" t="n">
+        <v>0.01872667555001102</v>
+      </c>
+      <c r="J643" t="n">
+        <v>344.831528008184</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C644" t="n">
+        <v>1957.599975585938</v>
+      </c>
+      <c r="D644" t="n">
+        <v>689.75</v>
+      </c>
+      <c r="E644" t="n">
+        <v>81.94999694824219</v>
+      </c>
+      <c r="F644" t="n">
+        <v>288.0499877929688</v>
+      </c>
+      <c r="G644" t="n">
+        <v>1237.699951171875</v>
+      </c>
+      <c r="H644" t="n">
+        <v>29297.64938354492</v>
+      </c>
+      <c r="I644" t="n">
+        <v>0.0257741904334731</v>
+      </c>
+      <c r="J644" t="n">
+        <v>353.7192814785324</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C645" t="n">
+        <v>1996.400024414062</v>
+      </c>
+      <c r="D645" t="n">
+        <v>729.1500244140625</v>
+      </c>
+      <c r="E645" t="n">
+        <v>81.69999694824219</v>
+      </c>
+      <c r="F645" t="n">
+        <v>291.7000122070312</v>
+      </c>
+      <c r="G645" t="n">
+        <v>1237.300048828125</v>
+      </c>
+      <c r="H645" t="n">
+        <v>29912.80038452148</v>
+      </c>
+      <c r="I645" t="n">
+        <v>0.02099659917843318</v>
+      </c>
+      <c r="J645" t="n">
+        <v>361.1461834534205</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C646" t="n">
+        <v>1988.050048828125</v>
+      </c>
+      <c r="D646" t="n">
+        <v>713.7000122070312</v>
+      </c>
+      <c r="E646" t="n">
+        <v>83.11000061035156</v>
+      </c>
+      <c r="F646" t="n">
+        <v>289.9500122070312</v>
+      </c>
+      <c r="G646" t="n">
+        <v>1241.5</v>
+      </c>
+      <c r="H646" t="n">
+        <v>29812.18057250977</v>
+      </c>
+      <c r="I646" t="n">
+        <v>-0.003363771051799782</v>
+      </c>
+      <c r="J646" t="n">
+        <v>359.9313703760519</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C647" t="n">
+        <v>1989.900024414062</v>
+      </c>
+      <c r="D647" t="n">
+        <v>714.2000122070312</v>
+      </c>
+      <c r="E647" t="n">
+        <v>84.69999694824219</v>
+      </c>
+      <c r="F647" t="n">
+        <v>290.3999938964844</v>
+      </c>
+      <c r="G647" t="n">
+        <v>1226.599975585938</v>
+      </c>
+      <c r="H647" t="n">
+        <v>29926.49987792969</v>
+      </c>
+      <c r="I647" t="n">
+        <v>0.003834650911961043</v>
+      </c>
+      <c r="J647" t="n">
+        <v>361.3115815337079</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C648" t="n">
+        <v>2006.550048828125</v>
+      </c>
+      <c r="D648" t="n">
+        <v>731.0999755859375</v>
+      </c>
+      <c r="E648" t="n">
+        <v>82</v>
+      </c>
+      <c r="F648" t="n">
+        <v>284.2999877929688</v>
+      </c>
+      <c r="G648" t="n">
+        <v>1193.800048828125</v>
+      </c>
+      <c r="H648" t="n">
+        <v>29823.24993896484</v>
+      </c>
+      <c r="I648" t="n">
+        <v>-0.003450117433913109</v>
+      </c>
+      <c r="J648" t="n">
+        <v>360.0650141471837</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C649" t="n">
+        <v>1987.800048828125</v>
+      </c>
+      <c r="D649" t="n">
+        <v>743.25</v>
+      </c>
+      <c r="E649" t="n">
+        <v>80.81999969482422</v>
+      </c>
+      <c r="F649" t="n">
+        <v>282.8500061035156</v>
+      </c>
+      <c r="G649" t="n">
+        <v>1166.400024414062</v>
+      </c>
+      <c r="H649" t="n">
+        <v>29685.31034851074</v>
+      </c>
+      <c r="I649" t="n">
+        <v>-0.004625236710834788</v>
+      </c>
+      <c r="J649" t="n">
+        <v>358.3996282254629</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C650" t="n">
+        <v>1998.599975585938</v>
+      </c>
+      <c r="D650" t="n">
+        <v>735.9500122070312</v>
+      </c>
+      <c r="E650" t="n">
+        <v>80.97000122070312</v>
+      </c>
+      <c r="F650" t="n">
+        <v>272.7000122070312</v>
+      </c>
+      <c r="G650" t="n">
+        <v>1121.300048828125</v>
+      </c>
+      <c r="H650" t="n">
+        <v>29455.8603515625</v>
+      </c>
+      <c r="I650" t="n">
+        <v>-0.0077294120982553</v>
+      </c>
+      <c r="J650" t="n">
+        <v>355.6294098030468</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C651" t="n">
+        <v>2048.10009765625</v>
+      </c>
+      <c r="D651" t="n">
+        <v>746.5</v>
+      </c>
+      <c r="E651" t="n">
+        <v>83.44999694824219</v>
+      </c>
+      <c r="F651" t="n">
+        <v>277.3500061035156</v>
+      </c>
+      <c r="G651" t="n">
+        <v>1149.400024414062</v>
+      </c>
+      <c r="H651" t="n">
+        <v>30118.95037841797</v>
+      </c>
+      <c r="I651" t="n">
+        <v>0.02251131078642199</v>
+      </c>
+      <c r="J651" t="n">
+        <v>363.6350939719151</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C652" t="n">
+        <v>2082.39990234375</v>
+      </c>
+      <c r="D652" t="n">
+        <v>773.9500122070312</v>
+      </c>
+      <c r="E652" t="n">
+        <v>82.88999938964844</v>
+      </c>
+      <c r="F652" t="n">
+        <v>286.2999877929688</v>
+      </c>
+      <c r="G652" t="n">
+        <v>1162.75</v>
+      </c>
+      <c r="H652" t="n">
+        <v>30664.31942749023</v>
+      </c>
+      <c r="I652" t="n">
+        <v>0.01810717313253569</v>
+      </c>
+      <c r="J652" t="n">
+        <v>370.2194975755305</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C653" t="n">
+        <v>2068.14990234375</v>
+      </c>
+      <c r="D653" t="n">
+        <v>781.8499755859375</v>
+      </c>
+      <c r="E653" t="n">
+        <v>83.79000091552734</v>
+      </c>
+      <c r="F653" t="n">
+        <v>291.7999877929688</v>
+      </c>
+      <c r="G653" t="n">
+        <v>1141.199951171875</v>
+      </c>
+      <c r="H653" t="n">
+        <v>30770.6690826416</v>
+      </c>
+      <c r="I653" t="n">
+        <v>0.003468188994144963</v>
+      </c>
+      <c r="J653" t="n">
+        <v>371.5034887624398</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C654" t="n">
+        <v>2061.60009765625</v>
+      </c>
+      <c r="D654" t="n">
+        <v>775.8499755859375</v>
+      </c>
+      <c r="E654" t="n">
+        <v>82.95999908447266</v>
+      </c>
+      <c r="F654" t="n">
+        <v>289.8500061035156</v>
+      </c>
+      <c r="G654" t="n">
+        <v>1118.449951171875</v>
+      </c>
+      <c r="H654" t="n">
+        <v>30542.33015441895</v>
+      </c>
+      <c r="I654" t="n">
+        <v>-0.007420668286718119</v>
+      </c>
+      <c r="J654" t="n">
+        <v>368.7466846049752</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J654"/>
+  <dimension ref="A1:J675"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="E605" sqref="E605"/>
@@ -20793,6 +20793,657 @@
         <v>368.7466846049752</v>
       </c>
     </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="C655" t="n">
+        <v>1890.599975585938</v>
+      </c>
+      <c r="D655" t="n">
+        <v>711.7999877929688</v>
+      </c>
+      <c r="E655" t="n">
+        <v>78.95999908447266</v>
+      </c>
+      <c r="F655" t="n">
+        <v>299.9500122070312</v>
+      </c>
+      <c r="G655" t="n">
+        <v>1323.25</v>
+      </c>
+      <c r="H655" t="n">
+        <v>29275.72984313965</v>
+      </c>
+      <c r="I655" t="n">
+        <v>0</v>
+      </c>
+      <c r="J655" t="n">
+        <v>368.7466846049752</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="C656" t="n">
+        <v>1893.25</v>
+      </c>
+      <c r="D656" t="n">
+        <v>700.7999877929688</v>
+      </c>
+      <c r="E656" t="n">
+        <v>77</v>
+      </c>
+      <c r="F656" t="n">
+        <v>296.2000122070312</v>
+      </c>
+      <c r="G656" t="n">
+        <v>1298.650024414062</v>
+      </c>
+      <c r="H656" t="n">
+        <v>28928.15008544922</v>
+      </c>
+      <c r="I656" t="n">
+        <v>-0.01187262485180639</v>
+      </c>
+      <c r="J656" t="n">
+        <v>364.3686935533129</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="C657" t="n">
+        <v>1899.349975585938</v>
+      </c>
+      <c r="D657" t="n">
+        <v>696.0999755859375</v>
+      </c>
+      <c r="E657" t="n">
+        <v>75.83999633789062</v>
+      </c>
+      <c r="F657" t="n">
+        <v>299.2999877929688</v>
+      </c>
+      <c r="G657" t="n">
+        <v>1302.900024414062</v>
+      </c>
+      <c r="H657" t="n">
+        <v>28869.96923828125</v>
+      </c>
+      <c r="I657" t="n">
+        <v>-0.002011219071945895</v>
+      </c>
+      <c r="J657" t="n">
+        <v>363.6358682876185</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C658" t="n">
+        <v>1885.400024414062</v>
+      </c>
+      <c r="D658" t="n">
+        <v>683.5999755859375</v>
+      </c>
+      <c r="E658" t="n">
+        <v>73.80999755859375</v>
+      </c>
+      <c r="F658" t="n">
+        <v>296.8999938964844</v>
+      </c>
+      <c r="G658" t="n">
+        <v>1303.849975585938</v>
+      </c>
+      <c r="H658" t="n">
+        <v>28487.57955932617</v>
+      </c>
+      <c r="I658" t="n">
+        <v>-0.01324524026329871</v>
+      </c>
+      <c r="J658" t="n">
+        <v>358.8194238437957</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C659" t="n">
+        <v>1901.949951171875</v>
+      </c>
+      <c r="D659" t="n">
+        <v>689.4000244140625</v>
+      </c>
+      <c r="E659" t="n">
+        <v>74.47000122070312</v>
+      </c>
+      <c r="F659" t="n">
+        <v>297.1499938964844</v>
+      </c>
+      <c r="G659" t="n">
+        <v>1320.25</v>
+      </c>
+      <c r="H659" t="n">
+        <v>28715.86001586914</v>
+      </c>
+      <c r="I659" t="n">
+        <v>0.008013332830455756</v>
+      </c>
+      <c r="J659" t="n">
+        <v>361.6947633130884</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C660" t="n">
+        <v>1901.300048828125</v>
+      </c>
+      <c r="D660" t="n">
+        <v>688.9500122070312</v>
+      </c>
+      <c r="E660" t="n">
+        <v>74.16000366210938</v>
+      </c>
+      <c r="F660" t="n">
+        <v>298.9500122070312</v>
+      </c>
+      <c r="G660" t="n">
+        <v>1327.099975585938</v>
+      </c>
+      <c r="H660" t="n">
+        <v>28721.03076171875</v>
+      </c>
+      <c r="I660" t="n">
+        <v>0.0001800658537390795</v>
+      </c>
+      <c r="J660" t="n">
+        <v>361.7598921894373</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C661" t="n">
+        <v>1879.449951171875</v>
+      </c>
+      <c r="D661" t="n">
+        <v>687.5</v>
+      </c>
+      <c r="E661" t="n">
+        <v>76</v>
+      </c>
+      <c r="F661" t="n">
+        <v>290.6000061035156</v>
+      </c>
+      <c r="G661" t="n">
+        <v>1312.349975585938</v>
+      </c>
+      <c r="H661" t="n">
+        <v>28602.74978637695</v>
+      </c>
+      <c r="I661" t="n">
+        <v>-0.004118270556621158</v>
+      </c>
+      <c r="J661" t="n">
+        <v>360.2700670768671</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C662" t="n">
+        <v>1872.349975585938</v>
+      </c>
+      <c r="D662" t="n">
+        <v>673.5499877929688</v>
+      </c>
+      <c r="E662" t="n">
+        <v>74.72000122070312</v>
+      </c>
+      <c r="F662" t="n">
+        <v>283.6000061035156</v>
+      </c>
+      <c r="G662" t="n">
+        <v>1289.699951171875</v>
+      </c>
+      <c r="H662" t="n">
+        <v>28191.60983276367</v>
+      </c>
+      <c r="I662" t="n">
+        <v>-0.01437414083205038</v>
+      </c>
+      <c r="J662" t="n">
+        <v>355.091494395132</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C663" t="n">
+        <v>1892.400024414062</v>
+      </c>
+      <c r="D663" t="n">
+        <v>664.1500244140625</v>
+      </c>
+      <c r="E663" t="n">
+        <v>74.33999633789062</v>
+      </c>
+      <c r="F663" t="n">
+        <v>281.5499877929688</v>
+      </c>
+      <c r="G663" t="n">
+        <v>1237.150024414062</v>
+      </c>
+      <c r="H663" t="n">
+        <v>28036.46997070312</v>
+      </c>
+      <c r="I663" t="n">
+        <v>-0.005503050836077006</v>
+      </c>
+      <c r="J663" t="n">
+        <v>353.137407850017</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C664" t="n">
+        <v>1922.449951171875</v>
+      </c>
+      <c r="D664" t="n">
+        <v>664.5999755859375</v>
+      </c>
+      <c r="E664" t="n">
+        <v>78.05000305175781</v>
+      </c>
+      <c r="F664" t="n">
+        <v>285.75</v>
+      </c>
+      <c r="G664" t="n">
+        <v>1250.300048828125</v>
+      </c>
+      <c r="H664" t="n">
+        <v>28561.49984741211</v>
+      </c>
+      <c r="I664" t="n">
+        <v>0.01872667555001102</v>
+      </c>
+      <c r="J664" t="n">
+        <v>359.7504975113962</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C665" t="n">
+        <v>1957.599975585938</v>
+      </c>
+      <c r="D665" t="n">
+        <v>689.75</v>
+      </c>
+      <c r="E665" t="n">
+        <v>81.94999694824219</v>
+      </c>
+      <c r="F665" t="n">
+        <v>288.0499877929688</v>
+      </c>
+      <c r="G665" t="n">
+        <v>1237.699951171875</v>
+      </c>
+      <c r="H665" t="n">
+        <v>29297.64938354492</v>
+      </c>
+      <c r="I665" t="n">
+        <v>0.0257741904334731</v>
+      </c>
+      <c r="J665" t="n">
+        <v>369.0227753427916</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C666" t="n">
+        <v>1996.400024414062</v>
+      </c>
+      <c r="D666" t="n">
+        <v>729.1500244140625</v>
+      </c>
+      <c r="E666" t="n">
+        <v>81.69999694824219</v>
+      </c>
+      <c r="F666" t="n">
+        <v>291.7000122070312</v>
+      </c>
+      <c r="G666" t="n">
+        <v>1237.300048828125</v>
+      </c>
+      <c r="H666" t="n">
+        <v>29912.80038452148</v>
+      </c>
+      <c r="I666" t="n">
+        <v>0.02099659917843318</v>
+      </c>
+      <c r="J666" t="n">
+        <v>376.7709986443772</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C667" t="n">
+        <v>1988.050048828125</v>
+      </c>
+      <c r="D667" t="n">
+        <v>713.7000122070312</v>
+      </c>
+      <c r="E667" t="n">
+        <v>83.11000061035156</v>
+      </c>
+      <c r="F667" t="n">
+        <v>289.9500122070312</v>
+      </c>
+      <c r="G667" t="n">
+        <v>1241.5</v>
+      </c>
+      <c r="H667" t="n">
+        <v>29812.18057250977</v>
+      </c>
+      <c r="I667" t="n">
+        <v>-0.003363771051799782</v>
+      </c>
+      <c r="J667" t="n">
+        <v>375.5036272659796</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C668" t="n">
+        <v>1989.900024414062</v>
+      </c>
+      <c r="D668" t="n">
+        <v>714.2000122070312</v>
+      </c>
+      <c r="E668" t="n">
+        <v>84.69999694824219</v>
+      </c>
+      <c r="F668" t="n">
+        <v>290.3999938964844</v>
+      </c>
+      <c r="G668" t="n">
+        <v>1226.599975585938</v>
+      </c>
+      <c r="H668" t="n">
+        <v>29926.49987792969</v>
+      </c>
+      <c r="I668" t="n">
+        <v>0.003834650911961043</v>
+      </c>
+      <c r="J668" t="n">
+        <v>376.9435525927198</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C669" t="n">
+        <v>2006.550048828125</v>
+      </c>
+      <c r="D669" t="n">
+        <v>731.0999755859375</v>
+      </c>
+      <c r="E669" t="n">
+        <v>82</v>
+      </c>
+      <c r="F669" t="n">
+        <v>284.2999877929688</v>
+      </c>
+      <c r="G669" t="n">
+        <v>1193.800048828125</v>
+      </c>
+      <c r="H669" t="n">
+        <v>29823.24993896484</v>
+      </c>
+      <c r="I669" t="n">
+        <v>-0.003450117433913109</v>
+      </c>
+      <c r="J669" t="n">
+        <v>375.6430530703184</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C670" t="n">
+        <v>1987.800048828125</v>
+      </c>
+      <c r="D670" t="n">
+        <v>743.25</v>
+      </c>
+      <c r="E670" t="n">
+        <v>80.81999969482422</v>
+      </c>
+      <c r="F670" t="n">
+        <v>282.8500061035156</v>
+      </c>
+      <c r="G670" t="n">
+        <v>1166.400024414062</v>
+      </c>
+      <c r="H670" t="n">
+        <v>29685.31034851074</v>
+      </c>
+      <c r="I670" t="n">
+        <v>-0.004625236710834788</v>
+      </c>
+      <c r="J670" t="n">
+        <v>373.9056150310876</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C671" t="n">
+        <v>1998.599975585938</v>
+      </c>
+      <c r="D671" t="n">
+        <v>735.9500122070312</v>
+      </c>
+      <c r="E671" t="n">
+        <v>80.97000122070312</v>
+      </c>
+      <c r="F671" t="n">
+        <v>272.7000122070312</v>
+      </c>
+      <c r="G671" t="n">
+        <v>1121.300048828125</v>
+      </c>
+      <c r="H671" t="n">
+        <v>29455.8603515625</v>
+      </c>
+      <c r="I671" t="n">
+        <v>-0.0077294120982553</v>
+      </c>
+      <c r="J671" t="n">
+        <v>371.0155444466607</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C672" t="n">
+        <v>2048.10009765625</v>
+      </c>
+      <c r="D672" t="n">
+        <v>746.5</v>
+      </c>
+      <c r="E672" t="n">
+        <v>83.44999694824219</v>
+      </c>
+      <c r="F672" t="n">
+        <v>277.3500061035156</v>
+      </c>
+      <c r="G672" t="n">
+        <v>1149.400024414062</v>
+      </c>
+      <c r="H672" t="n">
+        <v>30118.95037841797</v>
+      </c>
+      <c r="I672" t="n">
+        <v>0.02251131078642199</v>
+      </c>
+      <c r="J672" t="n">
+        <v>379.3675906742931</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C673" t="n">
+        <v>2082.39990234375</v>
+      </c>
+      <c r="D673" t="n">
+        <v>773.9500122070312</v>
+      </c>
+      <c r="E673" t="n">
+        <v>82.88999938964844</v>
+      </c>
+      <c r="F673" t="n">
+        <v>286.2999877929688</v>
+      </c>
+      <c r="G673" t="n">
+        <v>1162.75</v>
+      </c>
+      <c r="H673" t="n">
+        <v>30664.31942749023</v>
+      </c>
+      <c r="I673" t="n">
+        <v>0.01810717313253569</v>
+      </c>
+      <c r="J673" t="n">
+        <v>386.2368653195055</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C674" t="n">
+        <v>2068.14990234375</v>
+      </c>
+      <c r="D674" t="n">
+        <v>781.8499755859375</v>
+      </c>
+      <c r="E674" t="n">
+        <v>83.79000091552734</v>
+      </c>
+      <c r="F674" t="n">
+        <v>291.7999877929688</v>
+      </c>
+      <c r="G674" t="n">
+        <v>1141.199951171875</v>
+      </c>
+      <c r="H674" t="n">
+        <v>30770.6690826416</v>
+      </c>
+      <c r="I674" t="n">
+        <v>0.003468188994144963</v>
+      </c>
+      <c r="J674" t="n">
+        <v>387.5764077649396</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C675" t="n">
+        <v>2061.60009765625</v>
+      </c>
+      <c r="D675" t="n">
+        <v>775.8499755859375</v>
+      </c>
+      <c r="E675" t="n">
+        <v>82.95999908447266</v>
+      </c>
+      <c r="F675" t="n">
+        <v>289.8500061035156</v>
+      </c>
+      <c r="G675" t="n">
+        <v>1118.449951171875</v>
+      </c>
+      <c r="H675" t="n">
+        <v>30542.33015441895</v>
+      </c>
+      <c r="I675" t="n">
+        <v>-0.007420668286718119</v>
+      </c>
+      <c r="J675" t="n">
+        <v>384.7003318071582</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J615"/>
+  <dimension ref="A1:J636"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="E605" sqref="E605"/>
@@ -19584,6 +19584,657 @@
         <v>338.1070569562382</v>
       </c>
     </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="C616" t="n">
+        <v>1893.25</v>
+      </c>
+      <c r="D616" t="n">
+        <v>700.7999877929688</v>
+      </c>
+      <c r="E616" t="n">
+        <v>77</v>
+      </c>
+      <c r="F616" t="n">
+        <v>296.2000122070312</v>
+      </c>
+      <c r="G616" t="n">
+        <v>1298.650024414062</v>
+      </c>
+      <c r="H616" t="n">
+        <v>28928.15008544922</v>
+      </c>
+      <c r="I616" t="n">
+        <v>0</v>
+      </c>
+      <c r="J616" t="n">
+        <v>338.1070569562382</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>1899.349975585938</v>
+      </c>
+      <c r="D617" t="n">
+        <v>696.0999755859375</v>
+      </c>
+      <c r="E617" t="n">
+        <v>75.83999633789062</v>
+      </c>
+      <c r="F617" t="n">
+        <v>299.2999877929688</v>
+      </c>
+      <c r="G617" t="n">
+        <v>1302.900024414062</v>
+      </c>
+      <c r="H617" t="n">
+        <v>28869.96923828125</v>
+      </c>
+      <c r="I617" t="n">
+        <v>-0.002011219071945895</v>
+      </c>
+      <c r="J617" t="n">
+        <v>337.4270495949283</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>1885.400024414062</v>
+      </c>
+      <c r="D618" t="n">
+        <v>683.5999755859375</v>
+      </c>
+      <c r="E618" t="n">
+        <v>73.80999755859375</v>
+      </c>
+      <c r="F618" t="n">
+        <v>296.8999938964844</v>
+      </c>
+      <c r="G618" t="n">
+        <v>1303.849975585938</v>
+      </c>
+      <c r="H618" t="n">
+        <v>28487.57955932617</v>
+      </c>
+      <c r="I618" t="n">
+        <v>-0.01324524026329871</v>
+      </c>
+      <c r="J618" t="n">
+        <v>332.9577472517074</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>1901.949951171875</v>
+      </c>
+      <c r="D619" t="n">
+        <v>689.4000244140625</v>
+      </c>
+      <c r="E619" t="n">
+        <v>74.47000122070312</v>
+      </c>
+      <c r="F619" t="n">
+        <v>297.1499938964844</v>
+      </c>
+      <c r="G619" t="n">
+        <v>1320.25</v>
+      </c>
+      <c r="H619" t="n">
+        <v>28715.86001586914</v>
+      </c>
+      <c r="I619" t="n">
+        <v>0.008013332830455756</v>
+      </c>
+      <c r="J619" t="n">
+        <v>335.6258484989141</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>1901.300048828125</v>
+      </c>
+      <c r="D620" t="n">
+        <v>688.9500122070312</v>
+      </c>
+      <c r="E620" t="n">
+        <v>74.16000366210938</v>
+      </c>
+      <c r="F620" t="n">
+        <v>298.9500122070312</v>
+      </c>
+      <c r="G620" t="n">
+        <v>1327.099975585938</v>
+      </c>
+      <c r="H620" t="n">
+        <v>28721.03076171875</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0.0001800658537390795</v>
+      </c>
+      <c r="J620" t="n">
+        <v>335.6862832538609</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>1879.449951171875</v>
+      </c>
+      <c r="D621" t="n">
+        <v>687.5</v>
+      </c>
+      <c r="E621" t="n">
+        <v>76</v>
+      </c>
+      <c r="F621" t="n">
+        <v>290.6000061035156</v>
+      </c>
+      <c r="G621" t="n">
+        <v>1312.349975585938</v>
+      </c>
+      <c r="H621" t="n">
+        <v>28602.74978637695</v>
+      </c>
+      <c r="I621" t="n">
+        <v>-0.004118270556621158</v>
+      </c>
+      <c r="J621" t="n">
+        <v>334.3038363172749</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>1872.349975585938</v>
+      </c>
+      <c r="D622" t="n">
+        <v>673.5499877929688</v>
+      </c>
+      <c r="E622" t="n">
+        <v>74.72000122070312</v>
+      </c>
+      <c r="F622" t="n">
+        <v>283.6000061035156</v>
+      </c>
+      <c r="G622" t="n">
+        <v>1289.699951171875</v>
+      </c>
+      <c r="H622" t="n">
+        <v>28191.60983276367</v>
+      </c>
+      <c r="I622" t="n">
+        <v>-0.01437414083205038</v>
+      </c>
+      <c r="J622" t="n">
+        <v>329.4985058933557</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>1892.400024414062</v>
+      </c>
+      <c r="D623" t="n">
+        <v>664.1500244140625</v>
+      </c>
+      <c r="E623" t="n">
+        <v>74.33999633789062</v>
+      </c>
+      <c r="F623" t="n">
+        <v>281.5499877929688</v>
+      </c>
+      <c r="G623" t="n">
+        <v>1237.150024414062</v>
+      </c>
+      <c r="H623" t="n">
+        <v>28036.46997070312</v>
+      </c>
+      <c r="I623" t="n">
+        <v>-0.005503050836077006</v>
+      </c>
+      <c r="J623" t="n">
+        <v>327.6852588650132</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>1922.449951171875</v>
+      </c>
+      <c r="D624" t="n">
+        <v>664.5999755859375</v>
+      </c>
+      <c r="E624" t="n">
+        <v>78.05000305175781</v>
+      </c>
+      <c r="F624" t="n">
+        <v>285.75</v>
+      </c>
+      <c r="G624" t="n">
+        <v>1250.300048828125</v>
+      </c>
+      <c r="H624" t="n">
+        <v>28561.49984741211</v>
+      </c>
+      <c r="I624" t="n">
+        <v>0.01872667555001102</v>
+      </c>
+      <c r="J624" t="n">
+        <v>333.8217143902996</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>1957.599975585938</v>
+      </c>
+      <c r="D625" t="n">
+        <v>689.75</v>
+      </c>
+      <c r="E625" t="n">
+        <v>81.94999694824219</v>
+      </c>
+      <c r="F625" t="n">
+        <v>288.0499877929688</v>
+      </c>
+      <c r="G625" t="n">
+        <v>1237.699951171875</v>
+      </c>
+      <c r="H625" t="n">
+        <v>29297.64938354492</v>
+      </c>
+      <c r="I625" t="n">
+        <v>0.0257741904334731</v>
+      </c>
+      <c r="J625" t="n">
+        <v>342.4256988278237</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>1996.400024414062</v>
+      </c>
+      <c r="D626" t="n">
+        <v>729.1500244140625</v>
+      </c>
+      <c r="E626" t="n">
+        <v>81.69999694824219</v>
+      </c>
+      <c r="F626" t="n">
+        <v>291.7000122070312</v>
+      </c>
+      <c r="G626" t="n">
+        <v>1237.300048828125</v>
+      </c>
+      <c r="H626" t="n">
+        <v>29912.80038452148</v>
+      </c>
+      <c r="I626" t="n">
+        <v>0.02099659917843318</v>
+      </c>
+      <c r="J626" t="n">
+        <v>349.6154739745064</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>1988.050048828125</v>
+      </c>
+      <c r="D627" t="n">
+        <v>713.7000122070312</v>
+      </c>
+      <c r="E627" t="n">
+        <v>83.11000061035156</v>
+      </c>
+      <c r="F627" t="n">
+        <v>289.9500122070312</v>
+      </c>
+      <c r="G627" t="n">
+        <v>1241.5</v>
+      </c>
+      <c r="H627" t="n">
+        <v>29812.18057250977</v>
+      </c>
+      <c r="I627" t="n">
+        <v>-0.003363771051799782</v>
+      </c>
+      <c r="J627" t="n">
+        <v>348.4394475638896</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>1989.900024414062</v>
+      </c>
+      <c r="D628" t="n">
+        <v>714.2000122070312</v>
+      </c>
+      <c r="E628" t="n">
+        <v>84.69999694824219</v>
+      </c>
+      <c r="F628" t="n">
+        <v>290.3999938964844</v>
+      </c>
+      <c r="G628" t="n">
+        <v>1226.599975585938</v>
+      </c>
+      <c r="H628" t="n">
+        <v>29926.49987792969</v>
+      </c>
+      <c r="I628" t="n">
+        <v>0.003834650911961043</v>
+      </c>
+      <c r="J628" t="n">
+        <v>349.7755912092537</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>2006.550048828125</v>
+      </c>
+      <c r="D629" t="n">
+        <v>731.0999755859375</v>
+      </c>
+      <c r="E629" t="n">
+        <v>82</v>
+      </c>
+      <c r="F629" t="n">
+        <v>284.2999877929688</v>
+      </c>
+      <c r="G629" t="n">
+        <v>1193.800048828125</v>
+      </c>
+      <c r="H629" t="n">
+        <v>29823.24993896484</v>
+      </c>
+      <c r="I629" t="n">
+        <v>-0.003450117433913109</v>
+      </c>
+      <c r="J629" t="n">
+        <v>348.5688243440654</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>1987.800048828125</v>
+      </c>
+      <c r="D630" t="n">
+        <v>743.25</v>
+      </c>
+      <c r="E630" t="n">
+        <v>80.81999969482422</v>
+      </c>
+      <c r="F630" t="n">
+        <v>282.8500061035156</v>
+      </c>
+      <c r="G630" t="n">
+        <v>1166.400024414062</v>
+      </c>
+      <c r="H630" t="n">
+        <v>29685.31034851074</v>
+      </c>
+      <c r="I630" t="n">
+        <v>-0.004625236710834788</v>
+      </c>
+      <c r="J630" t="n">
+        <v>346.9566110214568</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>1998.599975585938</v>
+      </c>
+      <c r="D631" t="n">
+        <v>735.9500122070312</v>
+      </c>
+      <c r="E631" t="n">
+        <v>80.97000122070312</v>
+      </c>
+      <c r="F631" t="n">
+        <v>272.7000122070312</v>
+      </c>
+      <c r="G631" t="n">
+        <v>1121.300048828125</v>
+      </c>
+      <c r="H631" t="n">
+        <v>29455.8603515625</v>
+      </c>
+      <c r="I631" t="n">
+        <v>-0.0077294120982553</v>
+      </c>
+      <c r="J631" t="n">
+        <v>344.2748403946579</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>2048.10009765625</v>
+      </c>
+      <c r="D632" t="n">
+        <v>746.5</v>
+      </c>
+      <c r="E632" t="n">
+        <v>83.44999694824219</v>
+      </c>
+      <c r="F632" t="n">
+        <v>277.3500061035156</v>
+      </c>
+      <c r="G632" t="n">
+        <v>1149.400024414062</v>
+      </c>
+      <c r="H632" t="n">
+        <v>30118.95037841797</v>
+      </c>
+      <c r="I632" t="n">
+        <v>0.02251131078642199</v>
+      </c>
+      <c r="J632" t="n">
+        <v>352.0249183227279</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>2082.39990234375</v>
+      </c>
+      <c r="D633" t="n">
+        <v>773.9500122070312</v>
+      </c>
+      <c r="E633" t="n">
+        <v>82.88999938964844</v>
+      </c>
+      <c r="F633" t="n">
+        <v>286.2999877929688</v>
+      </c>
+      <c r="G633" t="n">
+        <v>1162.75</v>
+      </c>
+      <c r="H633" t="n">
+        <v>30664.31942749023</v>
+      </c>
+      <c r="I633" t="n">
+        <v>0.01810717313253569</v>
+      </c>
+      <c r="J633" t="n">
+        <v>358.3990944657643</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>2068.14990234375</v>
+      </c>
+      <c r="D634" t="n">
+        <v>781.8499755859375</v>
+      </c>
+      <c r="E634" t="n">
+        <v>83.79000091552734</v>
+      </c>
+      <c r="F634" t="n">
+        <v>291.7999877929688</v>
+      </c>
+      <c r="G634" t="n">
+        <v>1141.199951171875</v>
+      </c>
+      <c r="H634" t="n">
+        <v>30770.6690826416</v>
+      </c>
+      <c r="I634" t="n">
+        <v>0.003468188994144963</v>
+      </c>
+      <c r="J634" t="n">
+        <v>359.642090260702</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>2061.60009765625</v>
+      </c>
+      <c r="D635" t="n">
+        <v>775.8499755859375</v>
+      </c>
+      <c r="E635" t="n">
+        <v>82.95999908447266</v>
+      </c>
+      <c r="F635" t="n">
+        <v>289.8500061035156</v>
+      </c>
+      <c r="G635" t="n">
+        <v>1118.449951171875</v>
+      </c>
+      <c r="H635" t="n">
+        <v>30542.33015441895</v>
+      </c>
+      <c r="I635" t="n">
+        <v>-0.007420668286718119</v>
+      </c>
+      <c r="J635" t="n">
+        <v>356.9733056069354</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C636" t="n">
+        <v>2022.050048828125</v>
+      </c>
+      <c r="D636" t="n">
+        <v>772.0999755859375</v>
+      </c>
+      <c r="E636" t="n">
+        <v>81.83999633789062</v>
+      </c>
+      <c r="F636" t="n">
+        <v>290.5</v>
+      </c>
+      <c r="G636" t="n">
+        <v>1123.650024414062</v>
+      </c>
+      <c r="H636" t="n">
+        <v>30238.56976318359</v>
+      </c>
+      <c r="I636" t="n">
+        <v>-0.009945553914831306</v>
+      </c>
+      <c r="J636" t="n">
+        <v>353.423008349866</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J636"/>
+  <dimension ref="A1:J657"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="E605" sqref="E605"/>
@@ -20235,6 +20235,657 @@
         <v>353.423008349866</v>
       </c>
     </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="C637" t="n">
+        <v>1893.25</v>
+      </c>
+      <c r="D637" t="n">
+        <v>700.7999877929688</v>
+      </c>
+      <c r="E637" t="n">
+        <v>77</v>
+      </c>
+      <c r="F637" t="n">
+        <v>296.2000122070312</v>
+      </c>
+      <c r="G637" t="n">
+        <v>1298.650024414062</v>
+      </c>
+      <c r="H637" t="n">
+        <v>28928.15008544922</v>
+      </c>
+      <c r="I637" t="n">
+        <v>0</v>
+      </c>
+      <c r="J637" t="n">
+        <v>353.423008349866</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="C638" t="n">
+        <v>1899.349975585938</v>
+      </c>
+      <c r="D638" t="n">
+        <v>696.0999755859375</v>
+      </c>
+      <c r="E638" t="n">
+        <v>75.83999633789062</v>
+      </c>
+      <c r="F638" t="n">
+        <v>299.2999877929688</v>
+      </c>
+      <c r="G638" t="n">
+        <v>1302.900024414062</v>
+      </c>
+      <c r="H638" t="n">
+        <v>28869.96923828125</v>
+      </c>
+      <c r="I638" t="n">
+        <v>-0.002011219071945895</v>
+      </c>
+      <c r="J638" t="n">
+        <v>352.7121972550082</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C639" t="n">
+        <v>1885.400024414062</v>
+      </c>
+      <c r="D639" t="n">
+        <v>683.5999755859375</v>
+      </c>
+      <c r="E639" t="n">
+        <v>73.80999755859375</v>
+      </c>
+      <c r="F639" t="n">
+        <v>296.8999938964844</v>
+      </c>
+      <c r="G639" t="n">
+        <v>1303.849975585938</v>
+      </c>
+      <c r="H639" t="n">
+        <v>28487.57955932617</v>
+      </c>
+      <c r="I639" t="n">
+        <v>-0.01324524026329871</v>
+      </c>
+      <c r="J639" t="n">
+        <v>348.0404394585696</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C640" t="n">
+        <v>1901.949951171875</v>
+      </c>
+      <c r="D640" t="n">
+        <v>689.4000244140625</v>
+      </c>
+      <c r="E640" t="n">
+        <v>74.47000122070312</v>
+      </c>
+      <c r="F640" t="n">
+        <v>297.1499938964844</v>
+      </c>
+      <c r="G640" t="n">
+        <v>1320.25</v>
+      </c>
+      <c r="H640" t="n">
+        <v>28715.86001586914</v>
+      </c>
+      <c r="I640" t="n">
+        <v>0.008013332830455756</v>
+      </c>
+      <c r="J640" t="n">
+        <v>350.8294033384092</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C641" t="n">
+        <v>1901.300048828125</v>
+      </c>
+      <c r="D641" t="n">
+        <v>688.9500122070312</v>
+      </c>
+      <c r="E641" t="n">
+        <v>74.16000366210938</v>
+      </c>
+      <c r="F641" t="n">
+        <v>298.9500122070312</v>
+      </c>
+      <c r="G641" t="n">
+        <v>1327.099975585938</v>
+      </c>
+      <c r="H641" t="n">
+        <v>28721.03076171875</v>
+      </c>
+      <c r="I641" t="n">
+        <v>0.0001800658537390795</v>
+      </c>
+      <c r="J641" t="n">
+        <v>350.892575734438</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C642" t="n">
+        <v>1879.449951171875</v>
+      </c>
+      <c r="D642" t="n">
+        <v>687.5</v>
+      </c>
+      <c r="E642" t="n">
+        <v>76</v>
+      </c>
+      <c r="F642" t="n">
+        <v>290.6000061035156</v>
+      </c>
+      <c r="G642" t="n">
+        <v>1312.349975585938</v>
+      </c>
+      <c r="H642" t="n">
+        <v>28602.74978637695</v>
+      </c>
+      <c r="I642" t="n">
+        <v>-0.004118270556621158</v>
+      </c>
+      <c r="J642" t="n">
+        <v>349.4475051712539</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C643" t="n">
+        <v>1872.349975585938</v>
+      </c>
+      <c r="D643" t="n">
+        <v>673.5499877929688</v>
+      </c>
+      <c r="E643" t="n">
+        <v>74.72000122070312</v>
+      </c>
+      <c r="F643" t="n">
+        <v>283.6000061035156</v>
+      </c>
+      <c r="G643" t="n">
+        <v>1289.699951171875</v>
+      </c>
+      <c r="H643" t="n">
+        <v>28191.60983276367</v>
+      </c>
+      <c r="I643" t="n">
+        <v>-0.01437414083205038</v>
+      </c>
+      <c r="J643" t="n">
+        <v>344.4244975185136</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C644" t="n">
+        <v>1892.400024414062</v>
+      </c>
+      <c r="D644" t="n">
+        <v>664.1500244140625</v>
+      </c>
+      <c r="E644" t="n">
+        <v>74.33999633789062</v>
+      </c>
+      <c r="F644" t="n">
+        <v>281.5499877929688</v>
+      </c>
+      <c r="G644" t="n">
+        <v>1237.150024414062</v>
+      </c>
+      <c r="H644" t="n">
+        <v>28036.46997070312</v>
+      </c>
+      <c r="I644" t="n">
+        <v>-0.005503050836077006</v>
+      </c>
+      <c r="J644" t="n">
+        <v>342.529111999479</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C645" t="n">
+        <v>1922.449951171875</v>
+      </c>
+      <c r="D645" t="n">
+        <v>664.5999755859375</v>
+      </c>
+      <c r="E645" t="n">
+        <v>78.05000305175781</v>
+      </c>
+      <c r="F645" t="n">
+        <v>285.75</v>
+      </c>
+      <c r="G645" t="n">
+        <v>1250.300048828125</v>
+      </c>
+      <c r="H645" t="n">
+        <v>28561.49984741211</v>
+      </c>
+      <c r="I645" t="n">
+        <v>0.01872667555001102</v>
+      </c>
+      <c r="J645" t="n">
+        <v>348.9435435463266</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C646" t="n">
+        <v>1957.599975585938</v>
+      </c>
+      <c r="D646" t="n">
+        <v>689.75</v>
+      </c>
+      <c r="E646" t="n">
+        <v>81.94999694824219</v>
+      </c>
+      <c r="F646" t="n">
+        <v>288.0499877929688</v>
+      </c>
+      <c r="G646" t="n">
+        <v>1237.699951171875</v>
+      </c>
+      <c r="H646" t="n">
+        <v>29297.64938354492</v>
+      </c>
+      <c r="I646" t="n">
+        <v>0.0257741904334731</v>
+      </c>
+      <c r="J646" t="n">
+        <v>357.9372808882206</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C647" t="n">
+        <v>1996.400024414062</v>
+      </c>
+      <c r="D647" t="n">
+        <v>729.1500244140625</v>
+      </c>
+      <c r="E647" t="n">
+        <v>81.69999694824219</v>
+      </c>
+      <c r="F647" t="n">
+        <v>291.7000122070312</v>
+      </c>
+      <c r="G647" t="n">
+        <v>1237.300048828125</v>
+      </c>
+      <c r="H647" t="n">
+        <v>29912.80038452148</v>
+      </c>
+      <c r="I647" t="n">
+        <v>0.02099659917843318</v>
+      </c>
+      <c r="J647" t="n">
+        <v>365.4527465060488</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C648" t="n">
+        <v>1988.050048828125</v>
+      </c>
+      <c r="D648" t="n">
+        <v>713.7000122070312</v>
+      </c>
+      <c r="E648" t="n">
+        <v>83.11000061035156</v>
+      </c>
+      <c r="F648" t="n">
+        <v>289.9500122070312</v>
+      </c>
+      <c r="G648" t="n">
+        <v>1241.5</v>
+      </c>
+      <c r="H648" t="n">
+        <v>29812.18057250977</v>
+      </c>
+      <c r="I648" t="n">
+        <v>-0.003363771051799782</v>
+      </c>
+      <c r="J648" t="n">
+        <v>364.223447136551</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C649" t="n">
+        <v>1989.900024414062</v>
+      </c>
+      <c r="D649" t="n">
+        <v>714.2000122070312</v>
+      </c>
+      <c r="E649" t="n">
+        <v>84.69999694824219</v>
+      </c>
+      <c r="F649" t="n">
+        <v>290.3999938964844</v>
+      </c>
+      <c r="G649" t="n">
+        <v>1226.599975585938</v>
+      </c>
+      <c r="H649" t="n">
+        <v>29926.49987792969</v>
+      </c>
+      <c r="I649" t="n">
+        <v>0.003834650911961043</v>
+      </c>
+      <c r="J649" t="n">
+        <v>365.6201169102708</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C650" t="n">
+        <v>2006.550048828125</v>
+      </c>
+      <c r="D650" t="n">
+        <v>731.0999755859375</v>
+      </c>
+      <c r="E650" t="n">
+        <v>82</v>
+      </c>
+      <c r="F650" t="n">
+        <v>284.2999877929688</v>
+      </c>
+      <c r="G650" t="n">
+        <v>1193.800048828125</v>
+      </c>
+      <c r="H650" t="n">
+        <v>29823.24993896484</v>
+      </c>
+      <c r="I650" t="n">
+        <v>-0.003450117433913109</v>
+      </c>
+      <c r="J650" t="n">
+        <v>364.3586845707293</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C651" t="n">
+        <v>1987.800048828125</v>
+      </c>
+      <c r="D651" t="n">
+        <v>743.25</v>
+      </c>
+      <c r="E651" t="n">
+        <v>80.81999969482422</v>
+      </c>
+      <c r="F651" t="n">
+        <v>282.8500061035156</v>
+      </c>
+      <c r="G651" t="n">
+        <v>1166.400024414062</v>
+      </c>
+      <c r="H651" t="n">
+        <v>29685.31034851074</v>
+      </c>
+      <c r="I651" t="n">
+        <v>-0.004625236710834788</v>
+      </c>
+      <c r="J651" t="n">
+        <v>362.6734394069413</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C652" t="n">
+        <v>1998.599975585938</v>
+      </c>
+      <c r="D652" t="n">
+        <v>735.9500122070312</v>
+      </c>
+      <c r="E652" t="n">
+        <v>80.97000122070312</v>
+      </c>
+      <c r="F652" t="n">
+        <v>272.7000122070312</v>
+      </c>
+      <c r="G652" t="n">
+        <v>1121.300048828125</v>
+      </c>
+      <c r="H652" t="n">
+        <v>29455.8603515625</v>
+      </c>
+      <c r="I652" t="n">
+        <v>-0.0077294120982553</v>
+      </c>
+      <c r="J652" t="n">
+        <v>359.8701869366734</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C653" t="n">
+        <v>2048.10009765625</v>
+      </c>
+      <c r="D653" t="n">
+        <v>746.5</v>
+      </c>
+      <c r="E653" t="n">
+        <v>83.44999694824219</v>
+      </c>
+      <c r="F653" t="n">
+        <v>277.3500061035156</v>
+      </c>
+      <c r="G653" t="n">
+        <v>1149.400024414062</v>
+      </c>
+      <c r="H653" t="n">
+        <v>30118.95037841797</v>
+      </c>
+      <c r="I653" t="n">
+        <v>0.02251131078642199</v>
+      </c>
+      <c r="J653" t="n">
+        <v>367.9713365575727</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C654" t="n">
+        <v>2082.39990234375</v>
+      </c>
+      <c r="D654" t="n">
+        <v>773.9500122070312</v>
+      </c>
+      <c r="E654" t="n">
+        <v>82.88999938964844</v>
+      </c>
+      <c r="F654" t="n">
+        <v>286.2999877929688</v>
+      </c>
+      <c r="G654" t="n">
+        <v>1162.75</v>
+      </c>
+      <c r="H654" t="n">
+        <v>30664.31942749023</v>
+      </c>
+      <c r="I654" t="n">
+        <v>0.01810717313253569</v>
+      </c>
+      <c r="J654" t="n">
+        <v>374.6342572564312</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C655" t="n">
+        <v>2068.14990234375</v>
+      </c>
+      <c r="D655" t="n">
+        <v>781.8499755859375</v>
+      </c>
+      <c r="E655" t="n">
+        <v>83.79000091552734</v>
+      </c>
+      <c r="F655" t="n">
+        <v>291.7999877929688</v>
+      </c>
+      <c r="G655" t="n">
+        <v>1141.199951171875</v>
+      </c>
+      <c r="H655" t="n">
+        <v>30770.6690826416</v>
+      </c>
+      <c r="I655" t="n">
+        <v>0.003468188994144963</v>
+      </c>
+      <c r="J655" t="n">
+        <v>375.9335596642777</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C656" t="n">
+        <v>2061.60009765625</v>
+      </c>
+      <c r="D656" t="n">
+        <v>775.8499755859375</v>
+      </c>
+      <c r="E656" t="n">
+        <v>82.95999908447266</v>
+      </c>
+      <c r="F656" t="n">
+        <v>289.8500061035156</v>
+      </c>
+      <c r="G656" t="n">
+        <v>1118.449951171875</v>
+      </c>
+      <c r="H656" t="n">
+        <v>30542.33015441895</v>
+      </c>
+      <c r="I656" t="n">
+        <v>-0.007420668286718119</v>
+      </c>
+      <c r="J656" t="n">
+        <v>373.1438814201639</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C657" t="n">
+        <v>2022.050048828125</v>
+      </c>
+      <c r="D657" t="n">
+        <v>772.0999755859375</v>
+      </c>
+      <c r="E657" t="n">
+        <v>81.83999633789062</v>
+      </c>
+      <c r="F657" t="n">
+        <v>290.5</v>
+      </c>
+      <c r="G657" t="n">
+        <v>1123.650024414062</v>
+      </c>
+      <c r="H657" t="n">
+        <v>30238.56976318359</v>
+      </c>
+      <c r="I657" t="n">
+        <v>-0.009945553914831306</v>
+      </c>
+      <c r="J657" t="n">
+        <v>369.4327588295102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J657"/>
+  <dimension ref="A1:J678"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="E605" sqref="E605"/>
@@ -20886,6 +20886,657 @@
         <v>369.4327588295102</v>
       </c>
     </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="C658" t="n">
+        <v>1893.25</v>
+      </c>
+      <c r="D658" t="n">
+        <v>700.7999877929688</v>
+      </c>
+      <c r="E658" t="n">
+        <v>77</v>
+      </c>
+      <c r="F658" t="n">
+        <v>296.2000122070312</v>
+      </c>
+      <c r="G658" t="n">
+        <v>1298.650024414062</v>
+      </c>
+      <c r="H658" t="n">
+        <v>28928.15008544922</v>
+      </c>
+      <c r="I658" t="n">
+        <v>0</v>
+      </c>
+      <c r="J658" t="n">
+        <v>369.4327588295102</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="C659" t="n">
+        <v>1899.349975585938</v>
+      </c>
+      <c r="D659" t="n">
+        <v>696.0999755859375</v>
+      </c>
+      <c r="E659" t="n">
+        <v>75.83999633789062</v>
+      </c>
+      <c r="F659" t="n">
+        <v>299.2999877929688</v>
+      </c>
+      <c r="G659" t="n">
+        <v>1302.900024414062</v>
+      </c>
+      <c r="H659" t="n">
+        <v>28869.96923828125</v>
+      </c>
+      <c r="I659" t="n">
+        <v>-0.002011219071945895</v>
+      </c>
+      <c r="J659" t="n">
+        <v>368.6897486191507</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C660" t="n">
+        <v>1885.400024414062</v>
+      </c>
+      <c r="D660" t="n">
+        <v>683.5999755859375</v>
+      </c>
+      <c r="E660" t="n">
+        <v>73.80999755859375</v>
+      </c>
+      <c r="F660" t="n">
+        <v>296.8999938964844</v>
+      </c>
+      <c r="G660" t="n">
+        <v>1303.849975585938</v>
+      </c>
+      <c r="H660" t="n">
+        <v>28487.57955932617</v>
+      </c>
+      <c r="I660" t="n">
+        <v>-0.01324524026329871</v>
+      </c>
+      <c r="J660" t="n">
+        <v>363.8063643160748</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C661" t="n">
+        <v>1901.949951171875</v>
+      </c>
+      <c r="D661" t="n">
+        <v>689.4000244140625</v>
+      </c>
+      <c r="E661" t="n">
+        <v>74.47000122070312</v>
+      </c>
+      <c r="F661" t="n">
+        <v>297.1499938964844</v>
+      </c>
+      <c r="G661" t="n">
+        <v>1320.25</v>
+      </c>
+      <c r="H661" t="n">
+        <v>28715.86001586914</v>
+      </c>
+      <c r="I661" t="n">
+        <v>0.008013332830455756</v>
+      </c>
+      <c r="J661" t="n">
+        <v>366.7216657991775</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C662" t="n">
+        <v>1901.300048828125</v>
+      </c>
+      <c r="D662" t="n">
+        <v>688.9500122070312</v>
+      </c>
+      <c r="E662" t="n">
+        <v>74.16000366210938</v>
+      </c>
+      <c r="F662" t="n">
+        <v>298.9500122070312</v>
+      </c>
+      <c r="G662" t="n">
+        <v>1327.099975585938</v>
+      </c>
+      <c r="H662" t="n">
+        <v>28721.03076171875</v>
+      </c>
+      <c r="I662" t="n">
+        <v>0.0001800658537390795</v>
+      </c>
+      <c r="J662" t="n">
+        <v>366.7876998490142</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C663" t="n">
+        <v>1879.449951171875</v>
+      </c>
+      <c r="D663" t="n">
+        <v>687.5</v>
+      </c>
+      <c r="E663" t="n">
+        <v>76</v>
+      </c>
+      <c r="F663" t="n">
+        <v>290.6000061035156</v>
+      </c>
+      <c r="G663" t="n">
+        <v>1312.349975585938</v>
+      </c>
+      <c r="H663" t="n">
+        <v>28602.74978637695</v>
+      </c>
+      <c r="I663" t="n">
+        <v>-0.004118270556621158</v>
+      </c>
+      <c r="J663" t="n">
+        <v>365.2771688641952</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C664" t="n">
+        <v>1872.349975585938</v>
+      </c>
+      <c r="D664" t="n">
+        <v>673.5499877929688</v>
+      </c>
+      <c r="E664" t="n">
+        <v>74.72000122070312</v>
+      </c>
+      <c r="F664" t="n">
+        <v>283.6000061035156</v>
+      </c>
+      <c r="G664" t="n">
+        <v>1289.699951171875</v>
+      </c>
+      <c r="H664" t="n">
+        <v>28191.60983276367</v>
+      </c>
+      <c r="I664" t="n">
+        <v>-0.01437414083205038</v>
+      </c>
+      <c r="J664" t="n">
+        <v>360.0266233962087</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C665" t="n">
+        <v>1892.400024414062</v>
+      </c>
+      <c r="D665" t="n">
+        <v>664.1500244140625</v>
+      </c>
+      <c r="E665" t="n">
+        <v>74.33999633789062</v>
+      </c>
+      <c r="F665" t="n">
+        <v>281.5499877929688</v>
+      </c>
+      <c r="G665" t="n">
+        <v>1237.150024414062</v>
+      </c>
+      <c r="H665" t="n">
+        <v>28036.46997070312</v>
+      </c>
+      <c r="I665" t="n">
+        <v>-0.005503050836077006</v>
+      </c>
+      <c r="J665" t="n">
+        <v>358.0453785853181</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C666" t="n">
+        <v>1922.449951171875</v>
+      </c>
+      <c r="D666" t="n">
+        <v>664.5999755859375</v>
+      </c>
+      <c r="E666" t="n">
+        <v>78.05000305175781</v>
+      </c>
+      <c r="F666" t="n">
+        <v>285.75</v>
+      </c>
+      <c r="G666" t="n">
+        <v>1250.300048828125</v>
+      </c>
+      <c r="H666" t="n">
+        <v>28561.49984741211</v>
+      </c>
+      <c r="I666" t="n">
+        <v>0.01872667555001102</v>
+      </c>
+      <c r="J666" t="n">
+        <v>364.7503782222662</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C667" t="n">
+        <v>1957.599975585938</v>
+      </c>
+      <c r="D667" t="n">
+        <v>689.75</v>
+      </c>
+      <c r="E667" t="n">
+        <v>81.94999694824219</v>
+      </c>
+      <c r="F667" t="n">
+        <v>288.0499877929688</v>
+      </c>
+      <c r="G667" t="n">
+        <v>1237.699951171875</v>
+      </c>
+      <c r="H667" t="n">
+        <v>29297.64938354492</v>
+      </c>
+      <c r="I667" t="n">
+        <v>0.0257741904334731</v>
+      </c>
+      <c r="J667" t="n">
+        <v>374.1515239312483</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C668" t="n">
+        <v>1996.400024414062</v>
+      </c>
+      <c r="D668" t="n">
+        <v>729.1500244140625</v>
+      </c>
+      <c r="E668" t="n">
+        <v>81.69999694824219</v>
+      </c>
+      <c r="F668" t="n">
+        <v>291.7000122070312</v>
+      </c>
+      <c r="G668" t="n">
+        <v>1237.300048828125</v>
+      </c>
+      <c r="H668" t="n">
+        <v>29912.80038452148</v>
+      </c>
+      <c r="I668" t="n">
+        <v>0.02099659917843318</v>
+      </c>
+      <c r="J668" t="n">
+        <v>382.0074335112327</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C669" t="n">
+        <v>1988.050048828125</v>
+      </c>
+      <c r="D669" t="n">
+        <v>713.7000122070312</v>
+      </c>
+      <c r="E669" t="n">
+        <v>83.11000061035156</v>
+      </c>
+      <c r="F669" t="n">
+        <v>289.9500122070312</v>
+      </c>
+      <c r="G669" t="n">
+        <v>1241.5</v>
+      </c>
+      <c r="H669" t="n">
+        <v>29812.18057250977</v>
+      </c>
+      <c r="I669" t="n">
+        <v>-0.003363771051799782</v>
+      </c>
+      <c r="J669" t="n">
+        <v>380.7224479648153</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C670" t="n">
+        <v>1989.900024414062</v>
+      </c>
+      <c r="D670" t="n">
+        <v>714.2000122070312</v>
+      </c>
+      <c r="E670" t="n">
+        <v>84.69999694824219</v>
+      </c>
+      <c r="F670" t="n">
+        <v>290.3999938964844</v>
+      </c>
+      <c r="G670" t="n">
+        <v>1226.599975585938</v>
+      </c>
+      <c r="H670" t="n">
+        <v>29926.49987792969</v>
+      </c>
+      <c r="I670" t="n">
+        <v>0.003834650911961043</v>
+      </c>
+      <c r="J670" t="n">
+        <v>382.1823856471077</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C671" t="n">
+        <v>2006.550048828125</v>
+      </c>
+      <c r="D671" t="n">
+        <v>731.0999755859375</v>
+      </c>
+      <c r="E671" t="n">
+        <v>82</v>
+      </c>
+      <c r="F671" t="n">
+        <v>284.2999877929688</v>
+      </c>
+      <c r="G671" t="n">
+        <v>1193.800048828125</v>
+      </c>
+      <c r="H671" t="n">
+        <v>29823.24993896484</v>
+      </c>
+      <c r="I671" t="n">
+        <v>-0.003450117433913109</v>
+      </c>
+      <c r="J671" t="n">
+        <v>380.863811535452</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C672" t="n">
+        <v>1987.800048828125</v>
+      </c>
+      <c r="D672" t="n">
+        <v>743.25</v>
+      </c>
+      <c r="E672" t="n">
+        <v>80.81999969482422</v>
+      </c>
+      <c r="F672" t="n">
+        <v>282.8500061035156</v>
+      </c>
+      <c r="G672" t="n">
+        <v>1166.400024414062</v>
+      </c>
+      <c r="H672" t="n">
+        <v>29685.31034851074</v>
+      </c>
+      <c r="I672" t="n">
+        <v>-0.004625236710834788</v>
+      </c>
+      <c r="J672" t="n">
+        <v>379.1022262525098</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C673" t="n">
+        <v>1998.599975585938</v>
+      </c>
+      <c r="D673" t="n">
+        <v>735.9500122070312</v>
+      </c>
+      <c r="E673" t="n">
+        <v>80.97000122070312</v>
+      </c>
+      <c r="F673" t="n">
+        <v>272.7000122070312</v>
+      </c>
+      <c r="G673" t="n">
+        <v>1121.300048828125</v>
+      </c>
+      <c r="H673" t="n">
+        <v>29455.8603515625</v>
+      </c>
+      <c r="I673" t="n">
+        <v>-0.0077294120982553</v>
+      </c>
+      <c r="J673" t="n">
+        <v>376.1719889184382</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C674" t="n">
+        <v>2048.10009765625</v>
+      </c>
+      <c r="D674" t="n">
+        <v>746.5</v>
+      </c>
+      <c r="E674" t="n">
+        <v>83.44999694824219</v>
+      </c>
+      <c r="F674" t="n">
+        <v>277.3500061035156</v>
+      </c>
+      <c r="G674" t="n">
+        <v>1149.400024414062</v>
+      </c>
+      <c r="H674" t="n">
+        <v>30118.95037841797</v>
+      </c>
+      <c r="I674" t="n">
+        <v>0.02251131078642199</v>
+      </c>
+      <c r="J674" t="n">
+        <v>384.6401134701276</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C675" t="n">
+        <v>2082.39990234375</v>
+      </c>
+      <c r="D675" t="n">
+        <v>773.9500122070312</v>
+      </c>
+      <c r="E675" t="n">
+        <v>82.88999938964844</v>
+      </c>
+      <c r="F675" t="n">
+        <v>286.2999877929688</v>
+      </c>
+      <c r="G675" t="n">
+        <v>1162.75</v>
+      </c>
+      <c r="H675" t="n">
+        <v>30664.31942749023</v>
+      </c>
+      <c r="I675" t="n">
+        <v>0.01810717313253569</v>
+      </c>
+      <c r="J675" t="n">
+        <v>391.6048585984494</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C676" t="n">
+        <v>2068.14990234375</v>
+      </c>
+      <c r="D676" t="n">
+        <v>781.8499755859375</v>
+      </c>
+      <c r="E676" t="n">
+        <v>83.79000091552734</v>
+      </c>
+      <c r="F676" t="n">
+        <v>291.7999877929688</v>
+      </c>
+      <c r="G676" t="n">
+        <v>1141.199951171875</v>
+      </c>
+      <c r="H676" t="n">
+        <v>30770.6690826416</v>
+      </c>
+      <c r="I676" t="n">
+        <v>0.003468188994144963</v>
+      </c>
+      <c r="J676" t="n">
+        <v>392.9630182590943</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C677" t="n">
+        <v>2061.60009765625</v>
+      </c>
+      <c r="D677" t="n">
+        <v>775.8499755859375</v>
+      </c>
+      <c r="E677" t="n">
+        <v>82.95999908447266</v>
+      </c>
+      <c r="F677" t="n">
+        <v>289.8500061035156</v>
+      </c>
+      <c r="G677" t="n">
+        <v>1118.449951171875</v>
+      </c>
+      <c r="H677" t="n">
+        <v>30542.33015441895</v>
+      </c>
+      <c r="I677" t="n">
+        <v>-0.007420668286718119</v>
+      </c>
+      <c r="J677" t="n">
+        <v>390.0469700516459</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C678" t="n">
+        <v>2022.050048828125</v>
+      </c>
+      <c r="D678" t="n">
+        <v>772.0999755859375</v>
+      </c>
+      <c r="E678" t="n">
+        <v>81.83999633789062</v>
+      </c>
+      <c r="F678" t="n">
+        <v>290.5</v>
+      </c>
+      <c r="G678" t="n">
+        <v>1123.650024414062</v>
+      </c>
+      <c r="H678" t="n">
+        <v>30238.56976318359</v>
+      </c>
+      <c r="I678" t="n">
+        <v>-0.009945553914831306</v>
+      </c>
+      <c r="J678" t="n">
+        <v>386.1677368816807</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J678"/>
+  <dimension ref="A1:J699"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="E605" sqref="E605"/>
@@ -21537,6 +21537,657 @@
         <v>386.1677368816807</v>
       </c>
     </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="C679" t="n">
+        <v>1893.25</v>
+      </c>
+      <c r="D679" t="n">
+        <v>700.7999877929688</v>
+      </c>
+      <c r="E679" t="n">
+        <v>77</v>
+      </c>
+      <c r="F679" t="n">
+        <v>296.2000122070312</v>
+      </c>
+      <c r="G679" t="n">
+        <v>1298.650024414062</v>
+      </c>
+      <c r="H679" t="n">
+        <v>28928.15008544922</v>
+      </c>
+      <c r="I679" t="n">
+        <v>0</v>
+      </c>
+      <c r="J679" t="n">
+        <v>386.1677368816807</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="C680" t="n">
+        <v>1899.349975585938</v>
+      </c>
+      <c r="D680" t="n">
+        <v>696.0999755859375</v>
+      </c>
+      <c r="E680" t="n">
+        <v>75.83999633789062</v>
+      </c>
+      <c r="F680" t="n">
+        <v>299.2999877929688</v>
+      </c>
+      <c r="G680" t="n">
+        <v>1302.900024414062</v>
+      </c>
+      <c r="H680" t="n">
+        <v>28869.96923828125</v>
+      </c>
+      <c r="I680" t="n">
+        <v>-0.002011219071945895</v>
+      </c>
+      <c r="J680" t="n">
+        <v>385.391068964294</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C681" t="n">
+        <v>1885.400024414062</v>
+      </c>
+      <c r="D681" t="n">
+        <v>683.5999755859375</v>
+      </c>
+      <c r="E681" t="n">
+        <v>73.80999755859375</v>
+      </c>
+      <c r="F681" t="n">
+        <v>296.8999938964844</v>
+      </c>
+      <c r="G681" t="n">
+        <v>1303.849975585938</v>
+      </c>
+      <c r="H681" t="n">
+        <v>28487.57955932617</v>
+      </c>
+      <c r="I681" t="n">
+        <v>-0.01324524026329871</v>
+      </c>
+      <c r="J681" t="n">
+        <v>380.2864716605324</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C682" t="n">
+        <v>1901.949951171875</v>
+      </c>
+      <c r="D682" t="n">
+        <v>689.4000244140625</v>
+      </c>
+      <c r="E682" t="n">
+        <v>74.47000122070312</v>
+      </c>
+      <c r="F682" t="n">
+        <v>297.1499938964844</v>
+      </c>
+      <c r="G682" t="n">
+        <v>1320.25</v>
+      </c>
+      <c r="H682" t="n">
+        <v>28715.86001586914</v>
+      </c>
+      <c r="I682" t="n">
+        <v>0.008013332830455756</v>
+      </c>
+      <c r="J682" t="n">
+        <v>383.3338337288679</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C683" t="n">
+        <v>1901.300048828125</v>
+      </c>
+      <c r="D683" t="n">
+        <v>688.9500122070312</v>
+      </c>
+      <c r="E683" t="n">
+        <v>74.16000366210938</v>
+      </c>
+      <c r="F683" t="n">
+        <v>298.9500122070312</v>
+      </c>
+      <c r="G683" t="n">
+        <v>1327.099975585938</v>
+      </c>
+      <c r="H683" t="n">
+        <v>28721.03076171875</v>
+      </c>
+      <c r="I683" t="n">
+        <v>0.0001800658537390795</v>
+      </c>
+      <c r="J683" t="n">
+        <v>383.4028590629053</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C684" t="n">
+        <v>1879.449951171875</v>
+      </c>
+      <c r="D684" t="n">
+        <v>687.5</v>
+      </c>
+      <c r="E684" t="n">
+        <v>76</v>
+      </c>
+      <c r="F684" t="n">
+        <v>290.6000061035156</v>
+      </c>
+      <c r="G684" t="n">
+        <v>1312.349975585938</v>
+      </c>
+      <c r="H684" t="n">
+        <v>28602.74978637695</v>
+      </c>
+      <c r="I684" t="n">
+        <v>-0.004118270556621158</v>
+      </c>
+      <c r="J684" t="n">
+        <v>381.8239023571022</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C685" t="n">
+        <v>1872.349975585938</v>
+      </c>
+      <c r="D685" t="n">
+        <v>673.5499877929688</v>
+      </c>
+      <c r="E685" t="n">
+        <v>74.72000122070312</v>
+      </c>
+      <c r="F685" t="n">
+        <v>283.6000061035156</v>
+      </c>
+      <c r="G685" t="n">
+        <v>1289.699951171875</v>
+      </c>
+      <c r="H685" t="n">
+        <v>28191.60983276367</v>
+      </c>
+      <c r="I685" t="n">
+        <v>-0.01437414083205038</v>
+      </c>
+      <c r="J685" t="n">
+        <v>376.3355118115781</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C686" t="n">
+        <v>1892.400024414062</v>
+      </c>
+      <c r="D686" t="n">
+        <v>664.1500244140625</v>
+      </c>
+      <c r="E686" t="n">
+        <v>74.33999633789062</v>
+      </c>
+      <c r="F686" t="n">
+        <v>281.5499877929688</v>
+      </c>
+      <c r="G686" t="n">
+        <v>1237.150024414062</v>
+      </c>
+      <c r="H686" t="n">
+        <v>28036.46997070312</v>
+      </c>
+      <c r="I686" t="n">
+        <v>-0.005503050836077006</v>
+      </c>
+      <c r="J686" t="n">
+        <v>374.2645183586579</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C687" t="n">
+        <v>1922.449951171875</v>
+      </c>
+      <c r="D687" t="n">
+        <v>664.5999755859375</v>
+      </c>
+      <c r="E687" t="n">
+        <v>78.05000305175781</v>
+      </c>
+      <c r="F687" t="n">
+        <v>285.75</v>
+      </c>
+      <c r="G687" t="n">
+        <v>1250.300048828125</v>
+      </c>
+      <c r="H687" t="n">
+        <v>28561.49984741211</v>
+      </c>
+      <c r="I687" t="n">
+        <v>0.01872667555001102</v>
+      </c>
+      <c r="J687" t="n">
+        <v>381.2732485638417</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C688" t="n">
+        <v>1957.599975585938</v>
+      </c>
+      <c r="D688" t="n">
+        <v>689.75</v>
+      </c>
+      <c r="E688" t="n">
+        <v>81.94999694824219</v>
+      </c>
+      <c r="F688" t="n">
+        <v>288.0499877929688</v>
+      </c>
+      <c r="G688" t="n">
+        <v>1237.699951171875</v>
+      </c>
+      <c r="H688" t="n">
+        <v>29297.64938354492</v>
+      </c>
+      <c r="I688" t="n">
+        <v>0.0257741904334731</v>
+      </c>
+      <c r="J688" t="n">
+        <v>391.1002578795151</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C689" t="n">
+        <v>1996.400024414062</v>
+      </c>
+      <c r="D689" t="n">
+        <v>729.1500244140625</v>
+      </c>
+      <c r="E689" t="n">
+        <v>81.69999694824219</v>
+      </c>
+      <c r="F689" t="n">
+        <v>291.7000122070312</v>
+      </c>
+      <c r="G689" t="n">
+        <v>1237.300048828125</v>
+      </c>
+      <c r="H689" t="n">
+        <v>29912.80038452148</v>
+      </c>
+      <c r="I689" t="n">
+        <v>0.02099659917843318</v>
+      </c>
+      <c r="J689" t="n">
+        <v>399.3120332327931</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C690" t="n">
+        <v>1988.050048828125</v>
+      </c>
+      <c r="D690" t="n">
+        <v>713.7000122070312</v>
+      </c>
+      <c r="E690" t="n">
+        <v>83.11000061035156</v>
+      </c>
+      <c r="F690" t="n">
+        <v>289.9500122070312</v>
+      </c>
+      <c r="G690" t="n">
+        <v>1241.5</v>
+      </c>
+      <c r="H690" t="n">
+        <v>29812.18057250977</v>
+      </c>
+      <c r="I690" t="n">
+        <v>-0.003363771051799782</v>
+      </c>
+      <c r="J690" t="n">
+        <v>397.9688389747694</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C691" t="n">
+        <v>1989.900024414062</v>
+      </c>
+      <c r="D691" t="n">
+        <v>714.2000122070312</v>
+      </c>
+      <c r="E691" t="n">
+        <v>84.69999694824219</v>
+      </c>
+      <c r="F691" t="n">
+        <v>290.3999938964844</v>
+      </c>
+      <c r="G691" t="n">
+        <v>1226.599975585938</v>
+      </c>
+      <c r="H691" t="n">
+        <v>29926.49987792969</v>
+      </c>
+      <c r="I691" t="n">
+        <v>0.003834650911961043</v>
+      </c>
+      <c r="J691" t="n">
+        <v>399.4949105460761</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C692" t="n">
+        <v>2006.550048828125</v>
+      </c>
+      <c r="D692" t="n">
+        <v>731.0999755859375</v>
+      </c>
+      <c r="E692" t="n">
+        <v>82</v>
+      </c>
+      <c r="F692" t="n">
+        <v>284.2999877929688</v>
+      </c>
+      <c r="G692" t="n">
+        <v>1193.800048828125</v>
+      </c>
+      <c r="H692" t="n">
+        <v>29823.24993896484</v>
+      </c>
+      <c r="I692" t="n">
+        <v>-0.003450117433913109</v>
+      </c>
+      <c r="J692" t="n">
+        <v>398.1166061904415</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C693" t="n">
+        <v>1987.800048828125</v>
+      </c>
+      <c r="D693" t="n">
+        <v>743.25</v>
+      </c>
+      <c r="E693" t="n">
+        <v>80.81999969482422</v>
+      </c>
+      <c r="F693" t="n">
+        <v>282.8500061035156</v>
+      </c>
+      <c r="G693" t="n">
+        <v>1166.400024414062</v>
+      </c>
+      <c r="H693" t="n">
+        <v>29685.31034851074</v>
+      </c>
+      <c r="I693" t="n">
+        <v>-0.004625236710834788</v>
+      </c>
+      <c r="J693" t="n">
+        <v>396.2752226482965</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C694" t="n">
+        <v>1998.599975585938</v>
+      </c>
+      <c r="D694" t="n">
+        <v>735.9500122070312</v>
+      </c>
+      <c r="E694" t="n">
+        <v>80.97000122070312</v>
+      </c>
+      <c r="F694" t="n">
+        <v>272.7000122070312</v>
+      </c>
+      <c r="G694" t="n">
+        <v>1121.300048828125</v>
+      </c>
+      <c r="H694" t="n">
+        <v>29455.8603515625</v>
+      </c>
+      <c r="I694" t="n">
+        <v>-0.0077294120982553</v>
+      </c>
+      <c r="J694" t="n">
+        <v>393.21224814812</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C695" t="n">
+        <v>2048.10009765625</v>
+      </c>
+      <c r="D695" t="n">
+        <v>746.5</v>
+      </c>
+      <c r="E695" t="n">
+        <v>83.44999694824219</v>
+      </c>
+      <c r="F695" t="n">
+        <v>277.3500061035156</v>
+      </c>
+      <c r="G695" t="n">
+        <v>1149.400024414062</v>
+      </c>
+      <c r="H695" t="n">
+        <v>30118.95037841797</v>
+      </c>
+      <c r="I695" t="n">
+        <v>0.02251131078642199</v>
+      </c>
+      <c r="J695" t="n">
+        <v>402.06397127121</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C696" t="n">
+        <v>2082.39990234375</v>
+      </c>
+      <c r="D696" t="n">
+        <v>773.9500122070312</v>
+      </c>
+      <c r="E696" t="n">
+        <v>82.88999938964844</v>
+      </c>
+      <c r="F696" t="n">
+        <v>286.2999877929688</v>
+      </c>
+      <c r="G696" t="n">
+        <v>1162.75</v>
+      </c>
+      <c r="H696" t="n">
+        <v>30664.31942749023</v>
+      </c>
+      <c r="I696" t="n">
+        <v>0.01810717313253569</v>
+      </c>
+      <c r="J696" t="n">
+        <v>409.3442132093726</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C697" t="n">
+        <v>2068.14990234375</v>
+      </c>
+      <c r="D697" t="n">
+        <v>781.8499755859375</v>
+      </c>
+      <c r="E697" t="n">
+        <v>83.79000091552734</v>
+      </c>
+      <c r="F697" t="n">
+        <v>291.7999877929688</v>
+      </c>
+      <c r="G697" t="n">
+        <v>1141.199951171875</v>
+      </c>
+      <c r="H697" t="n">
+        <v>30770.6690826416</v>
+      </c>
+      <c r="I697" t="n">
+        <v>0.003468188994144963</v>
+      </c>
+      <c r="J697" t="n">
+        <v>410.7638963044424</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C698" t="n">
+        <v>2061.60009765625</v>
+      </c>
+      <c r="D698" t="n">
+        <v>775.8499755859375</v>
+      </c>
+      <c r="E698" t="n">
+        <v>82.95999908447266</v>
+      </c>
+      <c r="F698" t="n">
+        <v>289.8500061035156</v>
+      </c>
+      <c r="G698" t="n">
+        <v>1118.449951171875</v>
+      </c>
+      <c r="H698" t="n">
+        <v>30542.33015441895</v>
+      </c>
+      <c r="I698" t="n">
+        <v>-0.007420668286718119</v>
+      </c>
+      <c r="J698" t="n">
+        <v>407.7157536858072</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C699" t="n">
+        <v>2022.050048828125</v>
+      </c>
+      <c r="D699" t="n">
+        <v>772.0999755859375</v>
+      </c>
+      <c r="E699" t="n">
+        <v>81.83999633789062</v>
+      </c>
+      <c r="F699" t="n">
+        <v>290.5</v>
+      </c>
+      <c r="G699" t="n">
+        <v>1123.650024414062</v>
+      </c>
+      <c r="H699" t="n">
+        <v>30238.56976318359</v>
+      </c>
+      <c r="I699" t="n">
+        <v>-0.009945553914831306</v>
+      </c>
+      <c r="J699" t="n">
+        <v>403.6607946755989</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J699"/>
+  <dimension ref="A1:J720"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="E605" sqref="E605"/>
@@ -22188,6 +22188,657 @@
         <v>403.6607946755989</v>
       </c>
     </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="C700" t="n">
+        <v>1893.25</v>
+      </c>
+      <c r="D700" t="n">
+        <v>700.7999877929688</v>
+      </c>
+      <c r="E700" t="n">
+        <v>77</v>
+      </c>
+      <c r="F700" t="n">
+        <v>296.2000122070312</v>
+      </c>
+      <c r="G700" t="n">
+        <v>1298.650024414062</v>
+      </c>
+      <c r="H700" t="n">
+        <v>28928.15008544922</v>
+      </c>
+      <c r="I700" t="n">
+        <v>0</v>
+      </c>
+      <c r="J700" t="n">
+        <v>403.6607946755989</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="C701" t="n">
+        <v>1899.349975585938</v>
+      </c>
+      <c r="D701" t="n">
+        <v>696.0999755859375</v>
+      </c>
+      <c r="E701" t="n">
+        <v>75.83999633789062</v>
+      </c>
+      <c r="F701" t="n">
+        <v>299.2999877929688</v>
+      </c>
+      <c r="G701" t="n">
+        <v>1302.900024414062</v>
+      </c>
+      <c r="H701" t="n">
+        <v>28869.96923828125</v>
+      </c>
+      <c r="I701" t="n">
+        <v>-0.002011219071945895</v>
+      </c>
+      <c r="J701" t="n">
+        <v>402.8489443867505</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C702" t="n">
+        <v>1885.400024414062</v>
+      </c>
+      <c r="D702" t="n">
+        <v>683.5999755859375</v>
+      </c>
+      <c r="E702" t="n">
+        <v>73.80999755859375</v>
+      </c>
+      <c r="F702" t="n">
+        <v>296.8999938964844</v>
+      </c>
+      <c r="G702" t="n">
+        <v>1303.849975585938</v>
+      </c>
+      <c r="H702" t="n">
+        <v>28487.57955932617</v>
+      </c>
+      <c r="I702" t="n">
+        <v>-0.01324524026329871</v>
+      </c>
+      <c r="J702" t="n">
+        <v>397.5131133285317</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C703" t="n">
+        <v>1901.949951171875</v>
+      </c>
+      <c r="D703" t="n">
+        <v>689.4000244140625</v>
+      </c>
+      <c r="E703" t="n">
+        <v>74.47000122070312</v>
+      </c>
+      <c r="F703" t="n">
+        <v>297.1499938964844</v>
+      </c>
+      <c r="G703" t="n">
+        <v>1320.25</v>
+      </c>
+      <c r="H703" t="n">
+        <v>28715.86001586914</v>
+      </c>
+      <c r="I703" t="n">
+        <v>0.008013332830455756</v>
+      </c>
+      <c r="J703" t="n">
+        <v>400.6985182101039</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C704" t="n">
+        <v>1901.300048828125</v>
+      </c>
+      <c r="D704" t="n">
+        <v>688.9500122070312</v>
+      </c>
+      <c r="E704" t="n">
+        <v>74.16000366210938</v>
+      </c>
+      <c r="F704" t="n">
+        <v>298.9500122070312</v>
+      </c>
+      <c r="G704" t="n">
+        <v>1327.099975585938</v>
+      </c>
+      <c r="H704" t="n">
+        <v>28721.03076171875</v>
+      </c>
+      <c r="I704" t="n">
+        <v>0.0001800658537390795</v>
+      </c>
+      <c r="J704" t="n">
+        <v>400.7706703308774</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C705" t="n">
+        <v>1879.449951171875</v>
+      </c>
+      <c r="D705" t="n">
+        <v>687.5</v>
+      </c>
+      <c r="E705" t="n">
+        <v>76</v>
+      </c>
+      <c r="F705" t="n">
+        <v>290.6000061035156</v>
+      </c>
+      <c r="G705" t="n">
+        <v>1312.349975585938</v>
+      </c>
+      <c r="H705" t="n">
+        <v>28602.74978637695</v>
+      </c>
+      <c r="I705" t="n">
+        <v>-0.004118270556621158</v>
+      </c>
+      <c r="J705" t="n">
+        <v>399.1201882792964</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C706" t="n">
+        <v>1872.349975585938</v>
+      </c>
+      <c r="D706" t="n">
+        <v>673.5499877929688</v>
+      </c>
+      <c r="E706" t="n">
+        <v>74.72000122070312</v>
+      </c>
+      <c r="F706" t="n">
+        <v>283.6000061035156</v>
+      </c>
+      <c r="G706" t="n">
+        <v>1289.699951171875</v>
+      </c>
+      <c r="H706" t="n">
+        <v>28191.60983276367</v>
+      </c>
+      <c r="I706" t="n">
+        <v>-0.01437414083205038</v>
+      </c>
+      <c r="J706" t="n">
+        <v>393.3831784840553</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C707" t="n">
+        <v>1892.400024414062</v>
+      </c>
+      <c r="D707" t="n">
+        <v>664.1500244140625</v>
+      </c>
+      <c r="E707" t="n">
+        <v>74.33999633789062</v>
+      </c>
+      <c r="F707" t="n">
+        <v>281.5499877929688</v>
+      </c>
+      <c r="G707" t="n">
+        <v>1237.150024414062</v>
+      </c>
+      <c r="H707" t="n">
+        <v>28036.46997070312</v>
+      </c>
+      <c r="I707" t="n">
+        <v>-0.005503050836077006</v>
+      </c>
+      <c r="J707" t="n">
+        <v>391.2183708548</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C708" t="n">
+        <v>1922.449951171875</v>
+      </c>
+      <c r="D708" t="n">
+        <v>664.5999755859375</v>
+      </c>
+      <c r="E708" t="n">
+        <v>78.05000305175781</v>
+      </c>
+      <c r="F708" t="n">
+        <v>285.75</v>
+      </c>
+      <c r="G708" t="n">
+        <v>1250.300048828125</v>
+      </c>
+      <c r="H708" t="n">
+        <v>28561.49984741211</v>
+      </c>
+      <c r="I708" t="n">
+        <v>0.01872667555001102</v>
+      </c>
+      <c r="J708" t="n">
+        <v>398.5445903550017</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C709" t="n">
+        <v>1957.599975585938</v>
+      </c>
+      <c r="D709" t="n">
+        <v>689.75</v>
+      </c>
+      <c r="E709" t="n">
+        <v>81.94999694824219</v>
+      </c>
+      <c r="F709" t="n">
+        <v>288.0499877929688</v>
+      </c>
+      <c r="G709" t="n">
+        <v>1237.699951171875</v>
+      </c>
+      <c r="H709" t="n">
+        <v>29297.64938354492</v>
+      </c>
+      <c r="I709" t="n">
+        <v>0.0257741904334731</v>
+      </c>
+      <c r="J709" t="n">
+        <v>408.8167545230421</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C710" t="n">
+        <v>1996.400024414062</v>
+      </c>
+      <c r="D710" t="n">
+        <v>729.1500244140625</v>
+      </c>
+      <c r="E710" t="n">
+        <v>81.69999694824219</v>
+      </c>
+      <c r="F710" t="n">
+        <v>291.7000122070312</v>
+      </c>
+      <c r="G710" t="n">
+        <v>1237.300048828125</v>
+      </c>
+      <c r="H710" t="n">
+        <v>29912.80038452148</v>
+      </c>
+      <c r="I710" t="n">
+        <v>0.02099659917843318</v>
+      </c>
+      <c r="J710" t="n">
+        <v>417.4005160551902</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C711" t="n">
+        <v>1988.050048828125</v>
+      </c>
+      <c r="D711" t="n">
+        <v>713.7000122070312</v>
+      </c>
+      <c r="E711" t="n">
+        <v>83.11000061035156</v>
+      </c>
+      <c r="F711" t="n">
+        <v>289.9500122070312</v>
+      </c>
+      <c r="G711" t="n">
+        <v>1241.5</v>
+      </c>
+      <c r="H711" t="n">
+        <v>29812.18057250977</v>
+      </c>
+      <c r="I711" t="n">
+        <v>-0.003363771051799782</v>
+      </c>
+      <c r="J711" t="n">
+        <v>415.9964762822775</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C712" t="n">
+        <v>1989.900024414062</v>
+      </c>
+      <c r="D712" t="n">
+        <v>714.2000122070312</v>
+      </c>
+      <c r="E712" t="n">
+        <v>84.69999694824219</v>
+      </c>
+      <c r="F712" t="n">
+        <v>290.3999938964844</v>
+      </c>
+      <c r="G712" t="n">
+        <v>1226.599975585938</v>
+      </c>
+      <c r="H712" t="n">
+        <v>29926.49987792969</v>
+      </c>
+      <c r="I712" t="n">
+        <v>0.003834650911961043</v>
+      </c>
+      <c r="J712" t="n">
+        <v>417.591677549426</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C713" t="n">
+        <v>2006.550048828125</v>
+      </c>
+      <c r="D713" t="n">
+        <v>731.0999755859375</v>
+      </c>
+      <c r="E713" t="n">
+        <v>82</v>
+      </c>
+      <c r="F713" t="n">
+        <v>284.2999877929688</v>
+      </c>
+      <c r="G713" t="n">
+        <v>1193.800048828125</v>
+      </c>
+      <c r="H713" t="n">
+        <v>29823.24993896484</v>
+      </c>
+      <c r="I713" t="n">
+        <v>-0.003450117433913109</v>
+      </c>
+      <c r="J713" t="n">
+        <v>416.1509372224557</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C714" t="n">
+        <v>1987.800048828125</v>
+      </c>
+      <c r="D714" t="n">
+        <v>743.25</v>
+      </c>
+      <c r="E714" t="n">
+        <v>80.81999969482422</v>
+      </c>
+      <c r="F714" t="n">
+        <v>282.8500061035156</v>
+      </c>
+      <c r="G714" t="n">
+        <v>1166.400024414062</v>
+      </c>
+      <c r="H714" t="n">
+        <v>29685.31034851074</v>
+      </c>
+      <c r="I714" t="n">
+        <v>-0.004625236710834788</v>
+      </c>
+      <c r="J714" t="n">
+        <v>414.2261406303661</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C715" t="n">
+        <v>1998.599975585938</v>
+      </c>
+      <c r="D715" t="n">
+        <v>735.9500122070312</v>
+      </c>
+      <c r="E715" t="n">
+        <v>80.97000122070312</v>
+      </c>
+      <c r="F715" t="n">
+        <v>272.7000122070312</v>
+      </c>
+      <c r="G715" t="n">
+        <v>1121.300048828125</v>
+      </c>
+      <c r="H715" t="n">
+        <v>29455.8603515625</v>
+      </c>
+      <c r="I715" t="n">
+        <v>-0.0077294120982553</v>
+      </c>
+      <c r="J715" t="n">
+        <v>411.0244160875641</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C716" t="n">
+        <v>2048.10009765625</v>
+      </c>
+      <c r="D716" t="n">
+        <v>746.5</v>
+      </c>
+      <c r="E716" t="n">
+        <v>83.44999694824219</v>
+      </c>
+      <c r="F716" t="n">
+        <v>277.3500061035156</v>
+      </c>
+      <c r="G716" t="n">
+        <v>1149.400024414062</v>
+      </c>
+      <c r="H716" t="n">
+        <v>30118.95037841797</v>
+      </c>
+      <c r="I716" t="n">
+        <v>0.02251131078642199</v>
+      </c>
+      <c r="J716" t="n">
+        <v>420.277114458919</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C717" t="n">
+        <v>2082.39990234375</v>
+      </c>
+      <c r="D717" t="n">
+        <v>773.9500122070312</v>
+      </c>
+      <c r="E717" t="n">
+        <v>82.88999938964844</v>
+      </c>
+      <c r="F717" t="n">
+        <v>286.2999877929688</v>
+      </c>
+      <c r="G717" t="n">
+        <v>1162.75</v>
+      </c>
+      <c r="H717" t="n">
+        <v>30664.31942749023</v>
+      </c>
+      <c r="I717" t="n">
+        <v>0.01810717313253569</v>
+      </c>
+      <c r="J717" t="n">
+        <v>427.8871449340692</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C718" t="n">
+        <v>2068.14990234375</v>
+      </c>
+      <c r="D718" t="n">
+        <v>781.8499755859375</v>
+      </c>
+      <c r="E718" t="n">
+        <v>83.79000091552734</v>
+      </c>
+      <c r="F718" t="n">
+        <v>291.7999877929688</v>
+      </c>
+      <c r="G718" t="n">
+        <v>1141.199951171875</v>
+      </c>
+      <c r="H718" t="n">
+        <v>30770.6690826416</v>
+      </c>
+      <c r="I718" t="n">
+        <v>0.003468188994144963</v>
+      </c>
+      <c r="J718" t="n">
+        <v>429.3711384208656</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C719" t="n">
+        <v>2061.60009765625</v>
+      </c>
+      <c r="D719" t="n">
+        <v>775.8499755859375</v>
+      </c>
+      <c r="E719" t="n">
+        <v>82.95999908447266</v>
+      </c>
+      <c r="F719" t="n">
+        <v>289.8500061035156</v>
+      </c>
+      <c r="G719" t="n">
+        <v>1118.449951171875</v>
+      </c>
+      <c r="H719" t="n">
+        <v>30542.33015441895</v>
+      </c>
+      <c r="I719" t="n">
+        <v>-0.007420668286718119</v>
+      </c>
+      <c r="J719" t="n">
+        <v>426.1849176307538</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C720" t="n">
+        <v>2022.050048828125</v>
+      </c>
+      <c r="D720" t="n">
+        <v>772.0999755859375</v>
+      </c>
+      <c r="E720" t="n">
+        <v>81.83999633789062</v>
+      </c>
+      <c r="F720" t="n">
+        <v>290.5</v>
+      </c>
+      <c r="G720" t="n">
+        <v>1123.650024414062</v>
+      </c>
+      <c r="H720" t="n">
+        <v>30238.56976318359</v>
+      </c>
+      <c r="I720" t="n">
+        <v>-0.009945553914831306</v>
+      </c>
+      <c r="J720" t="n">
+        <v>421.9462725547692</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J720"/>
+  <dimension ref="A1:J741"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="E605" sqref="E605"/>
@@ -22839,6 +22839,657 @@
         <v>421.9462725547692</v>
       </c>
     </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="C721" t="n">
+        <v>1893.25</v>
+      </c>
+      <c r="D721" t="n">
+        <v>700.7999877929688</v>
+      </c>
+      <c r="E721" t="n">
+        <v>77</v>
+      </c>
+      <c r="F721" t="n">
+        <v>296.2000122070312</v>
+      </c>
+      <c r="G721" t="n">
+        <v>1298.650024414062</v>
+      </c>
+      <c r="H721" t="n">
+        <v>28928.15008544922</v>
+      </c>
+      <c r="I721" t="n">
+        <v>0</v>
+      </c>
+      <c r="J721" t="n">
+        <v>421.9462725547692</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="C722" t="n">
+        <v>1899.349975585938</v>
+      </c>
+      <c r="D722" t="n">
+        <v>696.0999755859375</v>
+      </c>
+      <c r="E722" t="n">
+        <v>75.83999633789062</v>
+      </c>
+      <c r="F722" t="n">
+        <v>299.2999877929688</v>
+      </c>
+      <c r="G722" t="n">
+        <v>1302.900024414062</v>
+      </c>
+      <c r="H722" t="n">
+        <v>28869.96923828125</v>
+      </c>
+      <c r="I722" t="n">
+        <v>-0.002011219071945895</v>
+      </c>
+      <c r="J722" t="n">
+        <v>421.0976461640706</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C723" t="n">
+        <v>1885.400024414062</v>
+      </c>
+      <c r="D723" t="n">
+        <v>683.5999755859375</v>
+      </c>
+      <c r="E723" t="n">
+        <v>73.80999755859375</v>
+      </c>
+      <c r="F723" t="n">
+        <v>296.8999938964844</v>
+      </c>
+      <c r="G723" t="n">
+        <v>1303.849975585938</v>
+      </c>
+      <c r="H723" t="n">
+        <v>28487.57955932617</v>
+      </c>
+      <c r="I723" t="n">
+        <v>-0.01324524026329871</v>
+      </c>
+      <c r="J723" t="n">
+        <v>415.5201066663179</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C724" t="n">
+        <v>1901.949951171875</v>
+      </c>
+      <c r="D724" t="n">
+        <v>689.4000244140625</v>
+      </c>
+      <c r="E724" t="n">
+        <v>74.47000122070312</v>
+      </c>
+      <c r="F724" t="n">
+        <v>297.1499938964844</v>
+      </c>
+      <c r="G724" t="n">
+        <v>1320.25</v>
+      </c>
+      <c r="H724" t="n">
+        <v>28715.86001586914</v>
+      </c>
+      <c r="I724" t="n">
+        <v>0.008013332830455756</v>
+      </c>
+      <c r="J724" t="n">
+        <v>418.8498075787815</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C725" t="n">
+        <v>1901.300048828125</v>
+      </c>
+      <c r="D725" t="n">
+        <v>688.9500122070312</v>
+      </c>
+      <c r="E725" t="n">
+        <v>74.16000366210938</v>
+      </c>
+      <c r="F725" t="n">
+        <v>298.9500122070312</v>
+      </c>
+      <c r="G725" t="n">
+        <v>1327.099975585938</v>
+      </c>
+      <c r="H725" t="n">
+        <v>28721.03076171875</v>
+      </c>
+      <c r="I725" t="n">
+        <v>0.0001800658537390795</v>
+      </c>
+      <c r="J725" t="n">
+        <v>418.9252281269716</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C726" t="n">
+        <v>1879.449951171875</v>
+      </c>
+      <c r="D726" t="n">
+        <v>687.5</v>
+      </c>
+      <c r="E726" t="n">
+        <v>76</v>
+      </c>
+      <c r="F726" t="n">
+        <v>290.6000061035156</v>
+      </c>
+      <c r="G726" t="n">
+        <v>1312.349975585938</v>
+      </c>
+      <c r="H726" t="n">
+        <v>28602.74978637695</v>
+      </c>
+      <c r="I726" t="n">
+        <v>-0.004118270556621158</v>
+      </c>
+      <c r="J726" t="n">
+        <v>417.1999806945505</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C727" t="n">
+        <v>1872.349975585938</v>
+      </c>
+      <c r="D727" t="n">
+        <v>673.5499877929688</v>
+      </c>
+      <c r="E727" t="n">
+        <v>74.72000122070312</v>
+      </c>
+      <c r="F727" t="n">
+        <v>283.6000061035156</v>
+      </c>
+      <c r="G727" t="n">
+        <v>1289.699951171875</v>
+      </c>
+      <c r="H727" t="n">
+        <v>28191.60983276367</v>
+      </c>
+      <c r="I727" t="n">
+        <v>-0.01437414083205038</v>
+      </c>
+      <c r="J727" t="n">
+        <v>411.2030894169184</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C728" t="n">
+        <v>1892.400024414062</v>
+      </c>
+      <c r="D728" t="n">
+        <v>664.1500244140625</v>
+      </c>
+      <c r="E728" t="n">
+        <v>74.33999633789062</v>
+      </c>
+      <c r="F728" t="n">
+        <v>281.5499877929688</v>
+      </c>
+      <c r="G728" t="n">
+        <v>1237.150024414062</v>
+      </c>
+      <c r="H728" t="n">
+        <v>28036.46997070312</v>
+      </c>
+      <c r="I728" t="n">
+        <v>-0.005503050836077006</v>
+      </c>
+      <c r="J728" t="n">
+        <v>408.9402179119051</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C729" t="n">
+        <v>1922.449951171875</v>
+      </c>
+      <c r="D729" t="n">
+        <v>664.5999755859375</v>
+      </c>
+      <c r="E729" t="n">
+        <v>78.05000305175781</v>
+      </c>
+      <c r="F729" t="n">
+        <v>285.75</v>
+      </c>
+      <c r="G729" t="n">
+        <v>1250.300048828125</v>
+      </c>
+      <c r="H729" t="n">
+        <v>28561.49984741211</v>
+      </c>
+      <c r="I729" t="n">
+        <v>0.01872667555001102</v>
+      </c>
+      <c r="J729" t="n">
+        <v>416.5983086920922</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C730" t="n">
+        <v>1957.599975585938</v>
+      </c>
+      <c r="D730" t="n">
+        <v>689.75</v>
+      </c>
+      <c r="E730" t="n">
+        <v>81.94999694824219</v>
+      </c>
+      <c r="F730" t="n">
+        <v>288.0499877929688</v>
+      </c>
+      <c r="G730" t="n">
+        <v>1237.699951171875</v>
+      </c>
+      <c r="H730" t="n">
+        <v>29297.64938354492</v>
+      </c>
+      <c r="I730" t="n">
+        <v>0.0257741904334731</v>
+      </c>
+      <c r="J730" t="n">
+        <v>427.335792834585</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C731" t="n">
+        <v>1996.400024414062</v>
+      </c>
+      <c r="D731" t="n">
+        <v>729.1500244140625</v>
+      </c>
+      <c r="E731" t="n">
+        <v>81.69999694824219</v>
+      </c>
+      <c r="F731" t="n">
+        <v>291.7000122070312</v>
+      </c>
+      <c r="G731" t="n">
+        <v>1237.300048828125</v>
+      </c>
+      <c r="H731" t="n">
+        <v>29912.80038452148</v>
+      </c>
+      <c r="I731" t="n">
+        <v>0.02099659917843318</v>
+      </c>
+      <c r="J731" t="n">
+        <v>436.3083911913307</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C732" t="n">
+        <v>1988.050048828125</v>
+      </c>
+      <c r="D732" t="n">
+        <v>713.7000122070312</v>
+      </c>
+      <c r="E732" t="n">
+        <v>83.11000061035156</v>
+      </c>
+      <c r="F732" t="n">
+        <v>289.9500122070312</v>
+      </c>
+      <c r="G732" t="n">
+        <v>1241.5</v>
+      </c>
+      <c r="H732" t="n">
+        <v>29812.18057250977</v>
+      </c>
+      <c r="I732" t="n">
+        <v>-0.003363771051799782</v>
+      </c>
+      <c r="J732" t="n">
+        <v>434.840749655384</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C733" t="n">
+        <v>1989.900024414062</v>
+      </c>
+      <c r="D733" t="n">
+        <v>714.2000122070312</v>
+      </c>
+      <c r="E733" t="n">
+        <v>84.69999694824219</v>
+      </c>
+      <c r="F733" t="n">
+        <v>290.3999938964844</v>
+      </c>
+      <c r="G733" t="n">
+        <v>1226.599975585938</v>
+      </c>
+      <c r="H733" t="n">
+        <v>29926.49987792969</v>
+      </c>
+      <c r="I733" t="n">
+        <v>0.003834650911961043</v>
+      </c>
+      <c r="J733" t="n">
+        <v>436.5082121326079</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C734" t="n">
+        <v>2006.550048828125</v>
+      </c>
+      <c r="D734" t="n">
+        <v>731.0999755859375</v>
+      </c>
+      <c r="E734" t="n">
+        <v>82</v>
+      </c>
+      <c r="F734" t="n">
+        <v>284.2999877929688</v>
+      </c>
+      <c r="G734" t="n">
+        <v>1193.800048828125</v>
+      </c>
+      <c r="H734" t="n">
+        <v>29823.24993896484</v>
+      </c>
+      <c r="I734" t="n">
+        <v>-0.003450117433913109</v>
+      </c>
+      <c r="J734" t="n">
+        <v>435.0022075398829</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C735" t="n">
+        <v>1987.800048828125</v>
+      </c>
+      <c r="D735" t="n">
+        <v>743.25</v>
+      </c>
+      <c r="E735" t="n">
+        <v>80.81999969482422</v>
+      </c>
+      <c r="F735" t="n">
+        <v>282.8500061035156</v>
+      </c>
+      <c r="G735" t="n">
+        <v>1166.400024414062</v>
+      </c>
+      <c r="H735" t="n">
+        <v>29685.31034851074</v>
+      </c>
+      <c r="I735" t="n">
+        <v>-0.004625236710834788</v>
+      </c>
+      <c r="J735" t="n">
+        <v>432.9902193602753</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C736" t="n">
+        <v>1998.599975585938</v>
+      </c>
+      <c r="D736" t="n">
+        <v>735.9500122070312</v>
+      </c>
+      <c r="E736" t="n">
+        <v>80.97000122070312</v>
+      </c>
+      <c r="F736" t="n">
+        <v>272.7000122070312</v>
+      </c>
+      <c r="G736" t="n">
+        <v>1121.300048828125</v>
+      </c>
+      <c r="H736" t="n">
+        <v>29455.8603515625</v>
+      </c>
+      <c r="I736" t="n">
+        <v>-0.0077294120982553</v>
+      </c>
+      <c r="J736" t="n">
+        <v>429.6434595203257</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C737" t="n">
+        <v>2048.10009765625</v>
+      </c>
+      <c r="D737" t="n">
+        <v>746.5</v>
+      </c>
+      <c r="E737" t="n">
+        <v>83.44999694824219</v>
+      </c>
+      <c r="F737" t="n">
+        <v>277.3500061035156</v>
+      </c>
+      <c r="G737" t="n">
+        <v>1149.400024414062</v>
+      </c>
+      <c r="H737" t="n">
+        <v>30118.95037841797</v>
+      </c>
+      <c r="I737" t="n">
+        <v>0.02251131078642199</v>
+      </c>
+      <c r="J737" t="n">
+        <v>439.3152969649414</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C738" t="n">
+        <v>2082.39990234375</v>
+      </c>
+      <c r="D738" t="n">
+        <v>773.9500122070312</v>
+      </c>
+      <c r="E738" t="n">
+        <v>82.88999938964844</v>
+      </c>
+      <c r="F738" t="n">
+        <v>286.2999877929688</v>
+      </c>
+      <c r="G738" t="n">
+        <v>1162.75</v>
+      </c>
+      <c r="H738" t="n">
+        <v>30664.31942749023</v>
+      </c>
+      <c r="I738" t="n">
+        <v>0.01810717313253569</v>
+      </c>
+      <c r="J738" t="n">
+        <v>447.2700551068569</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C739" t="n">
+        <v>2068.14990234375</v>
+      </c>
+      <c r="D739" t="n">
+        <v>781.8499755859375</v>
+      </c>
+      <c r="E739" t="n">
+        <v>83.79000091552734</v>
+      </c>
+      <c r="F739" t="n">
+        <v>291.7999877929688</v>
+      </c>
+      <c r="G739" t="n">
+        <v>1141.199951171875</v>
+      </c>
+      <c r="H739" t="n">
+        <v>30770.6690826416</v>
+      </c>
+      <c r="I739" t="n">
+        <v>0.003468188994144963</v>
+      </c>
+      <c r="J739" t="n">
+        <v>448.8212721893891</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C740" t="n">
+        <v>2061.60009765625</v>
+      </c>
+      <c r="D740" t="n">
+        <v>775.8499755859375</v>
+      </c>
+      <c r="E740" t="n">
+        <v>82.95999908447266</v>
+      </c>
+      <c r="F740" t="n">
+        <v>289.8500061035156</v>
+      </c>
+      <c r="G740" t="n">
+        <v>1118.449951171875</v>
+      </c>
+      <c r="H740" t="n">
+        <v>30542.33015441895</v>
+      </c>
+      <c r="I740" t="n">
+        <v>-0.007420668286718119</v>
+      </c>
+      <c r="J740" t="n">
+        <v>445.4907184084488</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C741" t="n">
+        <v>2022.050048828125</v>
+      </c>
+      <c r="D741" t="n">
+        <v>772.0999755859375</v>
+      </c>
+      <c r="E741" t="n">
+        <v>81.83999633789062</v>
+      </c>
+      <c r="F741" t="n">
+        <v>290.5</v>
+      </c>
+      <c r="G741" t="n">
+        <v>1123.650024414062</v>
+      </c>
+      <c r="H741" t="n">
+        <v>30238.56976318359</v>
+      </c>
+      <c r="I741" t="n">
+        <v>-0.009945553914831306</v>
+      </c>
+      <c r="J741" t="n">
+        <v>441.0600664499606</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J741"/>
+  <dimension ref="A1:J762"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="E605" sqref="E605"/>
@@ -23490,6 +23490,657 @@
         <v>441.0600664499606</v>
       </c>
     </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="C742" t="n">
+        <v>1893.25</v>
+      </c>
+      <c r="D742" t="n">
+        <v>700.7999877929688</v>
+      </c>
+      <c r="E742" t="n">
+        <v>77</v>
+      </c>
+      <c r="F742" t="n">
+        <v>296.2000122070312</v>
+      </c>
+      <c r="G742" t="n">
+        <v>1298.650024414062</v>
+      </c>
+      <c r="H742" t="n">
+        <v>28928.15008544922</v>
+      </c>
+      <c r="I742" t="n">
+        <v>0</v>
+      </c>
+      <c r="J742" t="n">
+        <v>441.0600664499606</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="C743" t="n">
+        <v>1899.349975585938</v>
+      </c>
+      <c r="D743" t="n">
+        <v>696.0999755859375</v>
+      </c>
+      <c r="E743" t="n">
+        <v>75.83999633789062</v>
+      </c>
+      <c r="F743" t="n">
+        <v>299.2999877929688</v>
+      </c>
+      <c r="G743" t="n">
+        <v>1302.900024414062</v>
+      </c>
+      <c r="H743" t="n">
+        <v>28869.96923828125</v>
+      </c>
+      <c r="I743" t="n">
+        <v>-0.002011219071945895</v>
+      </c>
+      <c r="J743" t="n">
+        <v>440.1729980324427</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C744" t="n">
+        <v>1885.400024414062</v>
+      </c>
+      <c r="D744" t="n">
+        <v>683.5999755859375</v>
+      </c>
+      <c r="E744" t="n">
+        <v>73.80999755859375</v>
+      </c>
+      <c r="F744" t="n">
+        <v>296.8999938964844</v>
+      </c>
+      <c r="G744" t="n">
+        <v>1303.849975585938</v>
+      </c>
+      <c r="H744" t="n">
+        <v>28487.57955932617</v>
+      </c>
+      <c r="I744" t="n">
+        <v>-0.01324524026329871</v>
+      </c>
+      <c r="J744" t="n">
+        <v>434.3428009160864</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C745" t="n">
+        <v>1901.949951171875</v>
+      </c>
+      <c r="D745" t="n">
+        <v>689.4000244140625</v>
+      </c>
+      <c r="E745" t="n">
+        <v>74.47000122070312</v>
+      </c>
+      <c r="F745" t="n">
+        <v>297.1499938964844</v>
+      </c>
+      <c r="G745" t="n">
+        <v>1320.25</v>
+      </c>
+      <c r="H745" t="n">
+        <v>28715.86001586914</v>
+      </c>
+      <c r="I745" t="n">
+        <v>0.008013332830455756</v>
+      </c>
+      <c r="J745" t="n">
+        <v>437.8233343423394</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C746" t="n">
+        <v>1901.300048828125</v>
+      </c>
+      <c r="D746" t="n">
+        <v>688.9500122070312</v>
+      </c>
+      <c r="E746" t="n">
+        <v>74.16000366210938</v>
+      </c>
+      <c r="F746" t="n">
+        <v>298.9500122070312</v>
+      </c>
+      <c r="G746" t="n">
+        <v>1327.099975585938</v>
+      </c>
+      <c r="H746" t="n">
+        <v>28721.03076171875</v>
+      </c>
+      <c r="I746" t="n">
+        <v>0.0001800658537390795</v>
+      </c>
+      <c r="J746" t="n">
+        <v>437.9021713748246</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C747" t="n">
+        <v>1879.449951171875</v>
+      </c>
+      <c r="D747" t="n">
+        <v>687.5</v>
+      </c>
+      <c r="E747" t="n">
+        <v>76</v>
+      </c>
+      <c r="F747" t="n">
+        <v>290.6000061035156</v>
+      </c>
+      <c r="G747" t="n">
+        <v>1312.349975585938</v>
+      </c>
+      <c r="H747" t="n">
+        <v>28602.74978637695</v>
+      </c>
+      <c r="I747" t="n">
+        <v>-0.004118270556621158</v>
+      </c>
+      <c r="J747" t="n">
+        <v>436.0987717557712</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C748" t="n">
+        <v>1872.349975585938</v>
+      </c>
+      <c r="D748" t="n">
+        <v>673.5499877929688</v>
+      </c>
+      <c r="E748" t="n">
+        <v>74.72000122070312</v>
+      </c>
+      <c r="F748" t="n">
+        <v>283.6000061035156</v>
+      </c>
+      <c r="G748" t="n">
+        <v>1289.699951171875</v>
+      </c>
+      <c r="H748" t="n">
+        <v>28191.60983276367</v>
+      </c>
+      <c r="I748" t="n">
+        <v>-0.01437414083205038</v>
+      </c>
+      <c r="J748" t="n">
+        <v>429.8302265938696</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C749" t="n">
+        <v>1892.400024414062</v>
+      </c>
+      <c r="D749" t="n">
+        <v>664.1500244140625</v>
+      </c>
+      <c r="E749" t="n">
+        <v>74.33999633789062</v>
+      </c>
+      <c r="F749" t="n">
+        <v>281.5499877929688</v>
+      </c>
+      <c r="G749" t="n">
+        <v>1237.150024414062</v>
+      </c>
+      <c r="H749" t="n">
+        <v>28036.46997070312</v>
+      </c>
+      <c r="I749" t="n">
+        <v>-0.005503050836077006</v>
+      </c>
+      <c r="J749" t="n">
+        <v>427.464849006041</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C750" t="n">
+        <v>1922.449951171875</v>
+      </c>
+      <c r="D750" t="n">
+        <v>664.5999755859375</v>
+      </c>
+      <c r="E750" t="n">
+        <v>78.05000305175781</v>
+      </c>
+      <c r="F750" t="n">
+        <v>285.75</v>
+      </c>
+      <c r="G750" t="n">
+        <v>1250.300048828125</v>
+      </c>
+      <c r="H750" t="n">
+        <v>28561.49984741211</v>
+      </c>
+      <c r="I750" t="n">
+        <v>0.01872667555001102</v>
+      </c>
+      <c r="J750" t="n">
+        <v>435.4698445424116</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C751" t="n">
+        <v>1957.599975585938</v>
+      </c>
+      <c r="D751" t="n">
+        <v>689.75</v>
+      </c>
+      <c r="E751" t="n">
+        <v>81.94999694824219</v>
+      </c>
+      <c r="F751" t="n">
+        <v>288.0499877929688</v>
+      </c>
+      <c r="G751" t="n">
+        <v>1237.699951171875</v>
+      </c>
+      <c r="H751" t="n">
+        <v>29297.64938354492</v>
+      </c>
+      <c r="I751" t="n">
+        <v>0.0257741904334731</v>
+      </c>
+      <c r="J751" t="n">
+        <v>446.6937272436826</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C752" t="n">
+        <v>1996.400024414062</v>
+      </c>
+      <c r="D752" t="n">
+        <v>729.1500244140625</v>
+      </c>
+      <c r="E752" t="n">
+        <v>81.69999694824219</v>
+      </c>
+      <c r="F752" t="n">
+        <v>291.7000122070312</v>
+      </c>
+      <c r="G752" t="n">
+        <v>1237.300048828125</v>
+      </c>
+      <c r="H752" t="n">
+        <v>29912.80038452148</v>
+      </c>
+      <c r="I752" t="n">
+        <v>0.02099659917843318</v>
+      </c>
+      <c r="J752" t="n">
+        <v>456.0727763901386</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C753" t="n">
+        <v>1988.050048828125</v>
+      </c>
+      <c r="D753" t="n">
+        <v>713.7000122070312</v>
+      </c>
+      <c r="E753" t="n">
+        <v>83.11000061035156</v>
+      </c>
+      <c r="F753" t="n">
+        <v>289.9500122070312</v>
+      </c>
+      <c r="G753" t="n">
+        <v>1241.5</v>
+      </c>
+      <c r="H753" t="n">
+        <v>29812.18057250977</v>
+      </c>
+      <c r="I753" t="n">
+        <v>-0.003363771051799782</v>
+      </c>
+      <c r="J753" t="n">
+        <v>454.5386519874035</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C754" t="n">
+        <v>1989.900024414062</v>
+      </c>
+      <c r="D754" t="n">
+        <v>714.2000122070312</v>
+      </c>
+      <c r="E754" t="n">
+        <v>84.69999694824219</v>
+      </c>
+      <c r="F754" t="n">
+        <v>290.3999938964844</v>
+      </c>
+      <c r="G754" t="n">
+        <v>1226.599975585938</v>
+      </c>
+      <c r="H754" t="n">
+        <v>29926.49987792969</v>
+      </c>
+      <c r="I754" t="n">
+        <v>0.003834650911961043</v>
+      </c>
+      <c r="J754" t="n">
+        <v>456.2816490437686</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C755" t="n">
+        <v>2006.550048828125</v>
+      </c>
+      <c r="D755" t="n">
+        <v>731.0999755859375</v>
+      </c>
+      <c r="E755" t="n">
+        <v>82</v>
+      </c>
+      <c r="F755" t="n">
+        <v>284.2999877929688</v>
+      </c>
+      <c r="G755" t="n">
+        <v>1193.800048828125</v>
+      </c>
+      <c r="H755" t="n">
+        <v>29823.24993896484</v>
+      </c>
+      <c r="I755" t="n">
+        <v>-0.003450117433913109</v>
+      </c>
+      <c r="J755" t="n">
+        <v>454.707423771628</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C756" t="n">
+        <v>1987.800048828125</v>
+      </c>
+      <c r="D756" t="n">
+        <v>743.25</v>
+      </c>
+      <c r="E756" t="n">
+        <v>80.81999969482422</v>
+      </c>
+      <c r="F756" t="n">
+        <v>282.8500061035156</v>
+      </c>
+      <c r="G756" t="n">
+        <v>1166.400024414062</v>
+      </c>
+      <c r="H756" t="n">
+        <v>29685.31034851074</v>
+      </c>
+      <c r="I756" t="n">
+        <v>-0.004625236710834788</v>
+      </c>
+      <c r="J756" t="n">
+        <v>452.6042943025104</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C757" t="n">
+        <v>1998.599975585938</v>
+      </c>
+      <c r="D757" t="n">
+        <v>735.9500122070312</v>
+      </c>
+      <c r="E757" t="n">
+        <v>80.97000122070312</v>
+      </c>
+      <c r="F757" t="n">
+        <v>272.7000122070312</v>
+      </c>
+      <c r="G757" t="n">
+        <v>1121.300048828125</v>
+      </c>
+      <c r="H757" t="n">
+        <v>29455.8603515625</v>
+      </c>
+      <c r="I757" t="n">
+        <v>-0.0077294120982553</v>
+      </c>
+      <c r="J757" t="n">
+        <v>449.1059291944063</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C758" t="n">
+        <v>2048.10009765625</v>
+      </c>
+      <c r="D758" t="n">
+        <v>746.5</v>
+      </c>
+      <c r="E758" t="n">
+        <v>83.44999694824219</v>
+      </c>
+      <c r="F758" t="n">
+        <v>277.3500061035156</v>
+      </c>
+      <c r="G758" t="n">
+        <v>1149.400024414062</v>
+      </c>
+      <c r="H758" t="n">
+        <v>30118.95037841797</v>
+      </c>
+      <c r="I758" t="n">
+        <v>0.02251131078642199</v>
+      </c>
+      <c r="J758" t="n">
+        <v>459.2158923425264</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C759" t="n">
+        <v>2082.39990234375</v>
+      </c>
+      <c r="D759" t="n">
+        <v>773.9500122070312</v>
+      </c>
+      <c r="E759" t="n">
+        <v>82.88999938964844</v>
+      </c>
+      <c r="F759" t="n">
+        <v>286.2999877929688</v>
+      </c>
+      <c r="G759" t="n">
+        <v>1162.75</v>
+      </c>
+      <c r="H759" t="n">
+        <v>30664.31942749023</v>
+      </c>
+      <c r="I759" t="n">
+        <v>0.01810717313253569</v>
+      </c>
+      <c r="J759" t="n">
+        <v>467.5309940103844</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C760" t="n">
+        <v>2068.14990234375</v>
+      </c>
+      <c r="D760" t="n">
+        <v>781.8499755859375</v>
+      </c>
+      <c r="E760" t="n">
+        <v>83.79000091552734</v>
+      </c>
+      <c r="F760" t="n">
+        <v>291.7999877929688</v>
+      </c>
+      <c r="G760" t="n">
+        <v>1141.199951171875</v>
+      </c>
+      <c r="H760" t="n">
+        <v>30770.6690826416</v>
+      </c>
+      <c r="I760" t="n">
+        <v>0.003468188994144963</v>
+      </c>
+      <c r="J760" t="n">
+        <v>469.1524798582329</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C761" t="n">
+        <v>2061.60009765625</v>
+      </c>
+      <c r="D761" t="n">
+        <v>775.8499755859375</v>
+      </c>
+      <c r="E761" t="n">
+        <v>82.95999908447266</v>
+      </c>
+      <c r="F761" t="n">
+        <v>289.8500061035156</v>
+      </c>
+      <c r="G761" t="n">
+        <v>1118.449951171875</v>
+      </c>
+      <c r="H761" t="n">
+        <v>30542.33015441895</v>
+      </c>
+      <c r="I761" t="n">
+        <v>-0.007420668286718119</v>
+      </c>
+      <c r="J761" t="n">
+        <v>465.6710549293137</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C762" t="n">
+        <v>2022.050048828125</v>
+      </c>
+      <c r="D762" t="n">
+        <v>772.0999755859375</v>
+      </c>
+      <c r="E762" t="n">
+        <v>81.83999633789062</v>
+      </c>
+      <c r="F762" t="n">
+        <v>290.5</v>
+      </c>
+      <c r="G762" t="n">
+        <v>1123.650024414062</v>
+      </c>
+      <c r="H762" t="n">
+        <v>30238.56976318359</v>
+      </c>
+      <c r="I762" t="n">
+        <v>-0.009945553914831306</v>
+      </c>
+      <c r="J762" t="n">
+        <v>461.0396983459378</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J614"/>
+  <dimension ref="A1:J634"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="E605" sqref="E605"/>
@@ -19553,6 +19553,626 @@
         <v>342.6070643225124</v>
       </c>
     </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C615" t="n">
+        <v>1885.400024414062</v>
+      </c>
+      <c r="D615" t="n">
+        <v>683.5999755859375</v>
+      </c>
+      <c r="E615" t="n">
+        <v>73.80999755859375</v>
+      </c>
+      <c r="F615" t="n">
+        <v>296.8999938964844</v>
+      </c>
+      <c r="G615" t="n">
+        <v>1303.849975585938</v>
+      </c>
+      <c r="H615" t="n">
+        <v>28487.57955932617</v>
+      </c>
+      <c r="I615" t="n">
+        <v>0</v>
+      </c>
+      <c r="J615" t="n">
+        <v>342.6070643225124</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C616" t="n">
+        <v>1901.949951171875</v>
+      </c>
+      <c r="D616" t="n">
+        <v>689.4000244140625</v>
+      </c>
+      <c r="E616" t="n">
+        <v>74.47000122070312</v>
+      </c>
+      <c r="F616" t="n">
+        <v>297.1499938964844</v>
+      </c>
+      <c r="G616" t="n">
+        <v>1320.25</v>
+      </c>
+      <c r="H616" t="n">
+        <v>28715.86001586914</v>
+      </c>
+      <c r="I616" t="n">
+        <v>0.008013332830455756</v>
+      </c>
+      <c r="J616" t="n">
+        <v>345.352488758994</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>1901.300048828125</v>
+      </c>
+      <c r="D617" t="n">
+        <v>688.9500122070312</v>
+      </c>
+      <c r="E617" t="n">
+        <v>74.16000366210938</v>
+      </c>
+      <c r="F617" t="n">
+        <v>298.9500122070312</v>
+      </c>
+      <c r="G617" t="n">
+        <v>1327.099975585938</v>
+      </c>
+      <c r="H617" t="n">
+        <v>28721.03076171875</v>
+      </c>
+      <c r="I617" t="n">
+        <v>0.0001800658537390795</v>
+      </c>
+      <c r="J617" t="n">
+        <v>345.4146749497233</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>1879.449951171875</v>
+      </c>
+      <c r="D618" t="n">
+        <v>687.5</v>
+      </c>
+      <c r="E618" t="n">
+        <v>76</v>
+      </c>
+      <c r="F618" t="n">
+        <v>290.6000061035156</v>
+      </c>
+      <c r="G618" t="n">
+        <v>1312.349975585938</v>
+      </c>
+      <c r="H618" t="n">
+        <v>28602.74978637695</v>
+      </c>
+      <c r="I618" t="n">
+        <v>-0.004118270556621158</v>
+      </c>
+      <c r="J618" t="n">
+        <v>343.992163864053</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>1872.349975585938</v>
+      </c>
+      <c r="D619" t="n">
+        <v>673.5499877929688</v>
+      </c>
+      <c r="E619" t="n">
+        <v>74.72000122070312</v>
+      </c>
+      <c r="F619" t="n">
+        <v>283.6000061035156</v>
+      </c>
+      <c r="G619" t="n">
+        <v>1289.699951171875</v>
+      </c>
+      <c r="H619" t="n">
+        <v>28191.60983276367</v>
+      </c>
+      <c r="I619" t="n">
+        <v>-0.01437414083205038</v>
+      </c>
+      <c r="J619" t="n">
+        <v>339.0475720555494</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>1892.400024414062</v>
+      </c>
+      <c r="D620" t="n">
+        <v>664.1500244140625</v>
+      </c>
+      <c r="E620" t="n">
+        <v>74.33999633789062</v>
+      </c>
+      <c r="F620" t="n">
+        <v>281.5499877929688</v>
+      </c>
+      <c r="G620" t="n">
+        <v>1237.150024414062</v>
+      </c>
+      <c r="H620" t="n">
+        <v>28036.46997070312</v>
+      </c>
+      <c r="I620" t="n">
+        <v>-0.005503050836077006</v>
+      </c>
+      <c r="J620" t="n">
+        <v>337.1817760306792</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>1922.449951171875</v>
+      </c>
+      <c r="D621" t="n">
+        <v>664.5999755859375</v>
+      </c>
+      <c r="E621" t="n">
+        <v>78.05000305175781</v>
+      </c>
+      <c r="F621" t="n">
+        <v>285.75</v>
+      </c>
+      <c r="G621" t="n">
+        <v>1250.300048828125</v>
+      </c>
+      <c r="H621" t="n">
+        <v>28561.49984741211</v>
+      </c>
+      <c r="I621" t="n">
+        <v>0.01872667555001102</v>
+      </c>
+      <c r="J621" t="n">
+        <v>343.4960697517822</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>1957.599975585938</v>
+      </c>
+      <c r="D622" t="n">
+        <v>689.75</v>
+      </c>
+      <c r="E622" t="n">
+        <v>81.94999694824219</v>
+      </c>
+      <c r="F622" t="n">
+        <v>288.0499877929688</v>
+      </c>
+      <c r="G622" t="n">
+        <v>1237.699951171875</v>
+      </c>
+      <c r="H622" t="n">
+        <v>29297.64938354492</v>
+      </c>
+      <c r="I622" t="n">
+        <v>0.0257741904334731</v>
+      </c>
+      <c r="J622" t="n">
+        <v>352.3494028667142</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>1996.400024414062</v>
+      </c>
+      <c r="D623" t="n">
+        <v>729.1500244140625</v>
+      </c>
+      <c r="E623" t="n">
+        <v>81.69999694824219</v>
+      </c>
+      <c r="F623" t="n">
+        <v>291.7000122070312</v>
+      </c>
+      <c r="G623" t="n">
+        <v>1237.300048828125</v>
+      </c>
+      <c r="H623" t="n">
+        <v>29912.80038452148</v>
+      </c>
+      <c r="I623" t="n">
+        <v>0.02099659917843318</v>
+      </c>
+      <c r="J623" t="n">
+        <v>359.7475420494669</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>1988.050048828125</v>
+      </c>
+      <c r="D624" t="n">
+        <v>713.7000122070312</v>
+      </c>
+      <c r="E624" t="n">
+        <v>83.11000061035156</v>
+      </c>
+      <c r="F624" t="n">
+        <v>289.9500122070312</v>
+      </c>
+      <c r="G624" t="n">
+        <v>1241.5</v>
+      </c>
+      <c r="H624" t="n">
+        <v>29812.18057250977</v>
+      </c>
+      <c r="I624" t="n">
+        <v>-0.003363771051799782</v>
+      </c>
+      <c r="J624" t="n">
+        <v>358.5374336815648</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>1989.900024414062</v>
+      </c>
+      <c r="D625" t="n">
+        <v>714.2000122070312</v>
+      </c>
+      <c r="E625" t="n">
+        <v>84.69999694824219</v>
+      </c>
+      <c r="F625" t="n">
+        <v>290.3999938964844</v>
+      </c>
+      <c r="G625" t="n">
+        <v>1226.599975585938</v>
+      </c>
+      <c r="H625" t="n">
+        <v>29926.49987792969</v>
+      </c>
+      <c r="I625" t="n">
+        <v>0.003834650911961043</v>
+      </c>
+      <c r="J625" t="n">
+        <v>359.912299578604</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>2006.550048828125</v>
+      </c>
+      <c r="D626" t="n">
+        <v>731.0999755859375</v>
+      </c>
+      <c r="E626" t="n">
+        <v>82</v>
+      </c>
+      <c r="F626" t="n">
+        <v>284.2999877929688</v>
+      </c>
+      <c r="G626" t="n">
+        <v>1193.800048828125</v>
+      </c>
+      <c r="H626" t="n">
+        <v>29823.24993896484</v>
+      </c>
+      <c r="I626" t="n">
+        <v>-0.003450117433913109</v>
+      </c>
+      <c r="J626" t="n">
+        <v>358.6705598791481</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>1987.800048828125</v>
+      </c>
+      <c r="D627" t="n">
+        <v>743.25</v>
+      </c>
+      <c r="E627" t="n">
+        <v>80.81999969482422</v>
+      </c>
+      <c r="F627" t="n">
+        <v>282.8500061035156</v>
+      </c>
+      <c r="G627" t="n">
+        <v>1166.400024414062</v>
+      </c>
+      <c r="H627" t="n">
+        <v>29685.31034851074</v>
+      </c>
+      <c r="I627" t="n">
+        <v>-0.004625236710834788</v>
+      </c>
+      <c r="J627" t="n">
+        <v>357.0116236384994</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>1998.599975585938</v>
+      </c>
+      <c r="D628" t="n">
+        <v>735.9500122070312</v>
+      </c>
+      <c r="E628" t="n">
+        <v>80.97000122070312</v>
+      </c>
+      <c r="F628" t="n">
+        <v>272.7000122070312</v>
+      </c>
+      <c r="G628" t="n">
+        <v>1121.300048828125</v>
+      </c>
+      <c r="H628" t="n">
+        <v>29455.8603515625</v>
+      </c>
+      <c r="I628" t="n">
+        <v>-0.0077294120982553</v>
+      </c>
+      <c r="J628" t="n">
+        <v>354.2521336755303</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>2048.10009765625</v>
+      </c>
+      <c r="D629" t="n">
+        <v>746.5</v>
+      </c>
+      <c r="E629" t="n">
+        <v>83.44999694824219</v>
+      </c>
+      <c r="F629" t="n">
+        <v>277.3500061035156</v>
+      </c>
+      <c r="G629" t="n">
+        <v>1149.400024414062</v>
+      </c>
+      <c r="H629" t="n">
+        <v>30118.95037841797</v>
+      </c>
+      <c r="I629" t="n">
+        <v>0.02251131078642199</v>
+      </c>
+      <c r="J629" t="n">
+        <v>362.2268135534533</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>2082.39990234375</v>
+      </c>
+      <c r="D630" t="n">
+        <v>773.9500122070312</v>
+      </c>
+      <c r="E630" t="n">
+        <v>82.88999938964844</v>
+      </c>
+      <c r="F630" t="n">
+        <v>286.2999877929688</v>
+      </c>
+      <c r="G630" t="n">
+        <v>1162.75</v>
+      </c>
+      <c r="H630" t="n">
+        <v>30664.31942749023</v>
+      </c>
+      <c r="I630" t="n">
+        <v>0.01810717313253569</v>
+      </c>
+      <c r="J630" t="n">
+        <v>368.7857171797124</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>2068.14990234375</v>
+      </c>
+      <c r="D631" t="n">
+        <v>781.8499755859375</v>
+      </c>
+      <c r="E631" t="n">
+        <v>83.79000091552734</v>
+      </c>
+      <c r="F631" t="n">
+        <v>291.7999877929688</v>
+      </c>
+      <c r="G631" t="n">
+        <v>1141.199951171875</v>
+      </c>
+      <c r="H631" t="n">
+        <v>30770.6690826416</v>
+      </c>
+      <c r="I631" t="n">
+        <v>0.003468188994144963</v>
+      </c>
+      <c r="J631" t="n">
+        <v>370.064735745233</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>2061.60009765625</v>
+      </c>
+      <c r="D632" t="n">
+        <v>775.8499755859375</v>
+      </c>
+      <c r="E632" t="n">
+        <v>82.95999908447266</v>
+      </c>
+      <c r="F632" t="n">
+        <v>289.8500061035156</v>
+      </c>
+      <c r="G632" t="n">
+        <v>1118.449951171875</v>
+      </c>
+      <c r="H632" t="n">
+        <v>30542.33015441895</v>
+      </c>
+      <c r="I632" t="n">
+        <v>-0.007420668286718119</v>
+      </c>
+      <c r="J632" t="n">
+        <v>367.3186080966556</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>2022.050048828125</v>
+      </c>
+      <c r="D633" t="n">
+        <v>772.0999755859375</v>
+      </c>
+      <c r="E633" t="n">
+        <v>81.83999633789062</v>
+      </c>
+      <c r="F633" t="n">
+        <v>290.5</v>
+      </c>
+      <c r="G633" t="n">
+        <v>1123.650024414062</v>
+      </c>
+      <c r="H633" t="n">
+        <v>30238.56976318359</v>
+      </c>
+      <c r="I633" t="n">
+        <v>-0.009945553914831306</v>
+      </c>
+      <c r="J633" t="n">
+        <v>363.6654210759095</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>2031.300048828125</v>
+      </c>
+      <c r="D634" t="n">
+        <v>761.75</v>
+      </c>
+      <c r="E634" t="n">
+        <v>81.08999633789062</v>
+      </c>
+      <c r="F634" t="n">
+        <v>293.4500122070312</v>
+      </c>
+      <c r="G634" t="n">
+        <v>1130.25</v>
+      </c>
+      <c r="H634" t="n">
+        <v>30174.3701171875</v>
+      </c>
+      <c r="I634" t="n">
+        <v>-0.002123104581297322</v>
+      </c>
+      <c r="J634" t="n">
+        <v>362.8933213543638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J634"/>
+  <dimension ref="A1:J654"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="E605" sqref="E605"/>
@@ -20173,6 +20173,626 @@
         <v>362.8933213543638</v>
       </c>
     </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>1885.400024414062</v>
+      </c>
+      <c r="D635" t="n">
+        <v>683.5999755859375</v>
+      </c>
+      <c r="E635" t="n">
+        <v>73.80999755859375</v>
+      </c>
+      <c r="F635" t="n">
+        <v>296.8999938964844</v>
+      </c>
+      <c r="G635" t="n">
+        <v>1303.849975585938</v>
+      </c>
+      <c r="H635" t="n">
+        <v>28487.57955932617</v>
+      </c>
+      <c r="I635" t="n">
+        <v>0</v>
+      </c>
+      <c r="J635" t="n">
+        <v>362.8933213543638</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C636" t="n">
+        <v>1901.949951171875</v>
+      </c>
+      <c r="D636" t="n">
+        <v>689.4000244140625</v>
+      </c>
+      <c r="E636" t="n">
+        <v>74.47000122070312</v>
+      </c>
+      <c r="F636" t="n">
+        <v>297.1499938964844</v>
+      </c>
+      <c r="G636" t="n">
+        <v>1320.25</v>
+      </c>
+      <c r="H636" t="n">
+        <v>28715.86001586914</v>
+      </c>
+      <c r="I636" t="n">
+        <v>0.008013332830455756</v>
+      </c>
+      <c r="J636" t="n">
+        <v>365.8013063203259</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C637" t="n">
+        <v>1901.300048828125</v>
+      </c>
+      <c r="D637" t="n">
+        <v>688.9500122070312</v>
+      </c>
+      <c r="E637" t="n">
+        <v>74.16000366210938</v>
+      </c>
+      <c r="F637" t="n">
+        <v>298.9500122070312</v>
+      </c>
+      <c r="G637" t="n">
+        <v>1327.099975585938</v>
+      </c>
+      <c r="H637" t="n">
+        <v>28721.03076171875</v>
+      </c>
+      <c r="I637" t="n">
+        <v>0.0001800658537390795</v>
+      </c>
+      <c r="J637" t="n">
+        <v>365.8671746448472</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C638" t="n">
+        <v>1879.449951171875</v>
+      </c>
+      <c r="D638" t="n">
+        <v>687.5</v>
+      </c>
+      <c r="E638" t="n">
+        <v>76</v>
+      </c>
+      <c r="F638" t="n">
+        <v>290.6000061035156</v>
+      </c>
+      <c r="G638" t="n">
+        <v>1312.349975585938</v>
+      </c>
+      <c r="H638" t="n">
+        <v>28602.74978637695</v>
+      </c>
+      <c r="I638" t="n">
+        <v>-0.004118270556621158</v>
+      </c>
+      <c r="J638" t="n">
+        <v>364.3604346318732</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C639" t="n">
+        <v>1872.349975585938</v>
+      </c>
+      <c r="D639" t="n">
+        <v>673.5499877929688</v>
+      </c>
+      <c r="E639" t="n">
+        <v>74.72000122070312</v>
+      </c>
+      <c r="F639" t="n">
+        <v>283.6000061035156</v>
+      </c>
+      <c r="G639" t="n">
+        <v>1289.699951171875</v>
+      </c>
+      <c r="H639" t="n">
+        <v>28191.60983276367</v>
+      </c>
+      <c r="I639" t="n">
+        <v>-0.01437414083205038</v>
+      </c>
+      <c r="J639" t="n">
+        <v>359.1230664308476</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C640" t="n">
+        <v>1892.400024414062</v>
+      </c>
+      <c r="D640" t="n">
+        <v>664.1500244140625</v>
+      </c>
+      <c r="E640" t="n">
+        <v>74.33999633789062</v>
+      </c>
+      <c r="F640" t="n">
+        <v>281.5499877929688</v>
+      </c>
+      <c r="G640" t="n">
+        <v>1237.150024414062</v>
+      </c>
+      <c r="H640" t="n">
+        <v>28036.46997070312</v>
+      </c>
+      <c r="I640" t="n">
+        <v>-0.005503050836077006</v>
+      </c>
+      <c r="J640" t="n">
+        <v>357.1467939398707</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C641" t="n">
+        <v>1922.449951171875</v>
+      </c>
+      <c r="D641" t="n">
+        <v>664.5999755859375</v>
+      </c>
+      <c r="E641" t="n">
+        <v>78.05000305175781</v>
+      </c>
+      <c r="F641" t="n">
+        <v>285.75</v>
+      </c>
+      <c r="G641" t="n">
+        <v>1250.300048828125</v>
+      </c>
+      <c r="H641" t="n">
+        <v>28561.49984741211</v>
+      </c>
+      <c r="I641" t="n">
+        <v>0.01872667555001102</v>
+      </c>
+      <c r="J641" t="n">
+        <v>363.8349660737094</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C642" t="n">
+        <v>1957.599975585938</v>
+      </c>
+      <c r="D642" t="n">
+        <v>689.75</v>
+      </c>
+      <c r="E642" t="n">
+        <v>81.94999694824219</v>
+      </c>
+      <c r="F642" t="n">
+        <v>288.0499877929688</v>
+      </c>
+      <c r="G642" t="n">
+        <v>1237.699951171875</v>
+      </c>
+      <c r="H642" t="n">
+        <v>29297.64938354492</v>
+      </c>
+      <c r="I642" t="n">
+        <v>0.0257741904334731</v>
+      </c>
+      <c r="J642" t="n">
+        <v>373.2125177756494</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C643" t="n">
+        <v>1996.400024414062</v>
+      </c>
+      <c r="D643" t="n">
+        <v>729.1500244140625</v>
+      </c>
+      <c r="E643" t="n">
+        <v>81.69999694824219</v>
+      </c>
+      <c r="F643" t="n">
+        <v>291.7000122070312</v>
+      </c>
+      <c r="G643" t="n">
+        <v>1237.300048828125</v>
+      </c>
+      <c r="H643" t="n">
+        <v>29912.80038452148</v>
+      </c>
+      <c r="I643" t="n">
+        <v>0.02099659917843318</v>
+      </c>
+      <c r="J643" t="n">
+        <v>381.0487114197585</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C644" t="n">
+        <v>1988.050048828125</v>
+      </c>
+      <c r="D644" t="n">
+        <v>713.7000122070312</v>
+      </c>
+      <c r="E644" t="n">
+        <v>83.11000061035156</v>
+      </c>
+      <c r="F644" t="n">
+        <v>289.9500122070312</v>
+      </c>
+      <c r="G644" t="n">
+        <v>1241.5</v>
+      </c>
+      <c r="H644" t="n">
+        <v>29812.18057250977</v>
+      </c>
+      <c r="I644" t="n">
+        <v>-0.003363771051799782</v>
+      </c>
+      <c r="J644" t="n">
+        <v>379.7669507949591</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C645" t="n">
+        <v>1989.900024414062</v>
+      </c>
+      <c r="D645" t="n">
+        <v>714.2000122070312</v>
+      </c>
+      <c r="E645" t="n">
+        <v>84.69999694824219</v>
+      </c>
+      <c r="F645" t="n">
+        <v>290.3999938964844</v>
+      </c>
+      <c r="G645" t="n">
+        <v>1226.599975585938</v>
+      </c>
+      <c r="H645" t="n">
+        <v>29926.49987792969</v>
+      </c>
+      <c r="I645" t="n">
+        <v>0.003834650911961043</v>
+      </c>
+      <c r="J645" t="n">
+        <v>381.2232244791578</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C646" t="n">
+        <v>2006.550048828125</v>
+      </c>
+      <c r="D646" t="n">
+        <v>731.0999755859375</v>
+      </c>
+      <c r="E646" t="n">
+        <v>82</v>
+      </c>
+      <c r="F646" t="n">
+        <v>284.2999877929688</v>
+      </c>
+      <c r="G646" t="n">
+        <v>1193.800048828125</v>
+      </c>
+      <c r="H646" t="n">
+        <v>29823.24993896484</v>
+      </c>
+      <c r="I646" t="n">
+        <v>-0.003450117433913109</v>
+      </c>
+      <c r="J646" t="n">
+        <v>379.9079595861696</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C647" t="n">
+        <v>1987.800048828125</v>
+      </c>
+      <c r="D647" t="n">
+        <v>743.25</v>
+      </c>
+      <c r="E647" t="n">
+        <v>80.81999969482422</v>
+      </c>
+      <c r="F647" t="n">
+        <v>282.8500061035156</v>
+      </c>
+      <c r="G647" t="n">
+        <v>1166.400024414062</v>
+      </c>
+      <c r="H647" t="n">
+        <v>29685.31034851074</v>
+      </c>
+      <c r="I647" t="n">
+        <v>-0.004625236710834788</v>
+      </c>
+      <c r="J647" t="n">
+        <v>378.1507953447533</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C648" t="n">
+        <v>1998.599975585938</v>
+      </c>
+      <c r="D648" t="n">
+        <v>735.9500122070312</v>
+      </c>
+      <c r="E648" t="n">
+        <v>80.97000122070312</v>
+      </c>
+      <c r="F648" t="n">
+        <v>272.7000122070312</v>
+      </c>
+      <c r="G648" t="n">
+        <v>1121.300048828125</v>
+      </c>
+      <c r="H648" t="n">
+        <v>29455.8603515625</v>
+      </c>
+      <c r="I648" t="n">
+        <v>-0.0077294120982553</v>
+      </c>
+      <c r="J648" t="n">
+        <v>375.2279120122507</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C649" t="n">
+        <v>2048.10009765625</v>
+      </c>
+      <c r="D649" t="n">
+        <v>746.5</v>
+      </c>
+      <c r="E649" t="n">
+        <v>83.44999694824219</v>
+      </c>
+      <c r="F649" t="n">
+        <v>277.3500061035156</v>
+      </c>
+      <c r="G649" t="n">
+        <v>1149.400024414062</v>
+      </c>
+      <c r="H649" t="n">
+        <v>30118.95037841797</v>
+      </c>
+      <c r="I649" t="n">
+        <v>0.02251131078642199</v>
+      </c>
+      <c r="J649" t="n">
+        <v>383.6747841552988</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C650" t="n">
+        <v>2082.39990234375</v>
+      </c>
+      <c r="D650" t="n">
+        <v>773.9500122070312</v>
+      </c>
+      <c r="E650" t="n">
+        <v>82.88999938964844</v>
+      </c>
+      <c r="F650" t="n">
+        <v>286.2999877929688</v>
+      </c>
+      <c r="G650" t="n">
+        <v>1162.75</v>
+      </c>
+      <c r="H650" t="n">
+        <v>30664.31942749023</v>
+      </c>
+      <c r="I650" t="n">
+        <v>0.01810717313253569</v>
+      </c>
+      <c r="J650" t="n">
+        <v>390.622049898587</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C651" t="n">
+        <v>2068.14990234375</v>
+      </c>
+      <c r="D651" t="n">
+        <v>781.8499755859375</v>
+      </c>
+      <c r="E651" t="n">
+        <v>83.79000091552734</v>
+      </c>
+      <c r="F651" t="n">
+        <v>291.7999877929688</v>
+      </c>
+      <c r="G651" t="n">
+        <v>1141.199951171875</v>
+      </c>
+      <c r="H651" t="n">
+        <v>30770.6690826416</v>
+      </c>
+      <c r="I651" t="n">
+        <v>0.003468188994144963</v>
+      </c>
+      <c r="J651" t="n">
+        <v>391.9768009929157</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C652" t="n">
+        <v>2061.60009765625</v>
+      </c>
+      <c r="D652" t="n">
+        <v>775.8499755859375</v>
+      </c>
+      <c r="E652" t="n">
+        <v>82.95999908447266</v>
+      </c>
+      <c r="F652" t="n">
+        <v>289.8500061035156</v>
+      </c>
+      <c r="G652" t="n">
+        <v>1118.449951171875</v>
+      </c>
+      <c r="H652" t="n">
+        <v>30542.33015441895</v>
+      </c>
+      <c r="I652" t="n">
+        <v>-0.007420668286718119</v>
+      </c>
+      <c r="J652" t="n">
+        <v>389.0680711766583</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C653" t="n">
+        <v>2022.050048828125</v>
+      </c>
+      <c r="D653" t="n">
+        <v>772.0999755859375</v>
+      </c>
+      <c r="E653" t="n">
+        <v>81.83999633789062</v>
+      </c>
+      <c r="F653" t="n">
+        <v>290.5</v>
+      </c>
+      <c r="G653" t="n">
+        <v>1123.650024414062</v>
+      </c>
+      <c r="H653" t="n">
+        <v>30238.56976318359</v>
+      </c>
+      <c r="I653" t="n">
+        <v>-0.009945553914831306</v>
+      </c>
+      <c r="J653" t="n">
+        <v>385.1985736982314</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C654" t="n">
+        <v>2031.300048828125</v>
+      </c>
+      <c r="D654" t="n">
+        <v>761.75</v>
+      </c>
+      <c r="E654" t="n">
+        <v>81.08999633789062</v>
+      </c>
+      <c r="F654" t="n">
+        <v>293.4500122070312</v>
+      </c>
+      <c r="G654" t="n">
+        <v>1130.25</v>
+      </c>
+      <c r="H654" t="n">
+        <v>30174.3701171875</v>
+      </c>
+      <c r="I654" t="n">
+        <v>-0.002123104581297322</v>
+      </c>
+      <c r="J654" t="n">
+        <v>384.3807568417035</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J654"/>
+  <dimension ref="A1:J674"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="E605" sqref="E605"/>
@@ -20793,6 +20793,626 @@
         <v>384.3807568417035</v>
       </c>
     </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C655" t="n">
+        <v>1885.400024414062</v>
+      </c>
+      <c r="D655" t="n">
+        <v>683.5999755859375</v>
+      </c>
+      <c r="E655" t="n">
+        <v>73.80999755859375</v>
+      </c>
+      <c r="F655" t="n">
+        <v>296.8999938964844</v>
+      </c>
+      <c r="G655" t="n">
+        <v>1303.849975585938</v>
+      </c>
+      <c r="H655" t="n">
+        <v>28487.57955932617</v>
+      </c>
+      <c r="I655" t="n">
+        <v>0</v>
+      </c>
+      <c r="J655" t="n">
+        <v>384.3807568417035</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C656" t="n">
+        <v>1901.949951171875</v>
+      </c>
+      <c r="D656" t="n">
+        <v>689.4000244140625</v>
+      </c>
+      <c r="E656" t="n">
+        <v>74.47000122070312</v>
+      </c>
+      <c r="F656" t="n">
+        <v>297.1499938964844</v>
+      </c>
+      <c r="G656" t="n">
+        <v>1320.25</v>
+      </c>
+      <c r="H656" t="n">
+        <v>28715.86001586914</v>
+      </c>
+      <c r="I656" t="n">
+        <v>0.008013332830455756</v>
+      </c>
+      <c r="J656" t="n">
+        <v>387.4609277798985</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C657" t="n">
+        <v>1901.300048828125</v>
+      </c>
+      <c r="D657" t="n">
+        <v>688.9500122070312</v>
+      </c>
+      <c r="E657" t="n">
+        <v>74.16000366210938</v>
+      </c>
+      <c r="F657" t="n">
+        <v>298.9500122070312</v>
+      </c>
+      <c r="G657" t="n">
+        <v>1327.099975585938</v>
+      </c>
+      <c r="H657" t="n">
+        <v>28721.03076171875</v>
+      </c>
+      <c r="I657" t="n">
+        <v>0.0001800658537390795</v>
+      </c>
+      <c r="J657" t="n">
+        <v>387.5306962626497</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C658" t="n">
+        <v>1879.449951171875</v>
+      </c>
+      <c r="D658" t="n">
+        <v>687.5</v>
+      </c>
+      <c r="E658" t="n">
+        <v>76</v>
+      </c>
+      <c r="F658" t="n">
+        <v>290.6000061035156</v>
+      </c>
+      <c r="G658" t="n">
+        <v>1312.349975585938</v>
+      </c>
+      <c r="H658" t="n">
+        <v>28602.74978637695</v>
+      </c>
+      <c r="I658" t="n">
+        <v>-0.004118270556621158</v>
+      </c>
+      <c r="J658" t="n">
+        <v>385.9347400064443</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C659" t="n">
+        <v>1872.349975585938</v>
+      </c>
+      <c r="D659" t="n">
+        <v>673.5499877929688</v>
+      </c>
+      <c r="E659" t="n">
+        <v>74.72000122070312</v>
+      </c>
+      <c r="F659" t="n">
+        <v>283.6000061035156</v>
+      </c>
+      <c r="G659" t="n">
+        <v>1289.699951171875</v>
+      </c>
+      <c r="H659" t="n">
+        <v>28191.60983276367</v>
+      </c>
+      <c r="I659" t="n">
+        <v>-0.01437414083205038</v>
+      </c>
+      <c r="J659" t="n">
+        <v>380.3872597016109</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C660" t="n">
+        <v>1892.400024414062</v>
+      </c>
+      <c r="D660" t="n">
+        <v>664.1500244140625</v>
+      </c>
+      <c r="E660" t="n">
+        <v>74.33999633789062</v>
+      </c>
+      <c r="F660" t="n">
+        <v>281.5499877929688</v>
+      </c>
+      <c r="G660" t="n">
+        <v>1237.150024414062</v>
+      </c>
+      <c r="H660" t="n">
+        <v>28036.46997070312</v>
+      </c>
+      <c r="I660" t="n">
+        <v>-0.005503050836077006</v>
+      </c>
+      <c r="J660" t="n">
+        <v>378.2939692740769</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C661" t="n">
+        <v>1922.449951171875</v>
+      </c>
+      <c r="D661" t="n">
+        <v>664.5999755859375</v>
+      </c>
+      <c r="E661" t="n">
+        <v>78.05000305175781</v>
+      </c>
+      <c r="F661" t="n">
+        <v>285.75</v>
+      </c>
+      <c r="G661" t="n">
+        <v>1250.300048828125</v>
+      </c>
+      <c r="H661" t="n">
+        <v>28561.49984741211</v>
+      </c>
+      <c r="I661" t="n">
+        <v>0.01872667555001102</v>
+      </c>
+      <c r="J661" t="n">
+        <v>385.3781576991984</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C662" t="n">
+        <v>1957.599975585938</v>
+      </c>
+      <c r="D662" t="n">
+        <v>689.75</v>
+      </c>
+      <c r="E662" t="n">
+        <v>81.94999694824219</v>
+      </c>
+      <c r="F662" t="n">
+        <v>288.0499877929688</v>
+      </c>
+      <c r="G662" t="n">
+        <v>1237.699951171875</v>
+      </c>
+      <c r="H662" t="n">
+        <v>29297.64938354492</v>
+      </c>
+      <c r="I662" t="n">
+        <v>0.0257741904334731</v>
+      </c>
+      <c r="J662" t="n">
+        <v>395.3109677246386</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C663" t="n">
+        <v>1996.400024414062</v>
+      </c>
+      <c r="D663" t="n">
+        <v>729.1500244140625</v>
+      </c>
+      <c r="E663" t="n">
+        <v>81.69999694824219</v>
+      </c>
+      <c r="F663" t="n">
+        <v>291.7000122070312</v>
+      </c>
+      <c r="G663" t="n">
+        <v>1237.300048828125</v>
+      </c>
+      <c r="H663" t="n">
+        <v>29912.80038452148</v>
+      </c>
+      <c r="I663" t="n">
+        <v>0.02099659917843318</v>
+      </c>
+      <c r="J663" t="n">
+        <v>403.6111536647913</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C664" t="n">
+        <v>1988.050048828125</v>
+      </c>
+      <c r="D664" t="n">
+        <v>713.7000122070312</v>
+      </c>
+      <c r="E664" t="n">
+        <v>83.11000061035156</v>
+      </c>
+      <c r="F664" t="n">
+        <v>289.9500122070312</v>
+      </c>
+      <c r="G664" t="n">
+        <v>1241.5</v>
+      </c>
+      <c r="H664" t="n">
+        <v>29812.18057250977</v>
+      </c>
+      <c r="I664" t="n">
+        <v>-0.003363771051799782</v>
+      </c>
+      <c r="J664" t="n">
+        <v>402.2534981499102</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C665" t="n">
+        <v>1989.900024414062</v>
+      </c>
+      <c r="D665" t="n">
+        <v>714.2000122070312</v>
+      </c>
+      <c r="E665" t="n">
+        <v>84.69999694824219</v>
+      </c>
+      <c r="F665" t="n">
+        <v>290.3999938964844</v>
+      </c>
+      <c r="G665" t="n">
+        <v>1226.599975585938</v>
+      </c>
+      <c r="H665" t="n">
+        <v>29926.49987792969</v>
+      </c>
+      <c r="I665" t="n">
+        <v>0.003834650911961043</v>
+      </c>
+      <c r="J665" t="n">
+        <v>403.7959998934303</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C666" t="n">
+        <v>2006.550048828125</v>
+      </c>
+      <c r="D666" t="n">
+        <v>731.0999755859375</v>
+      </c>
+      <c r="E666" t="n">
+        <v>82</v>
+      </c>
+      <c r="F666" t="n">
+        <v>284.2999877929688</v>
+      </c>
+      <c r="G666" t="n">
+        <v>1193.800048828125</v>
+      </c>
+      <c r="H666" t="n">
+        <v>29823.24993896484</v>
+      </c>
+      <c r="I666" t="n">
+        <v>-0.003450117433913109</v>
+      </c>
+      <c r="J666" t="n">
+        <v>402.4028562744537</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C667" t="n">
+        <v>1987.800048828125</v>
+      </c>
+      <c r="D667" t="n">
+        <v>743.25</v>
+      </c>
+      <c r="E667" t="n">
+        <v>80.81999969482422</v>
+      </c>
+      <c r="F667" t="n">
+        <v>282.8500061035156</v>
+      </c>
+      <c r="G667" t="n">
+        <v>1166.400024414062</v>
+      </c>
+      <c r="H667" t="n">
+        <v>29685.31034851074</v>
+      </c>
+      <c r="I667" t="n">
+        <v>-0.004625236710834788</v>
+      </c>
+      <c r="J667" t="n">
+        <v>400.5416478110683</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C668" t="n">
+        <v>1998.599975585938</v>
+      </c>
+      <c r="D668" t="n">
+        <v>735.9500122070312</v>
+      </c>
+      <c r="E668" t="n">
+        <v>80.97000122070312</v>
+      </c>
+      <c r="F668" t="n">
+        <v>272.7000122070312</v>
+      </c>
+      <c r="G668" t="n">
+        <v>1121.300048828125</v>
+      </c>
+      <c r="H668" t="n">
+        <v>29455.8603515625</v>
+      </c>
+      <c r="I668" t="n">
+        <v>-0.0077294120982553</v>
+      </c>
+      <c r="J668" t="n">
+        <v>397.4456963526223</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C669" t="n">
+        <v>2048.10009765625</v>
+      </c>
+      <c r="D669" t="n">
+        <v>746.5</v>
+      </c>
+      <c r="E669" t="n">
+        <v>83.44999694824219</v>
+      </c>
+      <c r="F669" t="n">
+        <v>277.3500061035156</v>
+      </c>
+      <c r="G669" t="n">
+        <v>1149.400024414062</v>
+      </c>
+      <c r="H669" t="n">
+        <v>30118.95037841797</v>
+      </c>
+      <c r="I669" t="n">
+        <v>0.02251131078642199</v>
+      </c>
+      <c r="J669" t="n">
+        <v>406.3927199439421</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C670" t="n">
+        <v>2082.39990234375</v>
+      </c>
+      <c r="D670" t="n">
+        <v>773.9500122070312</v>
+      </c>
+      <c r="E670" t="n">
+        <v>82.88999938964844</v>
+      </c>
+      <c r="F670" t="n">
+        <v>286.2999877929688</v>
+      </c>
+      <c r="G670" t="n">
+        <v>1162.75</v>
+      </c>
+      <c r="H670" t="n">
+        <v>30664.31942749023</v>
+      </c>
+      <c r="I670" t="n">
+        <v>0.01810717313253569</v>
+      </c>
+      <c r="J670" t="n">
+        <v>413.7513432837692</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C671" t="n">
+        <v>2068.14990234375</v>
+      </c>
+      <c r="D671" t="n">
+        <v>781.8499755859375</v>
+      </c>
+      <c r="E671" t="n">
+        <v>83.79000091552734</v>
+      </c>
+      <c r="F671" t="n">
+        <v>291.7999877929688</v>
+      </c>
+      <c r="G671" t="n">
+        <v>1141.199951171875</v>
+      </c>
+      <c r="H671" t="n">
+        <v>30770.6690826416</v>
+      </c>
+      <c r="I671" t="n">
+        <v>0.003468188994144963</v>
+      </c>
+      <c r="J671" t="n">
+        <v>415.1863111388587</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C672" t="n">
+        <v>2061.60009765625</v>
+      </c>
+      <c r="D672" t="n">
+        <v>775.8499755859375</v>
+      </c>
+      <c r="E672" t="n">
+        <v>82.95999908447266</v>
+      </c>
+      <c r="F672" t="n">
+        <v>289.8500061035156</v>
+      </c>
+      <c r="G672" t="n">
+        <v>1118.449951171875</v>
+      </c>
+      <c r="H672" t="n">
+        <v>30542.33015441895</v>
+      </c>
+      <c r="I672" t="n">
+        <v>-0.007420668286718119</v>
+      </c>
+      <c r="J672" t="n">
+        <v>412.1053512467111</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C673" t="n">
+        <v>2022.050048828125</v>
+      </c>
+      <c r="D673" t="n">
+        <v>772.0999755859375</v>
+      </c>
+      <c r="E673" t="n">
+        <v>81.83999633789062</v>
+      </c>
+      <c r="F673" t="n">
+        <v>290.5</v>
+      </c>
+      <c r="G673" t="n">
+        <v>1123.650024414062</v>
+      </c>
+      <c r="H673" t="n">
+        <v>30238.56976318359</v>
+      </c>
+      <c r="I673" t="n">
+        <v>-0.009945553914831306</v>
+      </c>
+      <c r="J673" t="n">
+        <v>408.0067352572964</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C674" t="n">
+        <v>2031.300048828125</v>
+      </c>
+      <c r="D674" t="n">
+        <v>761.75</v>
+      </c>
+      <c r="E674" t="n">
+        <v>81.08999633789062</v>
+      </c>
+      <c r="F674" t="n">
+        <v>293.4500122070312</v>
+      </c>
+      <c r="G674" t="n">
+        <v>1130.25</v>
+      </c>
+      <c r="H674" t="n">
+        <v>30174.3701171875</v>
+      </c>
+      <c r="I674" t="n">
+        <v>-0.002123104581297322</v>
+      </c>
+      <c r="J674" t="n">
+        <v>407.1404942884715</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J674"/>
+  <dimension ref="A1:J694"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="E605" sqref="E605"/>
@@ -21413,6 +21413,626 @@
         <v>407.1404942884715</v>
       </c>
     </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C675" t="n">
+        <v>1885.400024414062</v>
+      </c>
+      <c r="D675" t="n">
+        <v>683.5999755859375</v>
+      </c>
+      <c r="E675" t="n">
+        <v>73.80999755859375</v>
+      </c>
+      <c r="F675" t="n">
+        <v>296.8999938964844</v>
+      </c>
+      <c r="G675" t="n">
+        <v>1303.849975585938</v>
+      </c>
+      <c r="H675" t="n">
+        <v>28487.57955932617</v>
+      </c>
+      <c r="I675" t="n">
+        <v>0</v>
+      </c>
+      <c r="J675" t="n">
+        <v>407.1404942884715</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C676" t="n">
+        <v>1901.949951171875</v>
+      </c>
+      <c r="D676" t="n">
+        <v>689.4000244140625</v>
+      </c>
+      <c r="E676" t="n">
+        <v>74.47000122070312</v>
+      </c>
+      <c r="F676" t="n">
+        <v>297.1499938964844</v>
+      </c>
+      <c r="G676" t="n">
+        <v>1320.25</v>
+      </c>
+      <c r="H676" t="n">
+        <v>28715.86001586914</v>
+      </c>
+      <c r="I676" t="n">
+        <v>0.008013332830455756</v>
+      </c>
+      <c r="J676" t="n">
+        <v>410.4030465779612</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C677" t="n">
+        <v>1901.300048828125</v>
+      </c>
+      <c r="D677" t="n">
+        <v>688.9500122070312</v>
+      </c>
+      <c r="E677" t="n">
+        <v>74.16000366210938</v>
+      </c>
+      <c r="F677" t="n">
+        <v>298.9500122070312</v>
+      </c>
+      <c r="G677" t="n">
+        <v>1327.099975585938</v>
+      </c>
+      <c r="H677" t="n">
+        <v>28721.03076171875</v>
+      </c>
+      <c r="I677" t="n">
+        <v>0.0001800658537390795</v>
+      </c>
+      <c r="J677" t="n">
+        <v>410.4769461529203</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C678" t="n">
+        <v>1879.449951171875</v>
+      </c>
+      <c r="D678" t="n">
+        <v>687.5</v>
+      </c>
+      <c r="E678" t="n">
+        <v>76</v>
+      </c>
+      <c r="F678" t="n">
+        <v>290.6000061035156</v>
+      </c>
+      <c r="G678" t="n">
+        <v>1312.349975585938</v>
+      </c>
+      <c r="H678" t="n">
+        <v>28602.74978637695</v>
+      </c>
+      <c r="I678" t="n">
+        <v>-0.004118270556621158</v>
+      </c>
+      <c r="J678" t="n">
+        <v>408.786491031407</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C679" t="n">
+        <v>1872.349975585938</v>
+      </c>
+      <c r="D679" t="n">
+        <v>673.5499877929688</v>
+      </c>
+      <c r="E679" t="n">
+        <v>74.72000122070312</v>
+      </c>
+      <c r="F679" t="n">
+        <v>283.6000061035156</v>
+      </c>
+      <c r="G679" t="n">
+        <v>1289.699951171875</v>
+      </c>
+      <c r="H679" t="n">
+        <v>28191.60983276367</v>
+      </c>
+      <c r="I679" t="n">
+        <v>-0.01437414083205038</v>
+      </c>
+      <c r="J679" t="n">
+        <v>402.9105364390819</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C680" t="n">
+        <v>1892.400024414062</v>
+      </c>
+      <c r="D680" t="n">
+        <v>664.1500244140625</v>
+      </c>
+      <c r="E680" t="n">
+        <v>74.33999633789062</v>
+      </c>
+      <c r="F680" t="n">
+        <v>281.5499877929688</v>
+      </c>
+      <c r="G680" t="n">
+        <v>1237.150024414062</v>
+      </c>
+      <c r="H680" t="n">
+        <v>28036.46997070312</v>
+      </c>
+      <c r="I680" t="n">
+        <v>-0.005503050836077006</v>
+      </c>
+      <c r="J680" t="n">
+        <v>400.6932992746665</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C681" t="n">
+        <v>1922.449951171875</v>
+      </c>
+      <c r="D681" t="n">
+        <v>664.5999755859375</v>
+      </c>
+      <c r="E681" t="n">
+        <v>78.05000305175781</v>
+      </c>
+      <c r="F681" t="n">
+        <v>285.75</v>
+      </c>
+      <c r="G681" t="n">
+        <v>1250.300048828125</v>
+      </c>
+      <c r="H681" t="n">
+        <v>28561.49984741211</v>
+      </c>
+      <c r="I681" t="n">
+        <v>0.01872667555001102</v>
+      </c>
+      <c r="J681" t="n">
+        <v>408.1969526852467</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C682" t="n">
+        <v>1957.599975585938</v>
+      </c>
+      <c r="D682" t="n">
+        <v>689.75</v>
+      </c>
+      <c r="E682" t="n">
+        <v>81.94999694824219</v>
+      </c>
+      <c r="F682" t="n">
+        <v>288.0499877929688</v>
+      </c>
+      <c r="G682" t="n">
+        <v>1237.699951171875</v>
+      </c>
+      <c r="H682" t="n">
+        <v>29297.64938354492</v>
+      </c>
+      <c r="I682" t="n">
+        <v>0.0257741904334731</v>
+      </c>
+      <c r="J682" t="n">
+        <v>418.7178986781197</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C683" t="n">
+        <v>1996.400024414062</v>
+      </c>
+      <c r="D683" t="n">
+        <v>729.1500244140625</v>
+      </c>
+      <c r="E683" t="n">
+        <v>81.69999694824219</v>
+      </c>
+      <c r="F683" t="n">
+        <v>291.7000122070312</v>
+      </c>
+      <c r="G683" t="n">
+        <v>1237.300048828125</v>
+      </c>
+      <c r="H683" t="n">
+        <v>29912.80038452148</v>
+      </c>
+      <c r="I683" t="n">
+        <v>0.02099659917843318</v>
+      </c>
+      <c r="J683" t="n">
+        <v>427.5095505654999</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C684" t="n">
+        <v>1988.050048828125</v>
+      </c>
+      <c r="D684" t="n">
+        <v>713.7000122070312</v>
+      </c>
+      <c r="E684" t="n">
+        <v>83.11000061035156</v>
+      </c>
+      <c r="F684" t="n">
+        <v>289.9500122070312</v>
+      </c>
+      <c r="G684" t="n">
+        <v>1241.5</v>
+      </c>
+      <c r="H684" t="n">
+        <v>29812.18057250977</v>
+      </c>
+      <c r="I684" t="n">
+        <v>-0.003363771051799782</v>
+      </c>
+      <c r="J684" t="n">
+        <v>426.0715063149398</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C685" t="n">
+        <v>1989.900024414062</v>
+      </c>
+      <c r="D685" t="n">
+        <v>714.2000122070312</v>
+      </c>
+      <c r="E685" t="n">
+        <v>84.69999694824219</v>
+      </c>
+      <c r="F685" t="n">
+        <v>290.3999938964844</v>
+      </c>
+      <c r="G685" t="n">
+        <v>1226.599975585938</v>
+      </c>
+      <c r="H685" t="n">
+        <v>29926.49987792969</v>
+      </c>
+      <c r="I685" t="n">
+        <v>0.003834650911961043</v>
+      </c>
+      <c r="J685" t="n">
+        <v>427.705341805191</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C686" t="n">
+        <v>2006.550048828125</v>
+      </c>
+      <c r="D686" t="n">
+        <v>731.0999755859375</v>
+      </c>
+      <c r="E686" t="n">
+        <v>82</v>
+      </c>
+      <c r="F686" t="n">
+        <v>284.2999877929688</v>
+      </c>
+      <c r="G686" t="n">
+        <v>1193.800048828125</v>
+      </c>
+      <c r="H686" t="n">
+        <v>29823.24993896484</v>
+      </c>
+      <c r="I686" t="n">
+        <v>-0.003450117433913109</v>
+      </c>
+      <c r="J686" t="n">
+        <v>426.2297081488512</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C687" t="n">
+        <v>1987.800048828125</v>
+      </c>
+      <c r="D687" t="n">
+        <v>743.25</v>
+      </c>
+      <c r="E687" t="n">
+        <v>80.81999969482422</v>
+      </c>
+      <c r="F687" t="n">
+        <v>282.8500061035156</v>
+      </c>
+      <c r="G687" t="n">
+        <v>1166.400024414062</v>
+      </c>
+      <c r="H687" t="n">
+        <v>29685.31034851074</v>
+      </c>
+      <c r="I687" t="n">
+        <v>-0.004625236710834788</v>
+      </c>
+      <c r="J687" t="n">
+        <v>424.2582948554727</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C688" t="n">
+        <v>1998.599975585938</v>
+      </c>
+      <c r="D688" t="n">
+        <v>735.9500122070312</v>
+      </c>
+      <c r="E688" t="n">
+        <v>80.97000122070312</v>
+      </c>
+      <c r="F688" t="n">
+        <v>272.7000122070312</v>
+      </c>
+      <c r="G688" t="n">
+        <v>1121.300048828125</v>
+      </c>
+      <c r="H688" t="n">
+        <v>29455.8603515625</v>
+      </c>
+      <c r="I688" t="n">
+        <v>-0.0077294120982553</v>
+      </c>
+      <c r="J688" t="n">
+        <v>420.9790276584316</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C689" t="n">
+        <v>2048.10009765625</v>
+      </c>
+      <c r="D689" t="n">
+        <v>746.5</v>
+      </c>
+      <c r="E689" t="n">
+        <v>83.44999694824219</v>
+      </c>
+      <c r="F689" t="n">
+        <v>277.3500061035156</v>
+      </c>
+      <c r="G689" t="n">
+        <v>1149.400024414062</v>
+      </c>
+      <c r="H689" t="n">
+        <v>30118.95037841797</v>
+      </c>
+      <c r="I689" t="n">
+        <v>0.02251131078642199</v>
+      </c>
+      <c r="J689" t="n">
+        <v>430.4558173846164</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C690" t="n">
+        <v>2082.39990234375</v>
+      </c>
+      <c r="D690" t="n">
+        <v>773.9500122070312</v>
+      </c>
+      <c r="E690" t="n">
+        <v>82.88999938964844</v>
+      </c>
+      <c r="F690" t="n">
+        <v>286.2999877929688</v>
+      </c>
+      <c r="G690" t="n">
+        <v>1162.75</v>
+      </c>
+      <c r="H690" t="n">
+        <v>30664.31942749023</v>
+      </c>
+      <c r="I690" t="n">
+        <v>0.01810717313253569</v>
+      </c>
+      <c r="J690" t="n">
+        <v>438.2501553959068</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C691" t="n">
+        <v>2068.14990234375</v>
+      </c>
+      <c r="D691" t="n">
+        <v>781.8499755859375</v>
+      </c>
+      <c r="E691" t="n">
+        <v>83.79000091552734</v>
+      </c>
+      <c r="F691" t="n">
+        <v>291.7999877929688</v>
+      </c>
+      <c r="G691" t="n">
+        <v>1141.199951171875</v>
+      </c>
+      <c r="H691" t="n">
+        <v>30770.6690826416</v>
+      </c>
+      <c r="I691" t="n">
+        <v>0.003468188994144963</v>
+      </c>
+      <c r="J691" t="n">
+        <v>439.7700897615333</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C692" t="n">
+        <v>2061.60009765625</v>
+      </c>
+      <c r="D692" t="n">
+        <v>775.8499755859375</v>
+      </c>
+      <c r="E692" t="n">
+        <v>82.95999908447266</v>
+      </c>
+      <c r="F692" t="n">
+        <v>289.8500061035156</v>
+      </c>
+      <c r="G692" t="n">
+        <v>1118.449951171875</v>
+      </c>
+      <c r="H692" t="n">
+        <v>30542.33015441895</v>
+      </c>
+      <c r="I692" t="n">
+        <v>-0.007420668286718119</v>
+      </c>
+      <c r="J692" t="n">
+        <v>436.5067018029927</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C693" t="n">
+        <v>2022.050048828125</v>
+      </c>
+      <c r="D693" t="n">
+        <v>772.0999755859375</v>
+      </c>
+      <c r="E693" t="n">
+        <v>81.83999633789062</v>
+      </c>
+      <c r="F693" t="n">
+        <v>290.5</v>
+      </c>
+      <c r="G693" t="n">
+        <v>1123.650024414062</v>
+      </c>
+      <c r="H693" t="n">
+        <v>30238.56976318359</v>
+      </c>
+      <c r="I693" t="n">
+        <v>-0.009945553914831306</v>
+      </c>
+      <c r="J693" t="n">
+        <v>432.1654008660258</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C694" t="n">
+        <v>2031.300048828125</v>
+      </c>
+      <c r="D694" t="n">
+        <v>761.75</v>
+      </c>
+      <c r="E694" t="n">
+        <v>81.08999633789062</v>
+      </c>
+      <c r="F694" t="n">
+        <v>293.4500122070312</v>
+      </c>
+      <c r="G694" t="n">
+        <v>1130.25</v>
+      </c>
+      <c r="H694" t="n">
+        <v>30174.3701171875</v>
+      </c>
+      <c r="I694" t="n">
+        <v>-0.002123104581297322</v>
+      </c>
+      <c r="J694" t="n">
+        <v>431.247868523569</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J694"/>
+  <dimension ref="A1:J714"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="E605" sqref="E605"/>
@@ -22033,6 +22033,626 @@
         <v>431.247868523569</v>
       </c>
     </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C695" t="n">
+        <v>1885.400024414062</v>
+      </c>
+      <c r="D695" t="n">
+        <v>683.5999755859375</v>
+      </c>
+      <c r="E695" t="n">
+        <v>73.80999755859375</v>
+      </c>
+      <c r="F695" t="n">
+        <v>296.8999938964844</v>
+      </c>
+      <c r="G695" t="n">
+        <v>1303.849975585938</v>
+      </c>
+      <c r="H695" t="n">
+        <v>28487.57955932617</v>
+      </c>
+      <c r="I695" t="n">
+        <v>0</v>
+      </c>
+      <c r="J695" t="n">
+        <v>431.247868523569</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C696" t="n">
+        <v>1901.949951171875</v>
+      </c>
+      <c r="D696" t="n">
+        <v>689.4000244140625</v>
+      </c>
+      <c r="E696" t="n">
+        <v>74.47000122070312</v>
+      </c>
+      <c r="F696" t="n">
+        <v>297.1499938964844</v>
+      </c>
+      <c r="G696" t="n">
+        <v>1320.25</v>
+      </c>
+      <c r="H696" t="n">
+        <v>28715.86001586914</v>
+      </c>
+      <c r="I696" t="n">
+        <v>0.008013332830455756</v>
+      </c>
+      <c r="J696" t="n">
+        <v>434.703601226473</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C697" t="n">
+        <v>1901.300048828125</v>
+      </c>
+      <c r="D697" t="n">
+        <v>688.9500122070312</v>
+      </c>
+      <c r="E697" t="n">
+        <v>74.16000366210938</v>
+      </c>
+      <c r="F697" t="n">
+        <v>298.9500122070312</v>
+      </c>
+      <c r="G697" t="n">
+        <v>1327.099975585938</v>
+      </c>
+      <c r="H697" t="n">
+        <v>28721.03076171875</v>
+      </c>
+      <c r="I697" t="n">
+        <v>0.0001800658537390795</v>
+      </c>
+      <c r="J697" t="n">
+        <v>434.7818765015512</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C698" t="n">
+        <v>1879.449951171875</v>
+      </c>
+      <c r="D698" t="n">
+        <v>687.5</v>
+      </c>
+      <c r="E698" t="n">
+        <v>76</v>
+      </c>
+      <c r="F698" t="n">
+        <v>290.6000061035156</v>
+      </c>
+      <c r="G698" t="n">
+        <v>1312.349975585938</v>
+      </c>
+      <c r="H698" t="n">
+        <v>28602.74978637695</v>
+      </c>
+      <c r="I698" t="n">
+        <v>-0.004118270556621158</v>
+      </c>
+      <c r="J698" t="n">
+        <v>432.9913271010024</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C699" t="n">
+        <v>1872.349975585938</v>
+      </c>
+      <c r="D699" t="n">
+        <v>673.5499877929688</v>
+      </c>
+      <c r="E699" t="n">
+        <v>74.72000122070312</v>
+      </c>
+      <c r="F699" t="n">
+        <v>283.6000061035156</v>
+      </c>
+      <c r="G699" t="n">
+        <v>1289.699951171875</v>
+      </c>
+      <c r="H699" t="n">
+        <v>28191.60983276367</v>
+      </c>
+      <c r="I699" t="n">
+        <v>-0.01437414083205038</v>
+      </c>
+      <c r="J699" t="n">
+        <v>426.7674487861962</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C700" t="n">
+        <v>1892.400024414062</v>
+      </c>
+      <c r="D700" t="n">
+        <v>664.1500244140625</v>
+      </c>
+      <c r="E700" t="n">
+        <v>74.33999633789062</v>
+      </c>
+      <c r="F700" t="n">
+        <v>281.5499877929688</v>
+      </c>
+      <c r="G700" t="n">
+        <v>1237.150024414062</v>
+      </c>
+      <c r="H700" t="n">
+        <v>28036.46997070312</v>
+      </c>
+      <c r="I700" t="n">
+        <v>-0.005503050836077006</v>
+      </c>
+      <c r="J700" t="n">
+        <v>424.4189258203428</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C701" t="n">
+        <v>1922.449951171875</v>
+      </c>
+      <c r="D701" t="n">
+        <v>664.5999755859375</v>
+      </c>
+      <c r="E701" t="n">
+        <v>78.05000305175781</v>
+      </c>
+      <c r="F701" t="n">
+        <v>285.75</v>
+      </c>
+      <c r="G701" t="n">
+        <v>1250.300048828125</v>
+      </c>
+      <c r="H701" t="n">
+        <v>28561.49984741211</v>
+      </c>
+      <c r="I701" t="n">
+        <v>0.01872667555001102</v>
+      </c>
+      <c r="J701" t="n">
+        <v>432.3668813414646</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C702" t="n">
+        <v>1957.599975585938</v>
+      </c>
+      <c r="D702" t="n">
+        <v>689.75</v>
+      </c>
+      <c r="E702" t="n">
+        <v>81.94999694824219</v>
+      </c>
+      <c r="F702" t="n">
+        <v>288.0499877929688</v>
+      </c>
+      <c r="G702" t="n">
+        <v>1237.699951171875</v>
+      </c>
+      <c r="H702" t="n">
+        <v>29297.64938354492</v>
+      </c>
+      <c r="I702" t="n">
+        <v>0.0257741904334731</v>
+      </c>
+      <c r="J702" t="n">
+        <v>443.5107876782864</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C703" t="n">
+        <v>1996.400024414062</v>
+      </c>
+      <c r="D703" t="n">
+        <v>729.1500244140625</v>
+      </c>
+      <c r="E703" t="n">
+        <v>81.69999694824219</v>
+      </c>
+      <c r="F703" t="n">
+        <v>291.7000122070312</v>
+      </c>
+      <c r="G703" t="n">
+        <v>1237.300048828125</v>
+      </c>
+      <c r="H703" t="n">
+        <v>29912.80038452148</v>
+      </c>
+      <c r="I703" t="n">
+        <v>0.02099659917843318</v>
+      </c>
+      <c r="J703" t="n">
+        <v>452.8230059184785</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C704" t="n">
+        <v>1988.050048828125</v>
+      </c>
+      <c r="D704" t="n">
+        <v>713.7000122070312</v>
+      </c>
+      <c r="E704" t="n">
+        <v>83.11000061035156</v>
+      </c>
+      <c r="F704" t="n">
+        <v>289.9500122070312</v>
+      </c>
+      <c r="G704" t="n">
+        <v>1241.5</v>
+      </c>
+      <c r="H704" t="n">
+        <v>29812.18057250977</v>
+      </c>
+      <c r="I704" t="n">
+        <v>-0.003363771051799782</v>
+      </c>
+      <c r="J704" t="n">
+        <v>451.299812999581</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C705" t="n">
+        <v>1989.900024414062</v>
+      </c>
+      <c r="D705" t="n">
+        <v>714.2000122070312</v>
+      </c>
+      <c r="E705" t="n">
+        <v>84.69999694824219</v>
+      </c>
+      <c r="F705" t="n">
+        <v>290.3999938964844</v>
+      </c>
+      <c r="G705" t="n">
+        <v>1226.599975585938</v>
+      </c>
+      <c r="H705" t="n">
+        <v>29926.49987792969</v>
+      </c>
+      <c r="I705" t="n">
+        <v>0.003834650911961043</v>
+      </c>
+      <c r="J705" t="n">
+        <v>453.0303902390677</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C706" t="n">
+        <v>2006.550048828125</v>
+      </c>
+      <c r="D706" t="n">
+        <v>731.0999755859375</v>
+      </c>
+      <c r="E706" t="n">
+        <v>82</v>
+      </c>
+      <c r="F706" t="n">
+        <v>284.2999877929688</v>
+      </c>
+      <c r="G706" t="n">
+        <v>1193.800048828125</v>
+      </c>
+      <c r="H706" t="n">
+        <v>29823.24993896484</v>
+      </c>
+      <c r="I706" t="n">
+        <v>-0.003450117433913109</v>
+      </c>
+      <c r="J706" t="n">
+        <v>451.4673821916115</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C707" t="n">
+        <v>1987.800048828125</v>
+      </c>
+      <c r="D707" t="n">
+        <v>743.25</v>
+      </c>
+      <c r="E707" t="n">
+        <v>80.81999969482422</v>
+      </c>
+      <c r="F707" t="n">
+        <v>282.8500061035156</v>
+      </c>
+      <c r="G707" t="n">
+        <v>1166.400024414062</v>
+      </c>
+      <c r="H707" t="n">
+        <v>29685.31034851074</v>
+      </c>
+      <c r="I707" t="n">
+        <v>-0.004625236710834788</v>
+      </c>
+      <c r="J707" t="n">
+        <v>449.3792386817544</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C708" t="n">
+        <v>1998.599975585938</v>
+      </c>
+      <c r="D708" t="n">
+        <v>735.9500122070312</v>
+      </c>
+      <c r="E708" t="n">
+        <v>80.97000122070312</v>
+      </c>
+      <c r="F708" t="n">
+        <v>272.7000122070312</v>
+      </c>
+      <c r="G708" t="n">
+        <v>1121.300048828125</v>
+      </c>
+      <c r="H708" t="n">
+        <v>29455.8603515625</v>
+      </c>
+      <c r="I708" t="n">
+        <v>-0.0077294120982553</v>
+      </c>
+      <c r="J708" t="n">
+        <v>445.9058013575828</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C709" t="n">
+        <v>2048.10009765625</v>
+      </c>
+      <c r="D709" t="n">
+        <v>746.5</v>
+      </c>
+      <c r="E709" t="n">
+        <v>83.44999694824219</v>
+      </c>
+      <c r="F709" t="n">
+        <v>277.3500061035156</v>
+      </c>
+      <c r="G709" t="n">
+        <v>1149.400024414062</v>
+      </c>
+      <c r="H709" t="n">
+        <v>30118.95037841797</v>
+      </c>
+      <c r="I709" t="n">
+        <v>0.02251131078642199</v>
+      </c>
+      <c r="J709" t="n">
+        <v>455.943725433412</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C710" t="n">
+        <v>2082.39990234375</v>
+      </c>
+      <c r="D710" t="n">
+        <v>773.9500122070312</v>
+      </c>
+      <c r="E710" t="n">
+        <v>82.88999938964844</v>
+      </c>
+      <c r="F710" t="n">
+        <v>286.2999877929688</v>
+      </c>
+      <c r="G710" t="n">
+        <v>1162.75</v>
+      </c>
+      <c r="H710" t="n">
+        <v>30664.31942749023</v>
+      </c>
+      <c r="I710" t="n">
+        <v>0.01810717313253569</v>
+      </c>
+      <c r="J710" t="n">
+        <v>464.1995774085281</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C711" t="n">
+        <v>2068.14990234375</v>
+      </c>
+      <c r="D711" t="n">
+        <v>781.8499755859375</v>
+      </c>
+      <c r="E711" t="n">
+        <v>83.79000091552734</v>
+      </c>
+      <c r="F711" t="n">
+        <v>291.7999877929688</v>
+      </c>
+      <c r="G711" t="n">
+        <v>1141.199951171875</v>
+      </c>
+      <c r="H711" t="n">
+        <v>30770.6690826416</v>
+      </c>
+      <c r="I711" t="n">
+        <v>0.003468188994144963</v>
+      </c>
+      <c r="J711" t="n">
+        <v>465.8095092739832</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C712" t="n">
+        <v>2061.60009765625</v>
+      </c>
+      <c r="D712" t="n">
+        <v>775.8499755859375</v>
+      </c>
+      <c r="E712" t="n">
+        <v>82.95999908447266</v>
+      </c>
+      <c r="F712" t="n">
+        <v>289.8500061035156</v>
+      </c>
+      <c r="G712" t="n">
+        <v>1118.449951171875</v>
+      </c>
+      <c r="H712" t="n">
+        <v>30542.33015441895</v>
+      </c>
+      <c r="I712" t="n">
+        <v>-0.007420668286718119</v>
+      </c>
+      <c r="J712" t="n">
+        <v>462.352891420862</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C713" t="n">
+        <v>2022.050048828125</v>
+      </c>
+      <c r="D713" t="n">
+        <v>772.0999755859375</v>
+      </c>
+      <c r="E713" t="n">
+        <v>81.83999633789062</v>
+      </c>
+      <c r="F713" t="n">
+        <v>290.5</v>
+      </c>
+      <c r="G713" t="n">
+        <v>1123.650024414062</v>
+      </c>
+      <c r="H713" t="n">
+        <v>30238.56976318359</v>
+      </c>
+      <c r="I713" t="n">
+        <v>-0.009945553914831306</v>
+      </c>
+      <c r="J713" t="n">
+        <v>457.7545358115576</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C714" t="n">
+        <v>2031.300048828125</v>
+      </c>
+      <c r="D714" t="n">
+        <v>761.75</v>
+      </c>
+      <c r="E714" t="n">
+        <v>81.08999633789062</v>
+      </c>
+      <c r="F714" t="n">
+        <v>293.4500122070312</v>
+      </c>
+      <c r="G714" t="n">
+        <v>1130.25</v>
+      </c>
+      <c r="H714" t="n">
+        <v>30174.3701171875</v>
+      </c>
+      <c r="I714" t="n">
+        <v>-0.002123104581297322</v>
+      </c>
+      <c r="J714" t="n">
+        <v>456.7826750594665</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J714"/>
+  <dimension ref="A1:J734"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="E605" sqref="E605"/>
@@ -22653,6 +22653,626 @@
         <v>456.7826750594665</v>
       </c>
     </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C715" t="n">
+        <v>1885.400024414062</v>
+      </c>
+      <c r="D715" t="n">
+        <v>683.5999755859375</v>
+      </c>
+      <c r="E715" t="n">
+        <v>73.80999755859375</v>
+      </c>
+      <c r="F715" t="n">
+        <v>296.8999938964844</v>
+      </c>
+      <c r="G715" t="n">
+        <v>1303.849975585938</v>
+      </c>
+      <c r="H715" t="n">
+        <v>28487.57955932617</v>
+      </c>
+      <c r="I715" t="n">
+        <v>0</v>
+      </c>
+      <c r="J715" t="n">
+        <v>456.7826750594665</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C716" t="n">
+        <v>1901.949951171875</v>
+      </c>
+      <c r="D716" t="n">
+        <v>689.4000244140625</v>
+      </c>
+      <c r="E716" t="n">
+        <v>74.47000122070312</v>
+      </c>
+      <c r="F716" t="n">
+        <v>297.1499938964844</v>
+      </c>
+      <c r="G716" t="n">
+        <v>1320.25</v>
+      </c>
+      <c r="H716" t="n">
+        <v>28715.86001586914</v>
+      </c>
+      <c r="I716" t="n">
+        <v>0.008013332830455756</v>
+      </c>
+      <c r="J716" t="n">
+        <v>460.4430266659039</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C717" t="n">
+        <v>1901.300048828125</v>
+      </c>
+      <c r="D717" t="n">
+        <v>688.9500122070312</v>
+      </c>
+      <c r="E717" t="n">
+        <v>74.16000366210938</v>
+      </c>
+      <c r="F717" t="n">
+        <v>298.9500122070312</v>
+      </c>
+      <c r="G717" t="n">
+        <v>1327.099975585938</v>
+      </c>
+      <c r="H717" t="n">
+        <v>28721.03076171875</v>
+      </c>
+      <c r="I717" t="n">
+        <v>0.0001800658537390795</v>
+      </c>
+      <c r="J717" t="n">
+        <v>460.5259367325987</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C718" t="n">
+        <v>1879.449951171875</v>
+      </c>
+      <c r="D718" t="n">
+        <v>687.5</v>
+      </c>
+      <c r="E718" t="n">
+        <v>76</v>
+      </c>
+      <c r="F718" t="n">
+        <v>290.6000061035156</v>
+      </c>
+      <c r="G718" t="n">
+        <v>1312.349975585938</v>
+      </c>
+      <c r="H718" t="n">
+        <v>28602.74978637695</v>
+      </c>
+      <c r="I718" t="n">
+        <v>-0.004118270556621158</v>
+      </c>
+      <c r="J718" t="n">
+        <v>458.6293663267924</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C719" t="n">
+        <v>1872.349975585938</v>
+      </c>
+      <c r="D719" t="n">
+        <v>673.5499877929688</v>
+      </c>
+      <c r="E719" t="n">
+        <v>74.72000122070312</v>
+      </c>
+      <c r="F719" t="n">
+        <v>283.6000061035156</v>
+      </c>
+      <c r="G719" t="n">
+        <v>1289.699951171875</v>
+      </c>
+      <c r="H719" t="n">
+        <v>28191.60983276367</v>
+      </c>
+      <c r="I719" t="n">
+        <v>-0.01437414083205038</v>
+      </c>
+      <c r="J719" t="n">
+        <v>452.0369632254971</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C720" t="n">
+        <v>1892.400024414062</v>
+      </c>
+      <c r="D720" t="n">
+        <v>664.1500244140625</v>
+      </c>
+      <c r="E720" t="n">
+        <v>74.33999633789062</v>
+      </c>
+      <c r="F720" t="n">
+        <v>281.5499877929688</v>
+      </c>
+      <c r="G720" t="n">
+        <v>1237.150024414062</v>
+      </c>
+      <c r="H720" t="n">
+        <v>28036.46997070312</v>
+      </c>
+      <c r="I720" t="n">
+        <v>-0.005503050836077006</v>
+      </c>
+      <c r="J720" t="n">
+        <v>449.5493808370813</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C721" t="n">
+        <v>1922.449951171875</v>
+      </c>
+      <c r="D721" t="n">
+        <v>664.5999755859375</v>
+      </c>
+      <c r="E721" t="n">
+        <v>78.05000305175781</v>
+      </c>
+      <c r="F721" t="n">
+        <v>285.75</v>
+      </c>
+      <c r="G721" t="n">
+        <v>1250.300048828125</v>
+      </c>
+      <c r="H721" t="n">
+        <v>28561.49984741211</v>
+      </c>
+      <c r="I721" t="n">
+        <v>0.01872667555001102</v>
+      </c>
+      <c r="J721" t="n">
+        <v>457.9679462357257</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C722" t="n">
+        <v>1957.599975585938</v>
+      </c>
+      <c r="D722" t="n">
+        <v>689.75</v>
+      </c>
+      <c r="E722" t="n">
+        <v>81.94999694824219</v>
+      </c>
+      <c r="F722" t="n">
+        <v>288.0499877929688</v>
+      </c>
+      <c r="G722" t="n">
+        <v>1237.699951171875</v>
+      </c>
+      <c r="H722" t="n">
+        <v>29297.64938354492</v>
+      </c>
+      <c r="I722" t="n">
+        <v>0.0257741904334731</v>
+      </c>
+      <c r="J722" t="n">
+        <v>469.7716992944319</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C723" t="n">
+        <v>1996.400024414062</v>
+      </c>
+      <c r="D723" t="n">
+        <v>729.1500244140625</v>
+      </c>
+      <c r="E723" t="n">
+        <v>81.69999694824219</v>
+      </c>
+      <c r="F723" t="n">
+        <v>291.7000122070312</v>
+      </c>
+      <c r="G723" t="n">
+        <v>1237.300048828125</v>
+      </c>
+      <c r="H723" t="n">
+        <v>29912.80038452148</v>
+      </c>
+      <c r="I723" t="n">
+        <v>0.02099659917843318</v>
+      </c>
+      <c r="J723" t="n">
+        <v>479.6353073698884</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C724" t="n">
+        <v>1988.050048828125</v>
+      </c>
+      <c r="D724" t="n">
+        <v>713.7000122070312</v>
+      </c>
+      <c r="E724" t="n">
+        <v>83.11000061035156</v>
+      </c>
+      <c r="F724" t="n">
+        <v>289.9500122070312</v>
+      </c>
+      <c r="G724" t="n">
+        <v>1241.5</v>
+      </c>
+      <c r="H724" t="n">
+        <v>29812.18057250977</v>
+      </c>
+      <c r="I724" t="n">
+        <v>-0.003363771051799782</v>
+      </c>
+      <c r="J724" t="n">
+        <v>478.0219240075365</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C725" t="n">
+        <v>1989.900024414062</v>
+      </c>
+      <c r="D725" t="n">
+        <v>714.2000122070312</v>
+      </c>
+      <c r="E725" t="n">
+        <v>84.69999694824219</v>
+      </c>
+      <c r="F725" t="n">
+        <v>290.3999938964844</v>
+      </c>
+      <c r="G725" t="n">
+        <v>1226.599975585938</v>
+      </c>
+      <c r="H725" t="n">
+        <v>29926.49987792969</v>
+      </c>
+      <c r="I725" t="n">
+        <v>0.003834650911961043</v>
+      </c>
+      <c r="J725" t="n">
+        <v>479.8549712143695</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C726" t="n">
+        <v>2006.550048828125</v>
+      </c>
+      <c r="D726" t="n">
+        <v>731.0999755859375</v>
+      </c>
+      <c r="E726" t="n">
+        <v>82</v>
+      </c>
+      <c r="F726" t="n">
+        <v>284.2999877929688</v>
+      </c>
+      <c r="G726" t="n">
+        <v>1193.800048828125</v>
+      </c>
+      <c r="H726" t="n">
+        <v>29823.24993896484</v>
+      </c>
+      <c r="I726" t="n">
+        <v>-0.003450117433913109</v>
+      </c>
+      <c r="J726" t="n">
+        <v>478.1994152124329</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C727" t="n">
+        <v>1987.800048828125</v>
+      </c>
+      <c r="D727" t="n">
+        <v>743.25</v>
+      </c>
+      <c r="E727" t="n">
+        <v>80.81999969482422</v>
+      </c>
+      <c r="F727" t="n">
+        <v>282.8500061035156</v>
+      </c>
+      <c r="G727" t="n">
+        <v>1166.400024414062</v>
+      </c>
+      <c r="H727" t="n">
+        <v>29685.31034851074</v>
+      </c>
+      <c r="I727" t="n">
+        <v>-0.004625236710834788</v>
+      </c>
+      <c r="J727" t="n">
+        <v>475.9876297220926</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C728" t="n">
+        <v>1998.599975585938</v>
+      </c>
+      <c r="D728" t="n">
+        <v>735.9500122070312</v>
+      </c>
+      <c r="E728" t="n">
+        <v>80.97000122070312</v>
+      </c>
+      <c r="F728" t="n">
+        <v>272.7000122070312</v>
+      </c>
+      <c r="G728" t="n">
+        <v>1121.300048828125</v>
+      </c>
+      <c r="H728" t="n">
+        <v>29455.8603515625</v>
+      </c>
+      <c r="I728" t="n">
+        <v>-0.0077294120982553</v>
+      </c>
+      <c r="J728" t="n">
+        <v>472.3085251782988</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C729" t="n">
+        <v>2048.10009765625</v>
+      </c>
+      <c r="D729" t="n">
+        <v>746.5</v>
+      </c>
+      <c r="E729" t="n">
+        <v>83.44999694824219</v>
+      </c>
+      <c r="F729" t="n">
+        <v>277.3500061035156</v>
+      </c>
+      <c r="G729" t="n">
+        <v>1149.400024414062</v>
+      </c>
+      <c r="H729" t="n">
+        <v>30118.95037841797</v>
+      </c>
+      <c r="I729" t="n">
+        <v>0.02251131078642199</v>
+      </c>
+      <c r="J729" t="n">
+        <v>482.9408091756641</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C730" t="n">
+        <v>2082.39990234375</v>
+      </c>
+      <c r="D730" t="n">
+        <v>773.9500122070312</v>
+      </c>
+      <c r="E730" t="n">
+        <v>82.88999938964844</v>
+      </c>
+      <c r="F730" t="n">
+        <v>286.2999877929688</v>
+      </c>
+      <c r="G730" t="n">
+        <v>1162.75</v>
+      </c>
+      <c r="H730" t="n">
+        <v>30664.31942749023</v>
+      </c>
+      <c r="I730" t="n">
+        <v>0.01810717313253569</v>
+      </c>
+      <c r="J730" t="n">
+        <v>491.6855020201748</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C731" t="n">
+        <v>2068.14990234375</v>
+      </c>
+      <c r="D731" t="n">
+        <v>781.8499755859375</v>
+      </c>
+      <c r="E731" t="n">
+        <v>83.79000091552734</v>
+      </c>
+      <c r="F731" t="n">
+        <v>291.7999877929688</v>
+      </c>
+      <c r="G731" t="n">
+        <v>1141.199951171875</v>
+      </c>
+      <c r="H731" t="n">
+        <v>30770.6690826416</v>
+      </c>
+      <c r="I731" t="n">
+        <v>0.003468188994144963</v>
+      </c>
+      <c r="J731" t="n">
+        <v>493.3907602668618</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C732" t="n">
+        <v>2061.60009765625</v>
+      </c>
+      <c r="D732" t="n">
+        <v>775.8499755859375</v>
+      </c>
+      <c r="E732" t="n">
+        <v>82.95999908447266</v>
+      </c>
+      <c r="F732" t="n">
+        <v>289.8500061035156</v>
+      </c>
+      <c r="G732" t="n">
+        <v>1118.449951171875</v>
+      </c>
+      <c r="H732" t="n">
+        <v>30542.33015441895</v>
+      </c>
+      <c r="I732" t="n">
+        <v>-0.007420668286718119</v>
+      </c>
+      <c r="J732" t="n">
+        <v>489.7294710991898</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C733" t="n">
+        <v>2022.050048828125</v>
+      </c>
+      <c r="D733" t="n">
+        <v>772.0999755859375</v>
+      </c>
+      <c r="E733" t="n">
+        <v>81.83999633789062</v>
+      </c>
+      <c r="F733" t="n">
+        <v>290.5</v>
+      </c>
+      <c r="G733" t="n">
+        <v>1123.650024414062</v>
+      </c>
+      <c r="H733" t="n">
+        <v>30238.56976318359</v>
+      </c>
+      <c r="I733" t="n">
+        <v>-0.009945553914831306</v>
+      </c>
+      <c r="J733" t="n">
+        <v>484.8588402406909</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C734" t="n">
+        <v>2031.300048828125</v>
+      </c>
+      <c r="D734" t="n">
+        <v>761.75</v>
+      </c>
+      <c r="E734" t="n">
+        <v>81.08999633789062</v>
+      </c>
+      <c r="F734" t="n">
+        <v>293.4500122070312</v>
+      </c>
+      <c r="G734" t="n">
+        <v>1130.25</v>
+      </c>
+      <c r="H734" t="n">
+        <v>30174.3701171875</v>
+      </c>
+      <c r="I734" t="n">
+        <v>-0.002123104581297322</v>
+      </c>
+      <c r="J734" t="n">
+        <v>483.8294342156934</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J734"/>
+  <dimension ref="A1:J754"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="E605" sqref="E605"/>
@@ -23273,6 +23273,626 @@
         <v>483.8294342156934</v>
       </c>
     </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C735" t="n">
+        <v>1885.400024414062</v>
+      </c>
+      <c r="D735" t="n">
+        <v>683.5999755859375</v>
+      </c>
+      <c r="E735" t="n">
+        <v>73.80999755859375</v>
+      </c>
+      <c r="F735" t="n">
+        <v>296.8999938964844</v>
+      </c>
+      <c r="G735" t="n">
+        <v>1303.849975585938</v>
+      </c>
+      <c r="H735" t="n">
+        <v>28487.57955932617</v>
+      </c>
+      <c r="I735" t="n">
+        <v>0</v>
+      </c>
+      <c r="J735" t="n">
+        <v>483.8294342156934</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C736" t="n">
+        <v>1901.949951171875</v>
+      </c>
+      <c r="D736" t="n">
+        <v>689.4000244140625</v>
+      </c>
+      <c r="E736" t="n">
+        <v>74.47000122070312</v>
+      </c>
+      <c r="F736" t="n">
+        <v>297.1499938964844</v>
+      </c>
+      <c r="G736" t="n">
+        <v>1320.25</v>
+      </c>
+      <c r="H736" t="n">
+        <v>28715.86001586914</v>
+      </c>
+      <c r="I736" t="n">
+        <v>0.008013332830455756</v>
+      </c>
+      <c r="J736" t="n">
+        <v>487.7065205052348</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C737" t="n">
+        <v>1901.300048828125</v>
+      </c>
+      <c r="D737" t="n">
+        <v>688.9500122070312</v>
+      </c>
+      <c r="E737" t="n">
+        <v>74.16000366210938</v>
+      </c>
+      <c r="F737" t="n">
+        <v>298.9500122070312</v>
+      </c>
+      <c r="G737" t="n">
+        <v>1327.099975585938</v>
+      </c>
+      <c r="H737" t="n">
+        <v>28721.03076171875</v>
+      </c>
+      <c r="I737" t="n">
+        <v>0.0001800658537390795</v>
+      </c>
+      <c r="J737" t="n">
+        <v>487.7943397962237</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C738" t="n">
+        <v>1879.449951171875</v>
+      </c>
+      <c r="D738" t="n">
+        <v>687.5</v>
+      </c>
+      <c r="E738" t="n">
+        <v>76</v>
+      </c>
+      <c r="F738" t="n">
+        <v>290.6000061035156</v>
+      </c>
+      <c r="G738" t="n">
+        <v>1312.349975585938</v>
+      </c>
+      <c r="H738" t="n">
+        <v>28602.74978637695</v>
+      </c>
+      <c r="I738" t="n">
+        <v>-0.004118270556621158</v>
+      </c>
+      <c r="J738" t="n">
+        <v>485.7854707289544</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C739" t="n">
+        <v>1872.349975585938</v>
+      </c>
+      <c r="D739" t="n">
+        <v>673.5499877929688</v>
+      </c>
+      <c r="E739" t="n">
+        <v>74.72000122070312</v>
+      </c>
+      <c r="F739" t="n">
+        <v>283.6000061035156</v>
+      </c>
+      <c r="G739" t="n">
+        <v>1289.699951171875</v>
+      </c>
+      <c r="H739" t="n">
+        <v>28191.60983276367</v>
+      </c>
+      <c r="I739" t="n">
+        <v>-0.01437414083205038</v>
+      </c>
+      <c r="J739" t="n">
+        <v>478.8027219585325</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C740" t="n">
+        <v>1892.400024414062</v>
+      </c>
+      <c r="D740" t="n">
+        <v>664.1500244140625</v>
+      </c>
+      <c r="E740" t="n">
+        <v>74.33999633789062</v>
+      </c>
+      <c r="F740" t="n">
+        <v>281.5499877929688</v>
+      </c>
+      <c r="G740" t="n">
+        <v>1237.150024414062</v>
+      </c>
+      <c r="H740" t="n">
+        <v>28036.46997070312</v>
+      </c>
+      <c r="I740" t="n">
+        <v>-0.005503050836077006</v>
+      </c>
+      <c r="J740" t="n">
+        <v>476.1678462391426</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C741" t="n">
+        <v>1922.449951171875</v>
+      </c>
+      <c r="D741" t="n">
+        <v>664.5999755859375</v>
+      </c>
+      <c r="E741" t="n">
+        <v>78.05000305175781</v>
+      </c>
+      <c r="F741" t="n">
+        <v>285.75</v>
+      </c>
+      <c r="G741" t="n">
+        <v>1250.300048828125</v>
+      </c>
+      <c r="H741" t="n">
+        <v>28561.49984741211</v>
+      </c>
+      <c r="I741" t="n">
+        <v>0.01872667555001102</v>
+      </c>
+      <c r="J741" t="n">
+        <v>485.0848870030106</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C742" t="n">
+        <v>1957.599975585938</v>
+      </c>
+      <c r="D742" t="n">
+        <v>689.75</v>
+      </c>
+      <c r="E742" t="n">
+        <v>81.94999694824219</v>
+      </c>
+      <c r="F742" t="n">
+        <v>288.0499877929688</v>
+      </c>
+      <c r="G742" t="n">
+        <v>1237.699951171875</v>
+      </c>
+      <c r="H742" t="n">
+        <v>29297.64938354492</v>
+      </c>
+      <c r="I742" t="n">
+        <v>0.0257741904334731</v>
+      </c>
+      <c r="J742" t="n">
+        <v>497.587557257026</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C743" t="n">
+        <v>1996.400024414062</v>
+      </c>
+      <c r="D743" t="n">
+        <v>729.1500244140625</v>
+      </c>
+      <c r="E743" t="n">
+        <v>81.69999694824219</v>
+      </c>
+      <c r="F743" t="n">
+        <v>291.7000122070312</v>
+      </c>
+      <c r="G743" t="n">
+        <v>1237.300048828125</v>
+      </c>
+      <c r="H743" t="n">
+        <v>29912.80038452148</v>
+      </c>
+      <c r="I743" t="n">
+        <v>0.02099659917843318</v>
+      </c>
+      <c r="J743" t="n">
+        <v>508.0352037529274</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C744" t="n">
+        <v>1988.050048828125</v>
+      </c>
+      <c r="D744" t="n">
+        <v>713.7000122070312</v>
+      </c>
+      <c r="E744" t="n">
+        <v>83.11000061035156</v>
+      </c>
+      <c r="F744" t="n">
+        <v>289.9500122070312</v>
+      </c>
+      <c r="G744" t="n">
+        <v>1241.5</v>
+      </c>
+      <c r="H744" t="n">
+        <v>29812.18057250977</v>
+      </c>
+      <c r="I744" t="n">
+        <v>-0.003363771051799782</v>
+      </c>
+      <c r="J744" t="n">
+        <v>506.3262896412481</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C745" t="n">
+        <v>1989.900024414062</v>
+      </c>
+      <c r="D745" t="n">
+        <v>714.2000122070312</v>
+      </c>
+      <c r="E745" t="n">
+        <v>84.69999694824219</v>
+      </c>
+      <c r="F745" t="n">
+        <v>290.3999938964844</v>
+      </c>
+      <c r="G745" t="n">
+        <v>1226.599975585938</v>
+      </c>
+      <c r="H745" t="n">
+        <v>29926.49987792969</v>
+      </c>
+      <c r="I745" t="n">
+        <v>0.003834650911961043</v>
+      </c>
+      <c r="J745" t="n">
+        <v>508.2678742095708</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C746" t="n">
+        <v>2006.550048828125</v>
+      </c>
+      <c r="D746" t="n">
+        <v>731.0999755859375</v>
+      </c>
+      <c r="E746" t="n">
+        <v>82</v>
+      </c>
+      <c r="F746" t="n">
+        <v>284.2999877929688</v>
+      </c>
+      <c r="G746" t="n">
+        <v>1193.800048828125</v>
+      </c>
+      <c r="H746" t="n">
+        <v>29823.24993896484</v>
+      </c>
+      <c r="I746" t="n">
+        <v>-0.003450117433913109</v>
+      </c>
+      <c r="J746" t="n">
+        <v>506.5142903556625</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C747" t="n">
+        <v>1987.800048828125</v>
+      </c>
+      <c r="D747" t="n">
+        <v>743.25</v>
+      </c>
+      <c r="E747" t="n">
+        <v>80.81999969482422</v>
+      </c>
+      <c r="F747" t="n">
+        <v>282.8500061035156</v>
+      </c>
+      <c r="G747" t="n">
+        <v>1166.400024414062</v>
+      </c>
+      <c r="H747" t="n">
+        <v>29685.31034851074</v>
+      </c>
+      <c r="I747" t="n">
+        <v>-0.004625236710834788</v>
+      </c>
+      <c r="J747" t="n">
+        <v>504.171541865347</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C748" t="n">
+        <v>1998.599975585938</v>
+      </c>
+      <c r="D748" t="n">
+        <v>735.9500122070312</v>
+      </c>
+      <c r="E748" t="n">
+        <v>80.97000122070312</v>
+      </c>
+      <c r="F748" t="n">
+        <v>272.7000122070312</v>
+      </c>
+      <c r="G748" t="n">
+        <v>1121.300048828125</v>
+      </c>
+      <c r="H748" t="n">
+        <v>29455.8603515625</v>
+      </c>
+      <c r="I748" t="n">
+        <v>-0.0077294120982553</v>
+      </c>
+      <c r="J748" t="n">
+        <v>500.274592250057</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C749" t="n">
+        <v>2048.10009765625</v>
+      </c>
+      <c r="D749" t="n">
+        <v>746.5</v>
+      </c>
+      <c r="E749" t="n">
+        <v>83.44999694824219</v>
+      </c>
+      <c r="F749" t="n">
+        <v>277.3500061035156</v>
+      </c>
+      <c r="G749" t="n">
+        <v>1149.400024414062</v>
+      </c>
+      <c r="H749" t="n">
+        <v>30118.95037841797</v>
+      </c>
+      <c r="I749" t="n">
+        <v>0.02251131078642199</v>
+      </c>
+      <c r="J749" t="n">
+        <v>511.5364290747486</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C750" t="n">
+        <v>2082.39990234375</v>
+      </c>
+      <c r="D750" t="n">
+        <v>773.9500122070312</v>
+      </c>
+      <c r="E750" t="n">
+        <v>82.88999938964844</v>
+      </c>
+      <c r="F750" t="n">
+        <v>286.2999877929688</v>
+      </c>
+      <c r="G750" t="n">
+        <v>1162.75</v>
+      </c>
+      <c r="H750" t="n">
+        <v>30664.31942749023</v>
+      </c>
+      <c r="I750" t="n">
+        <v>0.01810717313253569</v>
+      </c>
+      <c r="J750" t="n">
+        <v>520.7989077596042</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C751" t="n">
+        <v>2068.14990234375</v>
+      </c>
+      <c r="D751" t="n">
+        <v>781.8499755859375</v>
+      </c>
+      <c r="E751" t="n">
+        <v>83.79000091552734</v>
+      </c>
+      <c r="F751" t="n">
+        <v>291.7999877929688</v>
+      </c>
+      <c r="G751" t="n">
+        <v>1141.199951171875</v>
+      </c>
+      <c r="H751" t="n">
+        <v>30770.6690826416</v>
+      </c>
+      <c r="I751" t="n">
+        <v>0.003468188994144963</v>
+      </c>
+      <c r="J751" t="n">
+        <v>522.6051367996588</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C752" t="n">
+        <v>2061.60009765625</v>
+      </c>
+      <c r="D752" t="n">
+        <v>775.8499755859375</v>
+      </c>
+      <c r="E752" t="n">
+        <v>82.95999908447266</v>
+      </c>
+      <c r="F752" t="n">
+        <v>289.8500061035156</v>
+      </c>
+      <c r="G752" t="n">
+        <v>1118.449951171875</v>
+      </c>
+      <c r="H752" t="n">
+        <v>30542.33015441895</v>
+      </c>
+      <c r="I752" t="n">
+        <v>-0.007420668286718119</v>
+      </c>
+      <c r="J752" t="n">
+        <v>518.7270574345335</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C753" t="n">
+        <v>2022.050048828125</v>
+      </c>
+      <c r="D753" t="n">
+        <v>772.0999755859375</v>
+      </c>
+      <c r="E753" t="n">
+        <v>81.83999633789062</v>
+      </c>
+      <c r="F753" t="n">
+        <v>290.5</v>
+      </c>
+      <c r="G753" t="n">
+        <v>1123.650024414062</v>
+      </c>
+      <c r="H753" t="n">
+        <v>30238.56976318359</v>
+      </c>
+      <c r="I753" t="n">
+        <v>-0.009945553914831306</v>
+      </c>
+      <c r="J753" t="n">
+        <v>513.5680295177366</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C754" t="n">
+        <v>2031.300048828125</v>
+      </c>
+      <c r="D754" t="n">
+        <v>761.75</v>
+      </c>
+      <c r="E754" t="n">
+        <v>81.08999633789062</v>
+      </c>
+      <c r="F754" t="n">
+        <v>293.4500122070312</v>
+      </c>
+      <c r="G754" t="n">
+        <v>1130.25</v>
+      </c>
+      <c r="H754" t="n">
+        <v>30174.3701171875</v>
+      </c>
+      <c r="I754" t="n">
+        <v>-0.002123104581297322</v>
+      </c>
+      <c r="J754" t="n">
+        <v>512.4776708814596</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J754"/>
+  <dimension ref="A1:J774"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="E605" sqref="E605"/>
@@ -23893,6 +23893,626 @@
         <v>512.4776708814596</v>
       </c>
     </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C755" t="n">
+        <v>1885.400024414062</v>
+      </c>
+      <c r="D755" t="n">
+        <v>683.5999755859375</v>
+      </c>
+      <c r="E755" t="n">
+        <v>73.80999755859375</v>
+      </c>
+      <c r="F755" t="n">
+        <v>296.8999938964844</v>
+      </c>
+      <c r="G755" t="n">
+        <v>1303.849975585938</v>
+      </c>
+      <c r="H755" t="n">
+        <v>28487.57955932617</v>
+      </c>
+      <c r="I755" t="n">
+        <v>0</v>
+      </c>
+      <c r="J755" t="n">
+        <v>512.4776708814596</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C756" t="n">
+        <v>1901.949951171875</v>
+      </c>
+      <c r="D756" t="n">
+        <v>689.4000244140625</v>
+      </c>
+      <c r="E756" t="n">
+        <v>74.47000122070312</v>
+      </c>
+      <c r="F756" t="n">
+        <v>297.1499938964844</v>
+      </c>
+      <c r="G756" t="n">
+        <v>1320.25</v>
+      </c>
+      <c r="H756" t="n">
+        <v>28715.86001586914</v>
+      </c>
+      <c r="I756" t="n">
+        <v>0.008013332830455756</v>
+      </c>
+      <c r="J756" t="n">
+        <v>516.5843250264095</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C757" t="n">
+        <v>1901.300048828125</v>
+      </c>
+      <c r="D757" t="n">
+        <v>688.9500122070312</v>
+      </c>
+      <c r="E757" t="n">
+        <v>74.16000366210938</v>
+      </c>
+      <c r="F757" t="n">
+        <v>298.9500122070312</v>
+      </c>
+      <c r="G757" t="n">
+        <v>1327.099975585938</v>
+      </c>
+      <c r="H757" t="n">
+        <v>28721.03076171875</v>
+      </c>
+      <c r="I757" t="n">
+        <v>0.0001800658537390795</v>
+      </c>
+      <c r="J757" t="n">
+        <v>516.6773442239236</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C758" t="n">
+        <v>1879.449951171875</v>
+      </c>
+      <c r="D758" t="n">
+        <v>687.5</v>
+      </c>
+      <c r="E758" t="n">
+        <v>76</v>
+      </c>
+      <c r="F758" t="n">
+        <v>290.6000061035156</v>
+      </c>
+      <c r="G758" t="n">
+        <v>1312.349975585938</v>
+      </c>
+      <c r="H758" t="n">
+        <v>28602.74978637695</v>
+      </c>
+      <c r="I758" t="n">
+        <v>-0.004118270556621158</v>
+      </c>
+      <c r="J758" t="n">
+        <v>514.5495271299329</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C759" t="n">
+        <v>1872.349975585938</v>
+      </c>
+      <c r="D759" t="n">
+        <v>673.5499877929688</v>
+      </c>
+      <c r="E759" t="n">
+        <v>74.72000122070312</v>
+      </c>
+      <c r="F759" t="n">
+        <v>283.6000061035156</v>
+      </c>
+      <c r="G759" t="n">
+        <v>1289.699951171875</v>
+      </c>
+      <c r="H759" t="n">
+        <v>28191.60983276367</v>
+      </c>
+      <c r="I759" t="n">
+        <v>-0.01437414083205038</v>
+      </c>
+      <c r="J759" t="n">
+        <v>507.1533197619024</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C760" t="n">
+        <v>1892.400024414062</v>
+      </c>
+      <c r="D760" t="n">
+        <v>664.1500244140625</v>
+      </c>
+      <c r="E760" t="n">
+        <v>74.33999633789062</v>
+      </c>
+      <c r="F760" t="n">
+        <v>281.5499877929688</v>
+      </c>
+      <c r="G760" t="n">
+        <v>1237.150024414062</v>
+      </c>
+      <c r="H760" t="n">
+        <v>28036.46997070312</v>
+      </c>
+      <c r="I760" t="n">
+        <v>-0.005503050836077006</v>
+      </c>
+      <c r="J760" t="n">
+        <v>504.3624292615674</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C761" t="n">
+        <v>1922.449951171875</v>
+      </c>
+      <c r="D761" t="n">
+        <v>664.5999755859375</v>
+      </c>
+      <c r="E761" t="n">
+        <v>78.05000305175781</v>
+      </c>
+      <c r="F761" t="n">
+        <v>285.75</v>
+      </c>
+      <c r="G761" t="n">
+        <v>1250.300048828125</v>
+      </c>
+      <c r="H761" t="n">
+        <v>28561.49984741211</v>
+      </c>
+      <c r="I761" t="n">
+        <v>0.01872667555001102</v>
+      </c>
+      <c r="J761" t="n">
+        <v>513.8074608339642</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C762" t="n">
+        <v>1957.599975585938</v>
+      </c>
+      <c r="D762" t="n">
+        <v>689.75</v>
+      </c>
+      <c r="E762" t="n">
+        <v>81.94999694824219</v>
+      </c>
+      <c r="F762" t="n">
+        <v>288.0499877929688</v>
+      </c>
+      <c r="G762" t="n">
+        <v>1237.699951171875</v>
+      </c>
+      <c r="H762" t="n">
+        <v>29297.64938354492</v>
+      </c>
+      <c r="I762" t="n">
+        <v>0.0257741904334731</v>
+      </c>
+      <c r="J762" t="n">
+        <v>527.0504321756381</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C763" t="n">
+        <v>1996.400024414062</v>
+      </c>
+      <c r="D763" t="n">
+        <v>729.1500244140625</v>
+      </c>
+      <c r="E763" t="n">
+        <v>81.69999694824219</v>
+      </c>
+      <c r="F763" t="n">
+        <v>291.7000122070312</v>
+      </c>
+      <c r="G763" t="n">
+        <v>1237.300048828125</v>
+      </c>
+      <c r="H763" t="n">
+        <v>29912.80038452148</v>
+      </c>
+      <c r="I763" t="n">
+        <v>0.02099659917843318</v>
+      </c>
+      <c r="J763" t="n">
+        <v>538.1166988468499</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C764" t="n">
+        <v>1988.050048828125</v>
+      </c>
+      <c r="D764" t="n">
+        <v>713.7000122070312</v>
+      </c>
+      <c r="E764" t="n">
+        <v>83.11000061035156</v>
+      </c>
+      <c r="F764" t="n">
+        <v>289.9500122070312</v>
+      </c>
+      <c r="G764" t="n">
+        <v>1241.5</v>
+      </c>
+      <c r="H764" t="n">
+        <v>29812.18057250977</v>
+      </c>
+      <c r="I764" t="n">
+        <v>-0.003363771051799782</v>
+      </c>
+      <c r="J764" t="n">
+        <v>536.3065974727788</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C765" t="n">
+        <v>1989.900024414062</v>
+      </c>
+      <c r="D765" t="n">
+        <v>714.2000122070312</v>
+      </c>
+      <c r="E765" t="n">
+        <v>84.69999694824219</v>
+      </c>
+      <c r="F765" t="n">
+        <v>290.3999938964844</v>
+      </c>
+      <c r="G765" t="n">
+        <v>1226.599975585938</v>
+      </c>
+      <c r="H765" t="n">
+        <v>29926.49987792969</v>
+      </c>
+      <c r="I765" t="n">
+        <v>0.003834650911961043</v>
+      </c>
+      <c r="J765" t="n">
+        <v>538.3631460558686</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C766" t="n">
+        <v>2006.550048828125</v>
+      </c>
+      <c r="D766" t="n">
+        <v>731.0999755859375</v>
+      </c>
+      <c r="E766" t="n">
+        <v>82</v>
+      </c>
+      <c r="F766" t="n">
+        <v>284.2999877929688</v>
+      </c>
+      <c r="G766" t="n">
+        <v>1193.800048828125</v>
+      </c>
+      <c r="H766" t="n">
+        <v>29823.24993896484</v>
+      </c>
+      <c r="I766" t="n">
+        <v>-0.003450117433913109</v>
+      </c>
+      <c r="J766" t="n">
+        <v>536.5057299798849</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C767" t="n">
+        <v>1987.800048828125</v>
+      </c>
+      <c r="D767" t="n">
+        <v>743.25</v>
+      </c>
+      <c r="E767" t="n">
+        <v>80.81999969482422</v>
+      </c>
+      <c r="F767" t="n">
+        <v>282.8500061035156</v>
+      </c>
+      <c r="G767" t="n">
+        <v>1166.400024414062</v>
+      </c>
+      <c r="H767" t="n">
+        <v>29685.31034851074</v>
+      </c>
+      <c r="I767" t="n">
+        <v>-0.004625236710834788</v>
+      </c>
+      <c r="J767" t="n">
+        <v>534.0242639820087</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C768" t="n">
+        <v>1998.599975585938</v>
+      </c>
+      <c r="D768" t="n">
+        <v>735.9500122070312</v>
+      </c>
+      <c r="E768" t="n">
+        <v>80.97000122070312</v>
+      </c>
+      <c r="F768" t="n">
+        <v>272.7000122070312</v>
+      </c>
+      <c r="G768" t="n">
+        <v>1121.300048828125</v>
+      </c>
+      <c r="H768" t="n">
+        <v>29455.8603515625</v>
+      </c>
+      <c r="I768" t="n">
+        <v>-0.0077294120982553</v>
+      </c>
+      <c r="J768" t="n">
+        <v>529.8965703752243</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C769" t="n">
+        <v>2048.10009765625</v>
+      </c>
+      <c r="D769" t="n">
+        <v>746.5</v>
+      </c>
+      <c r="E769" t="n">
+        <v>83.44999694824219</v>
+      </c>
+      <c r="F769" t="n">
+        <v>277.3500061035156</v>
+      </c>
+      <c r="G769" t="n">
+        <v>1149.400024414062</v>
+      </c>
+      <c r="H769" t="n">
+        <v>30118.95037841797</v>
+      </c>
+      <c r="I769" t="n">
+        <v>0.02251131078642199</v>
+      </c>
+      <c r="J769" t="n">
+        <v>541.8252367556001</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C770" t="n">
+        <v>2082.39990234375</v>
+      </c>
+      <c r="D770" t="n">
+        <v>773.9500122070312</v>
+      </c>
+      <c r="E770" t="n">
+        <v>82.88999938964844</v>
+      </c>
+      <c r="F770" t="n">
+        <v>286.2999877929688</v>
+      </c>
+      <c r="G770" t="n">
+        <v>1162.75</v>
+      </c>
+      <c r="H770" t="n">
+        <v>30664.31942749023</v>
+      </c>
+      <c r="I770" t="n">
+        <v>0.01810717313253569</v>
+      </c>
+      <c r="J770" t="n">
+        <v>551.636160125111</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C771" t="n">
+        <v>2068.14990234375</v>
+      </c>
+      <c r="D771" t="n">
+        <v>781.8499755859375</v>
+      </c>
+      <c r="E771" t="n">
+        <v>83.79000091552734</v>
+      </c>
+      <c r="F771" t="n">
+        <v>291.7999877929688</v>
+      </c>
+      <c r="G771" t="n">
+        <v>1141.199951171875</v>
+      </c>
+      <c r="H771" t="n">
+        <v>30770.6690826416</v>
+      </c>
+      <c r="I771" t="n">
+        <v>0.003468188994144963</v>
+      </c>
+      <c r="J771" t="n">
+        <v>553.5493385844294</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C772" t="n">
+        <v>2061.60009765625</v>
+      </c>
+      <c r="D772" t="n">
+        <v>775.8499755859375</v>
+      </c>
+      <c r="E772" t="n">
+        <v>82.95999908447266</v>
+      </c>
+      <c r="F772" t="n">
+        <v>289.8500061035156</v>
+      </c>
+      <c r="G772" t="n">
+        <v>1118.449951171875</v>
+      </c>
+      <c r="H772" t="n">
+        <v>30542.33015441895</v>
+      </c>
+      <c r="I772" t="n">
+        <v>-0.007420668286718119</v>
+      </c>
+      <c r="J772" t="n">
+        <v>549.4416325624621</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C773" t="n">
+        <v>2022.050048828125</v>
+      </c>
+      <c r="D773" t="n">
+        <v>772.0999755859375</v>
+      </c>
+      <c r="E773" t="n">
+        <v>81.83999633789062</v>
+      </c>
+      <c r="F773" t="n">
+        <v>290.5</v>
+      </c>
+      <c r="G773" t="n">
+        <v>1123.650024414062</v>
+      </c>
+      <c r="H773" t="n">
+        <v>30238.56976318359</v>
+      </c>
+      <c r="I773" t="n">
+        <v>-0.009945553914831306</v>
+      </c>
+      <c r="J773" t="n">
+        <v>543.9771311827592</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C774" t="n">
+        <v>2031.300048828125</v>
+      </c>
+      <c r="D774" t="n">
+        <v>761.75</v>
+      </c>
+      <c r="E774" t="n">
+        <v>81.08999633789062</v>
+      </c>
+      <c r="F774" t="n">
+        <v>293.4500122070312</v>
+      </c>
+      <c r="G774" t="n">
+        <v>1130.25</v>
+      </c>
+      <c r="H774" t="n">
+        <v>30174.3701171875</v>
+      </c>
+      <c r="I774" t="n">
+        <v>-0.002123104581297322</v>
+      </c>
+      <c r="J774" t="n">
+        <v>542.8222108434242</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J774"/>
+  <dimension ref="A1:J794"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="E605" sqref="E605"/>
@@ -24513,6 +24513,626 @@
         <v>542.8222108434242</v>
       </c>
     </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C775" t="n">
+        <v>1885.400024414062</v>
+      </c>
+      <c r="D775" t="n">
+        <v>683.5999755859375</v>
+      </c>
+      <c r="E775" t="n">
+        <v>73.80999755859375</v>
+      </c>
+      <c r="F775" t="n">
+        <v>296.8999938964844</v>
+      </c>
+      <c r="G775" t="n">
+        <v>1303.849975585938</v>
+      </c>
+      <c r="H775" t="n">
+        <v>28487.57955932617</v>
+      </c>
+      <c r="I775" t="n">
+        <v>0</v>
+      </c>
+      <c r="J775" t="n">
+        <v>542.8222108434242</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C776" t="n">
+        <v>1901.949951171875</v>
+      </c>
+      <c r="D776" t="n">
+        <v>689.4000244140625</v>
+      </c>
+      <c r="E776" t="n">
+        <v>74.47000122070312</v>
+      </c>
+      <c r="F776" t="n">
+        <v>297.1499938964844</v>
+      </c>
+      <c r="G776" t="n">
+        <v>1320.25</v>
+      </c>
+      <c r="H776" t="n">
+        <v>28715.86001586914</v>
+      </c>
+      <c r="I776" t="n">
+        <v>0.008013332830455756</v>
+      </c>
+      <c r="J776" t="n">
+        <v>547.1720258866764</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C777" t="n">
+        <v>1901.300048828125</v>
+      </c>
+      <c r="D777" t="n">
+        <v>688.9500122070312</v>
+      </c>
+      <c r="E777" t="n">
+        <v>74.16000366210938</v>
+      </c>
+      <c r="F777" t="n">
+        <v>298.9500122070312</v>
+      </c>
+      <c r="G777" t="n">
+        <v>1327.099975585938</v>
+      </c>
+      <c r="H777" t="n">
+        <v>28721.03076171875</v>
+      </c>
+      <c r="I777" t="n">
+        <v>0.0001800658537390795</v>
+      </c>
+      <c r="J777" t="n">
+        <v>547.2705528846598</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C778" t="n">
+        <v>1879.449951171875</v>
+      </c>
+      <c r="D778" t="n">
+        <v>687.5</v>
+      </c>
+      <c r="E778" t="n">
+        <v>76</v>
+      </c>
+      <c r="F778" t="n">
+        <v>290.6000061035156</v>
+      </c>
+      <c r="G778" t="n">
+        <v>1312.349975585938</v>
+      </c>
+      <c r="H778" t="n">
+        <v>28602.74978637695</v>
+      </c>
+      <c r="I778" t="n">
+        <v>-0.004118270556621158</v>
+      </c>
+      <c r="J778" t="n">
+        <v>545.0167446802091</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C779" t="n">
+        <v>1872.349975585938</v>
+      </c>
+      <c r="D779" t="n">
+        <v>673.5499877929688</v>
+      </c>
+      <c r="E779" t="n">
+        <v>74.72000122070312</v>
+      </c>
+      <c r="F779" t="n">
+        <v>283.6000061035156</v>
+      </c>
+      <c r="G779" t="n">
+        <v>1289.699951171875</v>
+      </c>
+      <c r="H779" t="n">
+        <v>28191.60983276367</v>
+      </c>
+      <c r="I779" t="n">
+        <v>-0.01437414083205038</v>
+      </c>
+      <c r="J779" t="n">
+        <v>537.1825972363501</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C780" t="n">
+        <v>1892.400024414062</v>
+      </c>
+      <c r="D780" t="n">
+        <v>664.1500244140625</v>
+      </c>
+      <c r="E780" t="n">
+        <v>74.33999633789062</v>
+      </c>
+      <c r="F780" t="n">
+        <v>281.5499877929688</v>
+      </c>
+      <c r="G780" t="n">
+        <v>1237.150024414062</v>
+      </c>
+      <c r="H780" t="n">
+        <v>28036.46997070312</v>
+      </c>
+      <c r="I780" t="n">
+        <v>-0.005503050836077006</v>
+      </c>
+      <c r="J780" t="n">
+        <v>534.2264540955026</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C781" t="n">
+        <v>1922.449951171875</v>
+      </c>
+      <c r="D781" t="n">
+        <v>664.5999755859375</v>
+      </c>
+      <c r="E781" t="n">
+        <v>78.05000305175781</v>
+      </c>
+      <c r="F781" t="n">
+        <v>285.75</v>
+      </c>
+      <c r="G781" t="n">
+        <v>1250.300048828125</v>
+      </c>
+      <c r="H781" t="n">
+        <v>28561.49984741211</v>
+      </c>
+      <c r="I781" t="n">
+        <v>0.01872667555001102</v>
+      </c>
+      <c r="J781" t="n">
+        <v>544.2307395715819</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C782" t="n">
+        <v>1957.599975585938</v>
+      </c>
+      <c r="D782" t="n">
+        <v>689.75</v>
+      </c>
+      <c r="E782" t="n">
+        <v>81.94999694824219</v>
+      </c>
+      <c r="F782" t="n">
+        <v>288.0499877929688</v>
+      </c>
+      <c r="G782" t="n">
+        <v>1237.699951171875</v>
+      </c>
+      <c r="H782" t="n">
+        <v>29297.64938354492</v>
+      </c>
+      <c r="I782" t="n">
+        <v>0.0257741904334731</v>
+      </c>
+      <c r="J782" t="n">
+        <v>558.2578462930499</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C783" t="n">
+        <v>1996.400024414062</v>
+      </c>
+      <c r="D783" t="n">
+        <v>729.1500244140625</v>
+      </c>
+      <c r="E783" t="n">
+        <v>81.69999694824219</v>
+      </c>
+      <c r="F783" t="n">
+        <v>291.7000122070312</v>
+      </c>
+      <c r="G783" t="n">
+        <v>1237.300048828125</v>
+      </c>
+      <c r="H783" t="n">
+        <v>29912.80038452148</v>
+      </c>
+      <c r="I783" t="n">
+        <v>0.02099659917843318</v>
+      </c>
+      <c r="J783" t="n">
+        <v>569.9793625298803</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C784" t="n">
+        <v>1988.050048828125</v>
+      </c>
+      <c r="D784" t="n">
+        <v>713.7000122070312</v>
+      </c>
+      <c r="E784" t="n">
+        <v>83.11000061035156</v>
+      </c>
+      <c r="F784" t="n">
+        <v>289.9500122070312</v>
+      </c>
+      <c r="G784" t="n">
+        <v>1241.5</v>
+      </c>
+      <c r="H784" t="n">
+        <v>29812.18057250977</v>
+      </c>
+      <c r="I784" t="n">
+        <v>-0.003363771051799782</v>
+      </c>
+      <c r="J784" t="n">
+        <v>568.0620824500791</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C785" t="n">
+        <v>1989.900024414062</v>
+      </c>
+      <c r="D785" t="n">
+        <v>714.2000122070312</v>
+      </c>
+      <c r="E785" t="n">
+        <v>84.69999694824219</v>
+      </c>
+      <c r="F785" t="n">
+        <v>290.3999938964844</v>
+      </c>
+      <c r="G785" t="n">
+        <v>1226.599975585938</v>
+      </c>
+      <c r="H785" t="n">
+        <v>29926.49987792969</v>
+      </c>
+      <c r="I785" t="n">
+        <v>0.003834650911961043</v>
+      </c>
+      <c r="J785" t="n">
+        <v>570.2404022325968</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C786" t="n">
+        <v>2006.550048828125</v>
+      </c>
+      <c r="D786" t="n">
+        <v>731.0999755859375</v>
+      </c>
+      <c r="E786" t="n">
+        <v>82</v>
+      </c>
+      <c r="F786" t="n">
+        <v>284.2999877929688</v>
+      </c>
+      <c r="G786" t="n">
+        <v>1193.800048828125</v>
+      </c>
+      <c r="H786" t="n">
+        <v>29823.24993896484</v>
+      </c>
+      <c r="I786" t="n">
+        <v>-0.003450117433913109</v>
+      </c>
+      <c r="J786" t="n">
+        <v>568.2730058793325</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C787" t="n">
+        <v>1987.800048828125</v>
+      </c>
+      <c r="D787" t="n">
+        <v>743.25</v>
+      </c>
+      <c r="E787" t="n">
+        <v>80.81999969482422</v>
+      </c>
+      <c r="F787" t="n">
+        <v>282.8500061035156</v>
+      </c>
+      <c r="G787" t="n">
+        <v>1166.400024414062</v>
+      </c>
+      <c r="H787" t="n">
+        <v>29685.31034851074</v>
+      </c>
+      <c r="I787" t="n">
+        <v>-0.004625236710834788</v>
+      </c>
+      <c r="J787" t="n">
+        <v>565.6446087107629</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C788" t="n">
+        <v>1998.599975585938</v>
+      </c>
+      <c r="D788" t="n">
+        <v>735.9500122070312</v>
+      </c>
+      <c r="E788" t="n">
+        <v>80.97000122070312</v>
+      </c>
+      <c r="F788" t="n">
+        <v>272.7000122070312</v>
+      </c>
+      <c r="G788" t="n">
+        <v>1121.300048828125</v>
+      </c>
+      <c r="H788" t="n">
+        <v>29455.8603515625</v>
+      </c>
+      <c r="I788" t="n">
+        <v>-0.0077294120982553</v>
+      </c>
+      <c r="J788" t="n">
+        <v>561.272508428881</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C789" t="n">
+        <v>2048.10009765625</v>
+      </c>
+      <c r="D789" t="n">
+        <v>746.5</v>
+      </c>
+      <c r="E789" t="n">
+        <v>83.44999694824219</v>
+      </c>
+      <c r="F789" t="n">
+        <v>277.3500061035156</v>
+      </c>
+      <c r="G789" t="n">
+        <v>1149.400024414062</v>
+      </c>
+      <c r="H789" t="n">
+        <v>30118.95037841797</v>
+      </c>
+      <c r="I789" t="n">
+        <v>0.02251131078642199</v>
+      </c>
+      <c r="J789" t="n">
+        <v>573.9074883019982</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C790" t="n">
+        <v>2082.39990234375</v>
+      </c>
+      <c r="D790" t="n">
+        <v>773.9500122070312</v>
+      </c>
+      <c r="E790" t="n">
+        <v>82.88999938964844</v>
+      </c>
+      <c r="F790" t="n">
+        <v>286.2999877929688</v>
+      </c>
+      <c r="G790" t="n">
+        <v>1162.75</v>
+      </c>
+      <c r="H790" t="n">
+        <v>30664.31942749023</v>
+      </c>
+      <c r="I790" t="n">
+        <v>0.01810717313253569</v>
+      </c>
+      <c r="J790" t="n">
+        <v>584.2993305547412</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C791" t="n">
+        <v>2068.14990234375</v>
+      </c>
+      <c r="D791" t="n">
+        <v>781.8499755859375</v>
+      </c>
+      <c r="E791" t="n">
+        <v>83.79000091552734</v>
+      </c>
+      <c r="F791" t="n">
+        <v>291.7999877929688</v>
+      </c>
+      <c r="G791" t="n">
+        <v>1141.199951171875</v>
+      </c>
+      <c r="H791" t="n">
+        <v>30770.6690826416</v>
+      </c>
+      <c r="I791" t="n">
+        <v>0.003468188994144963</v>
+      </c>
+      <c r="J791" t="n">
+        <v>586.3257910622575</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C792" t="n">
+        <v>2061.60009765625</v>
+      </c>
+      <c r="D792" t="n">
+        <v>775.8499755859375</v>
+      </c>
+      <c r="E792" t="n">
+        <v>82.95999908447266</v>
+      </c>
+      <c r="F792" t="n">
+        <v>289.8500061035156</v>
+      </c>
+      <c r="G792" t="n">
+        <v>1118.449951171875</v>
+      </c>
+      <c r="H792" t="n">
+        <v>30542.33015441895</v>
+      </c>
+      <c r="I792" t="n">
+        <v>-0.007420668286718119</v>
+      </c>
+      <c r="J792" t="n">
+        <v>581.9748618588369</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C793" t="n">
+        <v>2022.050048828125</v>
+      </c>
+      <c r="D793" t="n">
+        <v>772.0999755859375</v>
+      </c>
+      <c r="E793" t="n">
+        <v>81.83999633789062</v>
+      </c>
+      <c r="F793" t="n">
+        <v>290.5</v>
+      </c>
+      <c r="G793" t="n">
+        <v>1123.650024414062</v>
+      </c>
+      <c r="H793" t="n">
+        <v>30238.56976318359</v>
+      </c>
+      <c r="I793" t="n">
+        <v>-0.009945553914831306</v>
+      </c>
+      <c r="J793" t="n">
+        <v>576.1867994931433</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C794" t="n">
+        <v>2031.300048828125</v>
+      </c>
+      <c r="D794" t="n">
+        <v>761.75</v>
+      </c>
+      <c r="E794" t="n">
+        <v>81.08999633789062</v>
+      </c>
+      <c r="F794" t="n">
+        <v>293.4500122070312</v>
+      </c>
+      <c r="G794" t="n">
+        <v>1130.25</v>
+      </c>
+      <c r="H794" t="n">
+        <v>30174.3701171875</v>
+      </c>
+      <c r="I794" t="n">
+        <v>-0.002123104581297322</v>
+      </c>
+      <c r="J794" t="n">
+        <v>574.9634946594564</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J794"/>
+  <dimension ref="A1:J814"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="E605" sqref="E605"/>
@@ -25133,6 +25133,626 @@
         <v>574.9634946594564</v>
       </c>
     </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C795" t="n">
+        <v>1885.400024414062</v>
+      </c>
+      <c r="D795" t="n">
+        <v>683.5999755859375</v>
+      </c>
+      <c r="E795" t="n">
+        <v>73.80999755859375</v>
+      </c>
+      <c r="F795" t="n">
+        <v>296.8999938964844</v>
+      </c>
+      <c r="G795" t="n">
+        <v>1303.849975585938</v>
+      </c>
+      <c r="H795" t="n">
+        <v>28487.57955932617</v>
+      </c>
+      <c r="I795" t="n">
+        <v>0</v>
+      </c>
+      <c r="J795" t="n">
+        <v>574.9634946594564</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C796" t="n">
+        <v>1901.949951171875</v>
+      </c>
+      <c r="D796" t="n">
+        <v>689.4000244140625</v>
+      </c>
+      <c r="E796" t="n">
+        <v>74.47000122070312</v>
+      </c>
+      <c r="F796" t="n">
+        <v>297.1499938964844</v>
+      </c>
+      <c r="G796" t="n">
+        <v>1320.25</v>
+      </c>
+      <c r="H796" t="n">
+        <v>28715.86001586914</v>
+      </c>
+      <c r="I796" t="n">
+        <v>0.008013332830455756</v>
+      </c>
+      <c r="J796" t="n">
+        <v>579.5708685075246</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C797" t="n">
+        <v>1901.300048828125</v>
+      </c>
+      <c r="D797" t="n">
+        <v>688.9500122070312</v>
+      </c>
+      <c r="E797" t="n">
+        <v>74.16000366210938</v>
+      </c>
+      <c r="F797" t="n">
+        <v>298.9500122070312</v>
+      </c>
+      <c r="G797" t="n">
+        <v>1327.099975585938</v>
+      </c>
+      <c r="H797" t="n">
+        <v>28721.03076171875</v>
+      </c>
+      <c r="I797" t="n">
+        <v>0.0001800658537390795</v>
+      </c>
+      <c r="J797" t="n">
+        <v>579.6752294307646</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C798" t="n">
+        <v>1879.449951171875</v>
+      </c>
+      <c r="D798" t="n">
+        <v>687.5</v>
+      </c>
+      <c r="E798" t="n">
+        <v>76</v>
+      </c>
+      <c r="F798" t="n">
+        <v>290.6000061035156</v>
+      </c>
+      <c r="G798" t="n">
+        <v>1312.349975585938</v>
+      </c>
+      <c r="H798" t="n">
+        <v>28602.74978637695</v>
+      </c>
+      <c r="I798" t="n">
+        <v>-0.004118270556621158</v>
+      </c>
+      <c r="J798" t="n">
+        <v>577.2879700009972</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C799" t="n">
+        <v>1872.349975585938</v>
+      </c>
+      <c r="D799" t="n">
+        <v>673.5499877929688</v>
+      </c>
+      <c r="E799" t="n">
+        <v>74.72000122070312</v>
+      </c>
+      <c r="F799" t="n">
+        <v>283.6000061035156</v>
+      </c>
+      <c r="G799" t="n">
+        <v>1289.699951171875</v>
+      </c>
+      <c r="H799" t="n">
+        <v>28191.60983276367</v>
+      </c>
+      <c r="I799" t="n">
+        <v>-0.01437414083205038</v>
+      </c>
+      <c r="J799" t="n">
+        <v>568.9899514195545</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C800" t="n">
+        <v>1892.400024414062</v>
+      </c>
+      <c r="D800" t="n">
+        <v>664.1500244140625</v>
+      </c>
+      <c r="E800" t="n">
+        <v>74.33999633789062</v>
+      </c>
+      <c r="F800" t="n">
+        <v>281.5499877929688</v>
+      </c>
+      <c r="G800" t="n">
+        <v>1237.150024414062</v>
+      </c>
+      <c r="H800" t="n">
+        <v>28036.46997070312</v>
+      </c>
+      <c r="I800" t="n">
+        <v>-0.005503050836077006</v>
+      </c>
+      <c r="J800" t="n">
+        <v>565.8587707916756</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C801" t="n">
+        <v>1922.449951171875</v>
+      </c>
+      <c r="D801" t="n">
+        <v>664.5999755859375</v>
+      </c>
+      <c r="E801" t="n">
+        <v>78.05000305175781</v>
+      </c>
+      <c r="F801" t="n">
+        <v>285.75</v>
+      </c>
+      <c r="G801" t="n">
+        <v>1250.300048828125</v>
+      </c>
+      <c r="H801" t="n">
+        <v>28561.49984741211</v>
+      </c>
+      <c r="I801" t="n">
+        <v>0.01872667555001102</v>
+      </c>
+      <c r="J801" t="n">
+        <v>576.4554243994194</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C802" t="n">
+        <v>1957.599975585938</v>
+      </c>
+      <c r="D802" t="n">
+        <v>689.75</v>
+      </c>
+      <c r="E802" t="n">
+        <v>81.94999694824219</v>
+      </c>
+      <c r="F802" t="n">
+        <v>288.0499877929688</v>
+      </c>
+      <c r="G802" t="n">
+        <v>1237.699951171875</v>
+      </c>
+      <c r="H802" t="n">
+        <v>29297.64938354492</v>
+      </c>
+      <c r="I802" t="n">
+        <v>0.0257741904334731</v>
+      </c>
+      <c r="J802" t="n">
+        <v>591.3130962842986</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C803" t="n">
+        <v>1996.400024414062</v>
+      </c>
+      <c r="D803" t="n">
+        <v>729.1500244140625</v>
+      </c>
+      <c r="E803" t="n">
+        <v>81.69999694824219</v>
+      </c>
+      <c r="F803" t="n">
+        <v>291.7000122070312</v>
+      </c>
+      <c r="G803" t="n">
+        <v>1237.300048828125</v>
+      </c>
+      <c r="H803" t="n">
+        <v>29912.80038452148</v>
+      </c>
+      <c r="I803" t="n">
+        <v>0.02099659917843318</v>
+      </c>
+      <c r="J803" t="n">
+        <v>603.7286603559382</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C804" t="n">
+        <v>1988.050048828125</v>
+      </c>
+      <c r="D804" t="n">
+        <v>713.7000122070312</v>
+      </c>
+      <c r="E804" t="n">
+        <v>83.11000061035156</v>
+      </c>
+      <c r="F804" t="n">
+        <v>289.9500122070312</v>
+      </c>
+      <c r="G804" t="n">
+        <v>1241.5</v>
+      </c>
+      <c r="H804" t="n">
+        <v>29812.18057250977</v>
+      </c>
+      <c r="I804" t="n">
+        <v>-0.003363771051799782</v>
+      </c>
+      <c r="J804" t="n">
+        <v>601.6978553650911</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C805" t="n">
+        <v>1989.900024414062</v>
+      </c>
+      <c r="D805" t="n">
+        <v>714.2000122070312</v>
+      </c>
+      <c r="E805" t="n">
+        <v>84.69999694824219</v>
+      </c>
+      <c r="F805" t="n">
+        <v>290.3999938964844</v>
+      </c>
+      <c r="G805" t="n">
+        <v>1226.599975585938</v>
+      </c>
+      <c r="H805" t="n">
+        <v>29926.49987792969</v>
+      </c>
+      <c r="I805" t="n">
+        <v>0.003834650911961043</v>
+      </c>
+      <c r="J805" t="n">
+        <v>604.0051565948919</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C806" t="n">
+        <v>2006.550048828125</v>
+      </c>
+      <c r="D806" t="n">
+        <v>731.0999755859375</v>
+      </c>
+      <c r="E806" t="n">
+        <v>82</v>
+      </c>
+      <c r="F806" t="n">
+        <v>284.2999877929688</v>
+      </c>
+      <c r="G806" t="n">
+        <v>1193.800048828125</v>
+      </c>
+      <c r="H806" t="n">
+        <v>29823.24993896484</v>
+      </c>
+      <c r="I806" t="n">
+        <v>-0.003450117433913109</v>
+      </c>
+      <c r="J806" t="n">
+        <v>601.9212678739505</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C807" t="n">
+        <v>1987.800048828125</v>
+      </c>
+      <c r="D807" t="n">
+        <v>743.25</v>
+      </c>
+      <c r="E807" t="n">
+        <v>80.81999969482422</v>
+      </c>
+      <c r="F807" t="n">
+        <v>282.8500061035156</v>
+      </c>
+      <c r="G807" t="n">
+        <v>1166.400024414062</v>
+      </c>
+      <c r="H807" t="n">
+        <v>29685.31034851074</v>
+      </c>
+      <c r="I807" t="n">
+        <v>-0.004625236710834788</v>
+      </c>
+      <c r="J807" t="n">
+        <v>599.1372395287476</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C808" t="n">
+        <v>1998.599975585938</v>
+      </c>
+      <c r="D808" t="n">
+        <v>735.9500122070312</v>
+      </c>
+      <c r="E808" t="n">
+        <v>80.97000122070312</v>
+      </c>
+      <c r="F808" t="n">
+        <v>272.7000122070312</v>
+      </c>
+      <c r="G808" t="n">
+        <v>1121.300048828125</v>
+      </c>
+      <c r="H808" t="n">
+        <v>29455.8603515625</v>
+      </c>
+      <c r="I808" t="n">
+        <v>-0.0077294120982553</v>
+      </c>
+      <c r="J808" t="n">
+        <v>594.5062609010189</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C809" t="n">
+        <v>2048.10009765625</v>
+      </c>
+      <c r="D809" t="n">
+        <v>746.5</v>
+      </c>
+      <c r="E809" t="n">
+        <v>83.44999694824219</v>
+      </c>
+      <c r="F809" t="n">
+        <v>277.3500061035156</v>
+      </c>
+      <c r="G809" t="n">
+        <v>1149.400024414062</v>
+      </c>
+      <c r="H809" t="n">
+        <v>30118.95037841797</v>
+      </c>
+      <c r="I809" t="n">
+        <v>0.02251131078642199</v>
+      </c>
+      <c r="J809" t="n">
+        <v>607.8893761046355</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C810" t="n">
+        <v>2082.39990234375</v>
+      </c>
+      <c r="D810" t="n">
+        <v>773.9500122070312</v>
+      </c>
+      <c r="E810" t="n">
+        <v>82.88999938964844</v>
+      </c>
+      <c r="F810" t="n">
+        <v>286.2999877929688</v>
+      </c>
+      <c r="G810" t="n">
+        <v>1162.75</v>
+      </c>
+      <c r="H810" t="n">
+        <v>30664.31942749023</v>
+      </c>
+      <c r="I810" t="n">
+        <v>0.01810717313253569</v>
+      </c>
+      <c r="J810" t="n">
+        <v>618.8965342831913</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C811" t="n">
+        <v>2068.14990234375</v>
+      </c>
+      <c r="D811" t="n">
+        <v>781.8499755859375</v>
+      </c>
+      <c r="E811" t="n">
+        <v>83.79000091552734</v>
+      </c>
+      <c r="F811" t="n">
+        <v>291.7999877929688</v>
+      </c>
+      <c r="G811" t="n">
+        <v>1141.199951171875</v>
+      </c>
+      <c r="H811" t="n">
+        <v>30770.6690826416</v>
+      </c>
+      <c r="I811" t="n">
+        <v>0.003468188994144963</v>
+      </c>
+      <c r="J811" t="n">
+        <v>621.0429844319067</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C812" t="n">
+        <v>2061.60009765625</v>
+      </c>
+      <c r="D812" t="n">
+        <v>775.8499755859375</v>
+      </c>
+      <c r="E812" t="n">
+        <v>82.95999908447266</v>
+      </c>
+      <c r="F812" t="n">
+        <v>289.8500061035156</v>
+      </c>
+      <c r="G812" t="n">
+        <v>1118.449951171875</v>
+      </c>
+      <c r="H812" t="n">
+        <v>30542.33015441895</v>
+      </c>
+      <c r="I812" t="n">
+        <v>-0.007420668286718119</v>
+      </c>
+      <c r="J812" t="n">
+        <v>616.4344304526441</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C813" t="n">
+        <v>2022.050048828125</v>
+      </c>
+      <c r="D813" t="n">
+        <v>772.0999755859375</v>
+      </c>
+      <c r="E813" t="n">
+        <v>81.83999633789062</v>
+      </c>
+      <c r="F813" t="n">
+        <v>290.5</v>
+      </c>
+      <c r="G813" t="n">
+        <v>1123.650024414062</v>
+      </c>
+      <c r="H813" t="n">
+        <v>30238.56976318359</v>
+      </c>
+      <c r="I813" t="n">
+        <v>-0.009945553914831306</v>
+      </c>
+      <c r="J813" t="n">
+        <v>610.3036485896189</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C814" t="n">
+        <v>2031.300048828125</v>
+      </c>
+      <c r="D814" t="n">
+        <v>761.75</v>
+      </c>
+      <c r="E814" t="n">
+        <v>81.08999633789062</v>
+      </c>
+      <c r="F814" t="n">
+        <v>293.4500122070312</v>
+      </c>
+      <c r="G814" t="n">
+        <v>1130.25</v>
+      </c>
+      <c r="H814" t="n">
+        <v>30174.3701171875</v>
+      </c>
+      <c r="I814" t="n">
+        <v>-0.002123104581297322</v>
+      </c>
+      <c r="J814" t="n">
+        <v>609.0079101173159</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -467,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J614"/>
+  <dimension ref="A1:J635"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="D606" sqref="D606"/>
@@ -19555,6 +19555,657 @@
         <v>342.6070643225124</v>
       </c>
     </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C615" t="n">
+        <v>1885.400024414062</v>
+      </c>
+      <c r="D615" t="n">
+        <v>683.5999755859375</v>
+      </c>
+      <c r="E615" t="n">
+        <v>73.80999755859375</v>
+      </c>
+      <c r="F615" t="n">
+        <v>296.8999938964844</v>
+      </c>
+      <c r="G615" t="n">
+        <v>1303.849975585938</v>
+      </c>
+      <c r="H615" t="n">
+        <v>28487.57955932617</v>
+      </c>
+      <c r="I615" t="n">
+        <v>0</v>
+      </c>
+      <c r="J615" t="n">
+        <v>342.6070643225124</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C616" t="n">
+        <v>1901.949951171875</v>
+      </c>
+      <c r="D616" t="n">
+        <v>689.4000244140625</v>
+      </c>
+      <c r="E616" t="n">
+        <v>74.47000122070312</v>
+      </c>
+      <c r="F616" t="n">
+        <v>297.1499938964844</v>
+      </c>
+      <c r="G616" t="n">
+        <v>1320.25</v>
+      </c>
+      <c r="H616" t="n">
+        <v>28715.86001586914</v>
+      </c>
+      <c r="I616" t="n">
+        <v>0.008013332830455756</v>
+      </c>
+      <c r="J616" t="n">
+        <v>345.352488758994</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>1901.300048828125</v>
+      </c>
+      <c r="D617" t="n">
+        <v>688.9500122070312</v>
+      </c>
+      <c r="E617" t="n">
+        <v>74.16000366210938</v>
+      </c>
+      <c r="F617" t="n">
+        <v>298.9500122070312</v>
+      </c>
+      <c r="G617" t="n">
+        <v>1327.099975585938</v>
+      </c>
+      <c r="H617" t="n">
+        <v>28721.03076171875</v>
+      </c>
+      <c r="I617" t="n">
+        <v>0.0001800658537390795</v>
+      </c>
+      <c r="J617" t="n">
+        <v>345.4146749497233</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>1879.449951171875</v>
+      </c>
+      <c r="D618" t="n">
+        <v>687.5</v>
+      </c>
+      <c r="E618" t="n">
+        <v>76</v>
+      </c>
+      <c r="F618" t="n">
+        <v>290.6000061035156</v>
+      </c>
+      <c r="G618" t="n">
+        <v>1312.349975585938</v>
+      </c>
+      <c r="H618" t="n">
+        <v>28602.74978637695</v>
+      </c>
+      <c r="I618" t="n">
+        <v>-0.004118270556621158</v>
+      </c>
+      <c r="J618" t="n">
+        <v>343.992163864053</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>1872.349975585938</v>
+      </c>
+      <c r="D619" t="n">
+        <v>673.5499877929688</v>
+      </c>
+      <c r="E619" t="n">
+        <v>74.72000122070312</v>
+      </c>
+      <c r="F619" t="n">
+        <v>283.6000061035156</v>
+      </c>
+      <c r="G619" t="n">
+        <v>1289.699951171875</v>
+      </c>
+      <c r="H619" t="n">
+        <v>28191.60983276367</v>
+      </c>
+      <c r="I619" t="n">
+        <v>-0.01437414083205038</v>
+      </c>
+      <c r="J619" t="n">
+        <v>339.0475720555494</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>1892.400024414062</v>
+      </c>
+      <c r="D620" t="n">
+        <v>664.1500244140625</v>
+      </c>
+      <c r="E620" t="n">
+        <v>74.33999633789062</v>
+      </c>
+      <c r="F620" t="n">
+        <v>281.5499877929688</v>
+      </c>
+      <c r="G620" t="n">
+        <v>1237.150024414062</v>
+      </c>
+      <c r="H620" t="n">
+        <v>28036.46997070312</v>
+      </c>
+      <c r="I620" t="n">
+        <v>-0.005503050836077006</v>
+      </c>
+      <c r="J620" t="n">
+        <v>337.1817760306792</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>1922.449951171875</v>
+      </c>
+      <c r="D621" t="n">
+        <v>664.5999755859375</v>
+      </c>
+      <c r="E621" t="n">
+        <v>78.05000305175781</v>
+      </c>
+      <c r="F621" t="n">
+        <v>285.75</v>
+      </c>
+      <c r="G621" t="n">
+        <v>1250.300048828125</v>
+      </c>
+      <c r="H621" t="n">
+        <v>28561.49984741211</v>
+      </c>
+      <c r="I621" t="n">
+        <v>0.01872667555001102</v>
+      </c>
+      <c r="J621" t="n">
+        <v>343.4960697517822</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>1957.599975585938</v>
+      </c>
+      <c r="D622" t="n">
+        <v>689.75</v>
+      </c>
+      <c r="E622" t="n">
+        <v>81.94999694824219</v>
+      </c>
+      <c r="F622" t="n">
+        <v>288.0499877929688</v>
+      </c>
+      <c r="G622" t="n">
+        <v>1237.699951171875</v>
+      </c>
+      <c r="H622" t="n">
+        <v>29297.64938354492</v>
+      </c>
+      <c r="I622" t="n">
+        <v>0.0257741904334731</v>
+      </c>
+      <c r="J622" t="n">
+        <v>352.3494028667142</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>1996.400024414062</v>
+      </c>
+      <c r="D623" t="n">
+        <v>729.1500244140625</v>
+      </c>
+      <c r="E623" t="n">
+        <v>81.69999694824219</v>
+      </c>
+      <c r="F623" t="n">
+        <v>291.7000122070312</v>
+      </c>
+      <c r="G623" t="n">
+        <v>1237.300048828125</v>
+      </c>
+      <c r="H623" t="n">
+        <v>29912.80038452148</v>
+      </c>
+      <c r="I623" t="n">
+        <v>0.02099659917843318</v>
+      </c>
+      <c r="J623" t="n">
+        <v>359.7475420494669</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>1988.050048828125</v>
+      </c>
+      <c r="D624" t="n">
+        <v>713.7000122070312</v>
+      </c>
+      <c r="E624" t="n">
+        <v>83.11000061035156</v>
+      </c>
+      <c r="F624" t="n">
+        <v>289.9500122070312</v>
+      </c>
+      <c r="G624" t="n">
+        <v>1241.5</v>
+      </c>
+      <c r="H624" t="n">
+        <v>29812.18057250977</v>
+      </c>
+      <c r="I624" t="n">
+        <v>-0.003363771051799782</v>
+      </c>
+      <c r="J624" t="n">
+        <v>358.5374336815648</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>1989.900024414062</v>
+      </c>
+      <c r="D625" t="n">
+        <v>714.2000122070312</v>
+      </c>
+      <c r="E625" t="n">
+        <v>84.69999694824219</v>
+      </c>
+      <c r="F625" t="n">
+        <v>290.3999938964844</v>
+      </c>
+      <c r="G625" t="n">
+        <v>1226.599975585938</v>
+      </c>
+      <c r="H625" t="n">
+        <v>29926.49987792969</v>
+      </c>
+      <c r="I625" t="n">
+        <v>0.003834650911961043</v>
+      </c>
+      <c r="J625" t="n">
+        <v>359.912299578604</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>2006.550048828125</v>
+      </c>
+      <c r="D626" t="n">
+        <v>731.0999755859375</v>
+      </c>
+      <c r="E626" t="n">
+        <v>82</v>
+      </c>
+      <c r="F626" t="n">
+        <v>284.2999877929688</v>
+      </c>
+      <c r="G626" t="n">
+        <v>1193.800048828125</v>
+      </c>
+      <c r="H626" t="n">
+        <v>29823.24993896484</v>
+      </c>
+      <c r="I626" t="n">
+        <v>-0.003450117433913109</v>
+      </c>
+      <c r="J626" t="n">
+        <v>358.6705598791481</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>1987.800048828125</v>
+      </c>
+      <c r="D627" t="n">
+        <v>743.25</v>
+      </c>
+      <c r="E627" t="n">
+        <v>80.81999969482422</v>
+      </c>
+      <c r="F627" t="n">
+        <v>282.8500061035156</v>
+      </c>
+      <c r="G627" t="n">
+        <v>1166.400024414062</v>
+      </c>
+      <c r="H627" t="n">
+        <v>29685.31034851074</v>
+      </c>
+      <c r="I627" t="n">
+        <v>-0.004625236710834788</v>
+      </c>
+      <c r="J627" t="n">
+        <v>357.0116236384994</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>1998.599975585938</v>
+      </c>
+      <c r="D628" t="n">
+        <v>735.9500122070312</v>
+      </c>
+      <c r="E628" t="n">
+        <v>80.97000122070312</v>
+      </c>
+      <c r="F628" t="n">
+        <v>272.7000122070312</v>
+      </c>
+      <c r="G628" t="n">
+        <v>1121.300048828125</v>
+      </c>
+      <c r="H628" t="n">
+        <v>29455.8603515625</v>
+      </c>
+      <c r="I628" t="n">
+        <v>-0.0077294120982553</v>
+      </c>
+      <c r="J628" t="n">
+        <v>354.2521336755303</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>2048.10009765625</v>
+      </c>
+      <c r="D629" t="n">
+        <v>746.5</v>
+      </c>
+      <c r="E629" t="n">
+        <v>83.44999694824219</v>
+      </c>
+      <c r="F629" t="n">
+        <v>277.3500061035156</v>
+      </c>
+      <c r="G629" t="n">
+        <v>1149.400024414062</v>
+      </c>
+      <c r="H629" t="n">
+        <v>30118.95037841797</v>
+      </c>
+      <c r="I629" t="n">
+        <v>0.02251131078642199</v>
+      </c>
+      <c r="J629" t="n">
+        <v>362.2268135534533</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>2082.39990234375</v>
+      </c>
+      <c r="D630" t="n">
+        <v>773.9500122070312</v>
+      </c>
+      <c r="E630" t="n">
+        <v>82.88999938964844</v>
+      </c>
+      <c r="F630" t="n">
+        <v>286.2999877929688</v>
+      </c>
+      <c r="G630" t="n">
+        <v>1162.75</v>
+      </c>
+      <c r="H630" t="n">
+        <v>30664.31942749023</v>
+      </c>
+      <c r="I630" t="n">
+        <v>0.01810717313253569</v>
+      </c>
+      <c r="J630" t="n">
+        <v>368.7857171797124</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>2068.14990234375</v>
+      </c>
+      <c r="D631" t="n">
+        <v>781.8499755859375</v>
+      </c>
+      <c r="E631" t="n">
+        <v>83.79000091552734</v>
+      </c>
+      <c r="F631" t="n">
+        <v>291.7999877929688</v>
+      </c>
+      <c r="G631" t="n">
+        <v>1141.199951171875</v>
+      </c>
+      <c r="H631" t="n">
+        <v>30770.6690826416</v>
+      </c>
+      <c r="I631" t="n">
+        <v>0.003468188994144963</v>
+      </c>
+      <c r="J631" t="n">
+        <v>370.064735745233</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>2061.60009765625</v>
+      </c>
+      <c r="D632" t="n">
+        <v>775.8499755859375</v>
+      </c>
+      <c r="E632" t="n">
+        <v>82.95999908447266</v>
+      </c>
+      <c r="F632" t="n">
+        <v>289.8500061035156</v>
+      </c>
+      <c r="G632" t="n">
+        <v>1118.449951171875</v>
+      </c>
+      <c r="H632" t="n">
+        <v>30542.33015441895</v>
+      </c>
+      <c r="I632" t="n">
+        <v>-0.007420668286718119</v>
+      </c>
+      <c r="J632" t="n">
+        <v>367.3186080966556</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>2022.050048828125</v>
+      </c>
+      <c r="D633" t="n">
+        <v>772.0999755859375</v>
+      </c>
+      <c r="E633" t="n">
+        <v>81.83999633789062</v>
+      </c>
+      <c r="F633" t="n">
+        <v>290.5</v>
+      </c>
+      <c r="G633" t="n">
+        <v>1123.650024414062</v>
+      </c>
+      <c r="H633" t="n">
+        <v>30238.56976318359</v>
+      </c>
+      <c r="I633" t="n">
+        <v>-0.009945553914831306</v>
+      </c>
+      <c r="J633" t="n">
+        <v>363.6654210759095</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>2031.300048828125</v>
+      </c>
+      <c r="D634" t="n">
+        <v>761.75</v>
+      </c>
+      <c r="E634" t="n">
+        <v>81.08999633789062</v>
+      </c>
+      <c r="F634" t="n">
+        <v>293.4500122070312</v>
+      </c>
+      <c r="G634" t="n">
+        <v>1130.25</v>
+      </c>
+      <c r="H634" t="n">
+        <v>30174.3701171875</v>
+      </c>
+      <c r="I634" t="n">
+        <v>-0.002123104581297322</v>
+      </c>
+      <c r="J634" t="n">
+        <v>362.8933213543638</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>2012.900024414062</v>
+      </c>
+      <c r="D635" t="n">
+        <v>759.0499877929688</v>
+      </c>
+      <c r="E635" t="n">
+        <v>80.05000305175781</v>
+      </c>
+      <c r="F635" t="n">
+        <v>285.1000061035156</v>
+      </c>
+      <c r="G635" t="n">
+        <v>1160</v>
+      </c>
+      <c r="H635" t="n">
+        <v>29925.20031738281</v>
+      </c>
+      <c r="I635" t="n">
+        <v>-0.008257663667443347</v>
+      </c>
+      <c r="J635" t="n">
+        <v>359.8966703594581</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -82,9 +82,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
@@ -93,7 +93,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J617"/>
+  <dimension ref="A1:J619"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -18941,7 +18942,7 @@
       </c>
     </row>
     <row r="595">
-      <c r="A595" s="8" t="n">
+      <c r="A595" s="9" t="n">
         <v>45533</v>
       </c>
       <c r="C595" t="n">
@@ -18970,7 +18971,7 @@
       </c>
     </row>
     <row r="596">
-      <c r="A596" s="8" t="n">
+      <c r="A596" s="9" t="n">
         <v>45534</v>
       </c>
       <c r="C596" t="n">
@@ -18999,7 +19000,7 @@
       </c>
     </row>
     <row r="597">
-      <c r="A597" s="8" t="n">
+      <c r="A597" s="9" t="n">
         <v>45537</v>
       </c>
       <c r="C597" t="n">
@@ -19028,7 +19029,7 @@
       </c>
     </row>
     <row r="598">
-      <c r="A598" s="8" t="n">
+      <c r="A598" s="9" t="n">
         <v>45538</v>
       </c>
       <c r="C598" t="n">
@@ -19057,7 +19058,7 @@
       </c>
     </row>
     <row r="599">
-      <c r="A599" s="8" t="n">
+      <c r="A599" s="9" t="n">
         <v>45539</v>
       </c>
       <c r="C599" t="n">
@@ -19086,7 +19087,7 @@
       </c>
     </row>
     <row r="600">
-      <c r="A600" s="8" t="n">
+      <c r="A600" s="9" t="n">
         <v>45540</v>
       </c>
       <c r="C600" t="n">
@@ -19115,7 +19116,7 @@
       </c>
     </row>
     <row r="601">
-      <c r="A601" s="8" t="n">
+      <c r="A601" s="9" t="n">
         <v>45541</v>
       </c>
       <c r="C601" t="n">
@@ -19144,7 +19145,7 @@
       </c>
     </row>
     <row r="602">
-      <c r="A602" s="8" t="n">
+      <c r="A602" s="9" t="n">
         <v>45544</v>
       </c>
       <c r="C602" t="n">
@@ -19173,7 +19174,7 @@
       </c>
     </row>
     <row r="603">
-      <c r="A603" s="8" t="n">
+      <c r="A603" s="9" t="n">
         <v>45545</v>
       </c>
       <c r="C603" t="n">
@@ -19202,7 +19203,7 @@
       </c>
     </row>
     <row r="604">
-      <c r="A604" s="8" t="n">
+      <c r="A604" s="9" t="n">
         <v>45546</v>
       </c>
       <c r="C604" t="n">
@@ -19231,7 +19232,7 @@
       </c>
     </row>
     <row r="605">
-      <c r="A605" s="8" t="n">
+      <c r="A605" s="9" t="n">
         <v>45547</v>
       </c>
       <c r="C605" t="n">
@@ -19260,7 +19261,7 @@
       </c>
     </row>
     <row r="606">
-      <c r="A606" s="8" t="n">
+      <c r="A606" s="9" t="n">
         <v>45548</v>
       </c>
       <c r="C606" t="n">
@@ -19289,7 +19290,7 @@
       </c>
     </row>
     <row r="607">
-      <c r="A607" s="8" t="n">
+      <c r="A607" s="9" t="n">
         <v>45551</v>
       </c>
       <c r="C607" t="n">
@@ -19318,7 +19319,7 @@
       </c>
     </row>
     <row r="608">
-      <c r="A608" s="8" t="n">
+      <c r="A608" s="9" t="n">
         <v>45552</v>
       </c>
       <c r="C608" t="n">
@@ -19347,7 +19348,7 @@
       </c>
     </row>
     <row r="609">
-      <c r="A609" s="8" t="n">
+      <c r="A609" s="9" t="n">
         <v>45553</v>
       </c>
       <c r="C609" t="n">
@@ -19376,7 +19377,7 @@
       </c>
     </row>
     <row r="610">
-      <c r="A610" s="8" t="n">
+      <c r="A610" s="9" t="n">
         <v>45554</v>
       </c>
       <c r="C610" t="n">
@@ -19405,7 +19406,7 @@
       </c>
     </row>
     <row r="611">
-      <c r="A611" s="8" t="n">
+      <c r="A611" s="9" t="n">
         <v>45555</v>
       </c>
       <c r="C611" t="n">
@@ -19434,7 +19435,7 @@
       </c>
     </row>
     <row r="612">
-      <c r="A612" s="8" t="n">
+      <c r="A612" s="9" t="n">
         <v>45558</v>
       </c>
       <c r="C612" t="n">
@@ -19463,7 +19464,7 @@
       </c>
     </row>
     <row r="613">
-      <c r="A613" s="8" t="n">
+      <c r="A613" s="9" t="n">
         <v>45559</v>
       </c>
       <c r="C613" t="n">
@@ -19492,7 +19493,7 @@
       </c>
     </row>
     <row r="614">
-      <c r="A614" s="8" t="n">
+      <c r="A614" s="9" t="n">
         <v>45560</v>
       </c>
       <c r="C614" t="n">
@@ -19521,7 +19522,7 @@
       </c>
     </row>
     <row r="615">
-      <c r="A615" s="8" t="n">
+      <c r="A615" s="9" t="n">
         <v>45561</v>
       </c>
       <c r="C615" t="n">
@@ -19550,7 +19551,7 @@
       </c>
     </row>
     <row r="616">
-      <c r="A616" s="8" t="n">
+      <c r="A616" s="9" t="n">
         <v>45562</v>
       </c>
       <c r="C616" t="n">
@@ -19579,7 +19580,7 @@
       </c>
     </row>
     <row r="617">
-      <c r="A617" s="8" t="n">
+      <c r="A617" s="9" t="n">
         <v>45565</v>
       </c>
       <c r="C617" t="n">
@@ -19605,6 +19606,64 @@
       </c>
       <c r="J617" t="n">
         <v>334.6031736082662</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>45566</v>
+      </c>
+      <c r="C618" t="n">
+        <v>1999.800048828125</v>
+      </c>
+      <c r="D618" t="n">
+        <v>751.2999877929688</v>
+      </c>
+      <c r="E618" t="n">
+        <v>79.73999786376953</v>
+      </c>
+      <c r="F618" t="n">
+        <v>283.9500122070312</v>
+      </c>
+      <c r="G618" t="n">
+        <v>1127.199951171875</v>
+      </c>
+      <c r="H618" t="n">
+        <v>29677.47001647949</v>
+      </c>
+      <c r="I618" t="n">
+        <v>0</v>
+      </c>
+      <c r="J618" t="n">
+        <v>334.6031736082662</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C619" t="n">
+        <v>1972.900024414062</v>
+      </c>
+      <c r="D619" t="n">
+        <v>738.4000244140625</v>
+      </c>
+      <c r="E619" t="n">
+        <v>75.75</v>
+      </c>
+      <c r="F619" t="n">
+        <v>278.7000122070312</v>
+      </c>
+      <c r="G619" t="n">
+        <v>1122.900024414062</v>
+      </c>
+      <c r="H619" t="n">
+        <v>29025.90057373047</v>
+      </c>
+      <c r="I619" t="n">
+        <v>-0.02195501983111147</v>
+      </c>
+      <c r="J619" t="n">
+        <v>327.2569542961439</v>
       </c>
     </row>
   </sheetData>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J619"/>
+  <dimension ref="A1:J621"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19666,6 +19666,64 @@
         <v>327.2569542961439</v>
       </c>
     </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>45566</v>
+      </c>
+      <c r="C620" t="n">
+        <v>1999.800048828125</v>
+      </c>
+      <c r="D620" t="n">
+        <v>751.2999877929688</v>
+      </c>
+      <c r="E620" t="n">
+        <v>79.73999786376953</v>
+      </c>
+      <c r="F620" t="n">
+        <v>283.9500122070312</v>
+      </c>
+      <c r="G620" t="n">
+        <v>1127.199951171875</v>
+      </c>
+      <c r="H620" t="n">
+        <v>29677.47001647949</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0</v>
+      </c>
+      <c r="J620" t="n">
+        <v>327.2569542961439</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C621" t="n">
+        <v>1972.900024414062</v>
+      </c>
+      <c r="D621" t="n">
+        <v>738.4000244140625</v>
+      </c>
+      <c r="E621" t="n">
+        <v>75.75</v>
+      </c>
+      <c r="F621" t="n">
+        <v>278.7000122070312</v>
+      </c>
+      <c r="G621" t="n">
+        <v>1122.900024414062</v>
+      </c>
+      <c r="H621" t="n">
+        <v>29025.90057373047</v>
+      </c>
+      <c r="I621" t="n">
+        <v>-0.02195501983111147</v>
+      </c>
+      <c r="J621" t="n">
+        <v>320.0720213747029</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J621"/>
+  <dimension ref="A1:J623"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19724,6 +19724,64 @@
         <v>320.0720213747029</v>
       </c>
     </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>45566</v>
+      </c>
+      <c r="C622" t="n">
+        <v>1999.800048828125</v>
+      </c>
+      <c r="D622" t="n">
+        <v>751.2999877929688</v>
+      </c>
+      <c r="E622" t="n">
+        <v>79.73999786376953</v>
+      </c>
+      <c r="F622" t="n">
+        <v>283.9500122070312</v>
+      </c>
+      <c r="G622" t="n">
+        <v>1127.199951171875</v>
+      </c>
+      <c r="H622" t="n">
+        <v>29677.47001647949</v>
+      </c>
+      <c r="I622" t="n">
+        <v>0</v>
+      </c>
+      <c r="J622" t="n">
+        <v>320.0720213747029</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C623" t="n">
+        <v>1972.900024414062</v>
+      </c>
+      <c r="D623" t="n">
+        <v>738.4000244140625</v>
+      </c>
+      <c r="E623" t="n">
+        <v>75.75</v>
+      </c>
+      <c r="F623" t="n">
+        <v>278.7000122070312</v>
+      </c>
+      <c r="G623" t="n">
+        <v>1122.900024414062</v>
+      </c>
+      <c r="H623" t="n">
+        <v>29025.90057373047</v>
+      </c>
+      <c r="I623" t="n">
+        <v>-0.02195501983111147</v>
+      </c>
+      <c r="J623" t="n">
+        <v>313.0448337980374</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -84,7 +84,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
@@ -95,6 +95,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J623"/>
+  <dimension ref="A1:J625"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19782,6 +19783,64 @@
         <v>313.0448337980374</v>
       </c>
     </row>
+    <row r="624">
+      <c r="A624" s="10" t="n">
+        <v>45566</v>
+      </c>
+      <c r="C624" t="n">
+        <v>1999.800048828125</v>
+      </c>
+      <c r="D624" t="n">
+        <v>751.2999877929688</v>
+      </c>
+      <c r="E624" t="n">
+        <v>79.73999786376953</v>
+      </c>
+      <c r="F624" t="n">
+        <v>283.9500122070312</v>
+      </c>
+      <c r="G624" t="n">
+        <v>1127.199951171875</v>
+      </c>
+      <c r="H624" t="n">
+        <v>29677.47001647949</v>
+      </c>
+      <c r="I624" t="n">
+        <v>0</v>
+      </c>
+      <c r="J624" t="n">
+        <v>313.0448337980374</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="10" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C625" t="n">
+        <v>1972.900024414062</v>
+      </c>
+      <c r="D625" t="n">
+        <v>738.4000244140625</v>
+      </c>
+      <c r="E625" t="n">
+        <v>75.75</v>
+      </c>
+      <c r="F625" t="n">
+        <v>278.7000122070312</v>
+      </c>
+      <c r="G625" t="n">
+        <v>1122.900024414062</v>
+      </c>
+      <c r="H625" t="n">
+        <v>29025.90057373047</v>
+      </c>
+      <c r="I625" t="n">
+        <v>-0.02195501983111147</v>
+      </c>
+      <c r="J625" t="n">
+        <v>306.1719282639745</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J625"/>
+  <dimension ref="A1:J626"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19839,6 +19839,35 @@
         <v>338.0897287800236</v>
       </c>
     </row>
+    <row r="626">
+      <c r="A626" s="8" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C626" t="n">
+        <v>1939.150024414062</v>
+      </c>
+      <c r="D626" t="n">
+        <v>852.7000122070312</v>
+      </c>
+      <c r="E626" t="n">
+        <v>74.44999694824219</v>
+      </c>
+      <c r="F626" t="n">
+        <v>285.25</v>
+      </c>
+      <c r="G626" t="n">
+        <v>1222</v>
+      </c>
+      <c r="H626" t="n">
+        <v>30182.10000610352</v>
+      </c>
+      <c r="I626" t="n">
+        <v>0</v>
+      </c>
+      <c r="J626" t="n">
+        <v>338.0897287800236</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J626"/>
+  <dimension ref="A1:J627"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19868,6 +19868,35 @@
         <v>338.0897287800236</v>
       </c>
     </row>
+    <row r="627">
+      <c r="A627" s="8" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C627" t="n">
+        <v>1939.150024414062</v>
+      </c>
+      <c r="D627" t="n">
+        <v>852.7000122070312</v>
+      </c>
+      <c r="E627" t="n">
+        <v>74.44999694824219</v>
+      </c>
+      <c r="F627" t="n">
+        <v>285.25</v>
+      </c>
+      <c r="G627" t="n">
+        <v>1222</v>
+      </c>
+      <c r="H627" t="n">
+        <v>30182.10000610352</v>
+      </c>
+      <c r="I627" t="n">
+        <v>0</v>
+      </c>
+      <c r="J627" t="n">
+        <v>338.0897287800236</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J627"/>
+  <dimension ref="A1:J628"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19897,6 +19897,35 @@
         <v>338.0897287800236</v>
       </c>
     </row>
+    <row r="628">
+      <c r="A628" s="8" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C628" t="n">
+        <v>1939.150024414062</v>
+      </c>
+      <c r="D628" t="n">
+        <v>852.7000122070312</v>
+      </c>
+      <c r="E628" t="n">
+        <v>74.44999694824219</v>
+      </c>
+      <c r="F628" t="n">
+        <v>285.25</v>
+      </c>
+      <c r="G628" t="n">
+        <v>1222</v>
+      </c>
+      <c r="H628" t="n">
+        <v>30182.10000610352</v>
+      </c>
+      <c r="I628" t="n">
+        <v>0</v>
+      </c>
+      <c r="J628" t="n">
+        <v>338.0897287800236</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J628"/>
+  <dimension ref="A1:J629"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19926,6 +19926,35 @@
         <v>338.0897287800236</v>
       </c>
     </row>
+    <row r="629">
+      <c r="A629" s="8" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C629" t="n">
+        <v>1939.150024414062</v>
+      </c>
+      <c r="D629" t="n">
+        <v>852.7000122070312</v>
+      </c>
+      <c r="E629" t="n">
+        <v>74.44999694824219</v>
+      </c>
+      <c r="F629" t="n">
+        <v>285.25</v>
+      </c>
+      <c r="G629" t="n">
+        <v>1222</v>
+      </c>
+      <c r="H629" t="n">
+        <v>30182.10000610352</v>
+      </c>
+      <c r="I629" t="n">
+        <v>0</v>
+      </c>
+      <c r="J629" t="n">
+        <v>338.0897287800236</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J629"/>
+  <dimension ref="A1:J630"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19955,6 +19955,35 @@
         <v>338.0897287800236</v>
       </c>
     </row>
+    <row r="630">
+      <c r="A630" s="8" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C630" t="n">
+        <v>1939.150024414062</v>
+      </c>
+      <c r="D630" t="n">
+        <v>852.7000122070312</v>
+      </c>
+      <c r="E630" t="n">
+        <v>74.44999694824219</v>
+      </c>
+      <c r="F630" t="n">
+        <v>285.25</v>
+      </c>
+      <c r="G630" t="n">
+        <v>1222</v>
+      </c>
+      <c r="H630" t="n">
+        <v>30182.10000610352</v>
+      </c>
+      <c r="I630" t="n">
+        <v>0</v>
+      </c>
+      <c r="J630" t="n">
+        <v>338.0897287800236</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J625"/>
+  <dimension ref="A1:J626"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19839,6 +19839,35 @@
         <v>338.0897287800236</v>
       </c>
     </row>
+    <row r="626">
+      <c r="A626" s="8" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C626" t="n">
+        <v>1940.25</v>
+      </c>
+      <c r="D626" t="n">
+        <v>855.2999877929688</v>
+      </c>
+      <c r="E626" t="n">
+        <v>74.01000213623047</v>
+      </c>
+      <c r="F626" t="n">
+        <v>285.7000122070312</v>
+      </c>
+      <c r="G626" t="n">
+        <v>1189.199951171875</v>
+      </c>
+      <c r="H626" t="n">
+        <v>30119.53010559082</v>
+      </c>
+      <c r="I626" t="n">
+        <v>0</v>
+      </c>
+      <c r="J626" t="n">
+        <v>338.0897287800236</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J626"/>
+  <dimension ref="A1:J627"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19868,6 +19868,35 @@
         <v>338.0897287800236</v>
       </c>
     </row>
+    <row r="627">
+      <c r="A627" s="8" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C627" t="n">
+        <v>1940.25</v>
+      </c>
+      <c r="D627" t="n">
+        <v>855.2999877929688</v>
+      </c>
+      <c r="E627" t="n">
+        <v>74.01000213623047</v>
+      </c>
+      <c r="F627" t="n">
+        <v>285.7000122070312</v>
+      </c>
+      <c r="G627" t="n">
+        <v>1189.199951171875</v>
+      </c>
+      <c r="H627" t="n">
+        <v>30119.53010559082</v>
+      </c>
+      <c r="I627" t="n">
+        <v>0</v>
+      </c>
+      <c r="J627" t="n">
+        <v>338.0897287800236</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J627"/>
+  <dimension ref="A1:J628"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19897,6 +19897,35 @@
         <v>338.0897287800236</v>
       </c>
     </row>
+    <row r="628">
+      <c r="A628" s="8" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C628" t="n">
+        <v>1940.25</v>
+      </c>
+      <c r="D628" t="n">
+        <v>855.2999877929688</v>
+      </c>
+      <c r="E628" t="n">
+        <v>74.01000213623047</v>
+      </c>
+      <c r="F628" t="n">
+        <v>285.7000122070312</v>
+      </c>
+      <c r="G628" t="n">
+        <v>1189.199951171875</v>
+      </c>
+      <c r="H628" t="n">
+        <v>30119.53010559082</v>
+      </c>
+      <c r="I628" t="n">
+        <v>0</v>
+      </c>
+      <c r="J628" t="n">
+        <v>338.0897287800236</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J628"/>
+  <dimension ref="A1:J629"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19926,6 +19926,35 @@
         <v>338.0897287800236</v>
       </c>
     </row>
+    <row r="629">
+      <c r="A629" s="8" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C629" t="n">
+        <v>1940.25</v>
+      </c>
+      <c r="D629" t="n">
+        <v>855.2999877929688</v>
+      </c>
+      <c r="E629" t="n">
+        <v>74.01000213623047</v>
+      </c>
+      <c r="F629" t="n">
+        <v>285.7000122070312</v>
+      </c>
+      <c r="G629" t="n">
+        <v>1189.199951171875</v>
+      </c>
+      <c r="H629" t="n">
+        <v>30119.53010559082</v>
+      </c>
+      <c r="I629" t="n">
+        <v>0</v>
+      </c>
+      <c r="J629" t="n">
+        <v>338.0897287800236</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J629"/>
+  <dimension ref="A1:J631"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19955,6 +19955,64 @@
         <v>338.0897287800236</v>
       </c>
     </row>
+    <row r="630">
+      <c r="A630" s="8" t="n">
+        <v>45580</v>
+      </c>
+      <c r="C630" t="n">
+        <v>1934.699951171875</v>
+      </c>
+      <c r="D630" t="n">
+        <v>832.7000122070312</v>
+      </c>
+      <c r="E630" t="n">
+        <v>73.70999908447266</v>
+      </c>
+      <c r="F630" t="n">
+        <v>288.8500061035156</v>
+      </c>
+      <c r="G630" t="n">
+        <v>1204</v>
+      </c>
+      <c r="H630" t="n">
+        <v>29912.92988586426</v>
+      </c>
+      <c r="I630" t="n">
+        <v>0</v>
+      </c>
+      <c r="J630" t="n">
+        <v>338.0897287800236</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="8" t="n">
+        <v>45581</v>
+      </c>
+      <c r="C631" t="n">
+        <v>1939.300048828125</v>
+      </c>
+      <c r="D631" t="n">
+        <v>834.7000122070312</v>
+      </c>
+      <c r="E631" t="n">
+        <v>75.05000305175781</v>
+      </c>
+      <c r="F631" t="n">
+        <v>285.7000122070312</v>
+      </c>
+      <c r="G631" t="n">
+        <v>1196.099975585938</v>
+      </c>
+      <c r="H631" t="n">
+        <v>30003.70071411133</v>
+      </c>
+      <c r="I631" t="n">
+        <v>0.003034501421071603</v>
+      </c>
+      <c r="J631" t="n">
+        <v>339.1156625424563</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J631"/>
+  <dimension ref="A1:J632"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -20013,6 +20013,35 @@
         <v>339.1156625424563</v>
       </c>
     </row>
+    <row r="632">
+      <c r="A632" s="8" t="n">
+        <v>45582</v>
+      </c>
+      <c r="C632" t="n">
+        <v>1805.550048828125</v>
+      </c>
+      <c r="D632" t="n">
+        <v>837.2000122070312</v>
+      </c>
+      <c r="E632" t="n">
+        <v>73.01000213623047</v>
+      </c>
+      <c r="F632" t="n">
+        <v>284.5499877929688</v>
+      </c>
+      <c r="G632" t="n">
+        <v>1152.400024414062</v>
+      </c>
+      <c r="H632" t="n">
+        <v>29098.48042297363</v>
+      </c>
+      <c r="I632" t="n">
+        <v>0</v>
+      </c>
+      <c r="J632" t="n">
+        <v>339.1156625424563</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J630"/>
+  <dimension ref="A1:J631"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A571" workbookViewId="0">
       <selection activeCell="A588" sqref="A588"/>
@@ -19995,6 +19995,35 @@
         <v>324.9511191007947</v>
       </c>
     </row>
+    <row r="631">
+      <c r="A631" s="11" t="n">
+        <v>45586</v>
+      </c>
+      <c r="C631" t="n">
+        <v>1812.699951171875</v>
+      </c>
+      <c r="D631" t="n">
+        <v>775.5999755859375</v>
+      </c>
+      <c r="E631" t="n">
+        <v>70.62999725341797</v>
+      </c>
+      <c r="F631" t="n">
+        <v>282.2999877929688</v>
+      </c>
+      <c r="G631" t="n">
+        <v>1117</v>
+      </c>
+      <c r="H631" t="n">
+        <v>28232.53913879395</v>
+      </c>
+      <c r="I631" t="n">
+        <v>0</v>
+      </c>
+      <c r="J631" t="n">
+        <v>324.9511191007947</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Capital_Goods.xlsx
+++ b/NAV/Capital_Goods.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="740" yWindow="1560" windowWidth="27640" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -495,7 +495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J702"/>
+  <dimension ref="A1:J761"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A636" workbookViewId="0">
       <selection activeCell="J659" sqref="J659"/>
@@ -22113,6 +22113,1717 @@
         <v>306.1251924883339</v>
       </c>
     </row>
+    <row r="703">
+      <c r="A703" s="12" t="n">
+        <v>45686</v>
+      </c>
+      <c r="C703" t="n">
+        <v>267.2000122070312</v>
+      </c>
+      <c r="D703" t="n">
+        <v>1229.449951171875</v>
+      </c>
+      <c r="E703" t="n">
+        <v>625.75</v>
+      </c>
+      <c r="F703" t="n">
+        <v>52.77000045776367</v>
+      </c>
+      <c r="G703" t="n">
+        <v>1073.349975585938</v>
+      </c>
+      <c r="H703" t="n">
+        <v>28695.91999053955</v>
+      </c>
+      <c r="I703" t="n">
+        <v>0.04812795745273401</v>
+      </c>
+      <c r="J703" t="n">
+        <v>320.8583727276225</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="12" t="n">
+        <v>45687</v>
+      </c>
+      <c r="C704" t="n">
+        <v>278.75</v>
+      </c>
+      <c r="D704" t="n">
+        <v>1267.349975585938</v>
+      </c>
+      <c r="E704" t="n">
+        <v>620.5999755859375</v>
+      </c>
+      <c r="F704" t="n">
+        <v>55.40000152587891</v>
+      </c>
+      <c r="G704" t="n">
+        <v>1050.5</v>
+      </c>
+      <c r="H704" t="n">
+        <v>29340.29978942871</v>
+      </c>
+      <c r="I704" t="n">
+        <v>0.02245545008146102</v>
+      </c>
+      <c r="J704" t="n">
+        <v>328.0633918996264</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="12" t="n">
+        <v>45688</v>
+      </c>
+      <c r="C705" t="n">
+        <v>292.6499938964844</v>
+      </c>
+      <c r="D705" t="n">
+        <v>1305</v>
+      </c>
+      <c r="E705" t="n">
+        <v>634.8499755859375</v>
+      </c>
+      <c r="F705" t="n">
+        <v>58.16999816894531</v>
+      </c>
+      <c r="G705" t="n">
+        <v>1075.800048828125</v>
+      </c>
+      <c r="H705" t="n">
+        <v>30408.81967163086</v>
+      </c>
+      <c r="I705" t="n">
+        <v>0.03641816511319818</v>
+      </c>
+      <c r="J705" t="n">
+        <v>340.0108586734228</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="12" t="n">
+        <v>45689</v>
+      </c>
+      <c r="C706" t="n">
+        <v>281.7999877929688</v>
+      </c>
+      <c r="D706" t="n">
+        <v>1253.349975585938</v>
+      </c>
+      <c r="E706" t="n">
+        <v>612</v>
+      </c>
+      <c r="F706" t="n">
+        <v>58.15999984741211</v>
+      </c>
+      <c r="G706" t="n">
+        <v>1030.349975585938</v>
+      </c>
+      <c r="H706" t="n">
+        <v>29429.65940093994</v>
+      </c>
+      <c r="I706" t="n">
+        <v>-0.03219987757710967</v>
+      </c>
+      <c r="J706" t="n">
+        <v>329.0625506492507</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="12" t="n">
+        <v>45691</v>
+      </c>
+      <c r="C707" t="n">
+        <v>274.1499938964844</v>
+      </c>
+      <c r="D707" t="n">
+        <v>1178.050048828125</v>
+      </c>
+      <c r="E707" t="n">
+        <v>585.5</v>
+      </c>
+      <c r="F707" t="n">
+        <v>56.36999893188477</v>
+      </c>
+      <c r="G707" t="n">
+        <v>1000.799987792969</v>
+      </c>
+      <c r="H707" t="n">
+        <v>28279.51998138428</v>
+      </c>
+      <c r="I707" t="n">
+        <v>-0.0390809626399866</v>
+      </c>
+      <c r="J707" t="n">
+        <v>316.2024694011086</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="12" t="n">
+        <v>45692</v>
+      </c>
+      <c r="C708" t="n">
+        <v>284.5</v>
+      </c>
+      <c r="D708" t="n">
+        <v>1191.449951171875</v>
+      </c>
+      <c r="E708" t="n">
+        <v>603.8499755859375</v>
+      </c>
+      <c r="F708" t="n">
+        <v>56.91999816894531</v>
+      </c>
+      <c r="G708" t="n">
+        <v>1040.5</v>
+      </c>
+      <c r="H708" t="n">
+        <v>29002.61935424805</v>
+      </c>
+      <c r="I708" t="n">
+        <v>0.02556971876961732</v>
+      </c>
+      <c r="J708" t="n">
+        <v>324.2876776179535</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="12" t="n">
+        <v>45693</v>
+      </c>
+      <c r="C709" t="n">
+        <v>288.9500122070312</v>
+      </c>
+      <c r="D709" t="n">
+        <v>1215.150024414062</v>
+      </c>
+      <c r="E709" t="n">
+        <v>629.5999755859375</v>
+      </c>
+      <c r="F709" t="n">
+        <v>55.90000152587891</v>
+      </c>
+      <c r="G709" t="n">
+        <v>1109.449951171875</v>
+      </c>
+      <c r="H709" t="n">
+        <v>29663.50022888184</v>
+      </c>
+      <c r="I709" t="n">
+        <v>0.0227869375024911</v>
+      </c>
+      <c r="J709" t="n">
+        <v>331.6772006606618</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="12" t="n">
+        <v>45694</v>
+      </c>
+      <c r="C710" t="n">
+        <v>279.75</v>
+      </c>
+      <c r="D710" t="n">
+        <v>1212.449951171875</v>
+      </c>
+      <c r="E710" t="n">
+        <v>614.6500244140625</v>
+      </c>
+      <c r="F710" t="n">
+        <v>54.91999816894531</v>
+      </c>
+      <c r="G710" t="n">
+        <v>1126.949951171875</v>
+      </c>
+      <c r="H710" t="n">
+        <v>29255.81954956055</v>
+      </c>
+      <c r="I710" t="n">
+        <v>-0.01374351226846625</v>
+      </c>
+      <c r="J710" t="n">
+        <v>327.1187909842114</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="12" t="n">
+        <v>45695</v>
+      </c>
+      <c r="C711" t="n">
+        <v>277.0499877929688</v>
+      </c>
+      <c r="D711" t="n">
+        <v>1200.400024414062</v>
+      </c>
+      <c r="E711" t="n">
+        <v>617.4500122070312</v>
+      </c>
+      <c r="F711" t="n">
+        <v>53.61000061035156</v>
+      </c>
+      <c r="G711" t="n">
+        <v>1149.199951171875</v>
+      </c>
+      <c r="H711" t="n">
+        <v>29106.65975952148</v>
+      </c>
+      <c r="I711" t="n">
+        <v>-0.005098465615922321</v>
+      </c>
+      <c r="J711" t="n">
+        <v>325.4509870760564</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="12" t="n">
+        <v>45698</v>
+      </c>
+      <c r="C712" t="n">
+        <v>273.4500122070312</v>
+      </c>
+      <c r="D712" t="n">
+        <v>1199.400024414062</v>
+      </c>
+      <c r="E712" t="n">
+        <v>592</v>
+      </c>
+      <c r="F712" t="n">
+        <v>52.72000122070312</v>
+      </c>
+      <c r="G712" t="n">
+        <v>1097.400024414062</v>
+      </c>
+      <c r="H712" t="n">
+        <v>28512.52069091797</v>
+      </c>
+      <c r="I712" t="n">
+        <v>-0.02041247857061848</v>
+      </c>
+      <c r="J712" t="n">
+        <v>318.8077257765797</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="12" t="n">
+        <v>45699</v>
+      </c>
+      <c r="C713" t="n">
+        <v>265.0499877929688</v>
+      </c>
+      <c r="D713" t="n">
+        <v>1137.099975585938</v>
+      </c>
+      <c r="E713" t="n">
+        <v>588</v>
+      </c>
+      <c r="F713" t="n">
+        <v>51.9900016784668</v>
+      </c>
+      <c r="G713" t="n">
+        <v>1076.5</v>
+      </c>
+      <c r="H713" t="n">
+        <v>27725.13965606689</v>
+      </c>
+      <c r="I713" t="n">
+        <v>-0.02761527272128826</v>
+      </c>
+      <c r="J713" t="n">
+        <v>310.0037634836058</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="12" t="n">
+        <v>45700</v>
+      </c>
+      <c r="C714" t="n">
+        <v>259.1499938964844</v>
+      </c>
+      <c r="D714" t="n">
+        <v>1136.599975585938</v>
+      </c>
+      <c r="E714" t="n">
+        <v>576.75</v>
+      </c>
+      <c r="F714" t="n">
+        <v>52.40000152587891</v>
+      </c>
+      <c r="G714" t="n">
+        <v>1065.599975585938</v>
+      </c>
+      <c r="H714" t="n">
+        <v>27458.59971618652</v>
+      </c>
+      <c r="I714" t="n">
+        <v>-0.009613655447252041</v>
+      </c>
+      <c r="J714" t="n">
+        <v>307.023494114123</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="12" t="n">
+        <v>45701</v>
+      </c>
+      <c r="C715" t="n">
+        <v>261.5499877929688</v>
+      </c>
+      <c r="D715" t="n">
+        <v>1166.699951171875</v>
+      </c>
+      <c r="E715" t="n">
+        <v>579.5</v>
+      </c>
+      <c r="F715" t="n">
+        <v>53.34999847412109</v>
+      </c>
+      <c r="G715" t="n">
+        <v>1065.199951171875</v>
+      </c>
+      <c r="H715" t="n">
+        <v>27808.49903869629</v>
+      </c>
+      <c r="I715" t="n">
+        <v>0.01274279555863528</v>
+      </c>
+      <c r="J715" t="n">
+        <v>310.9358317313171</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="12" t="n">
+        <v>45702</v>
+      </c>
+      <c r="C716" t="n">
+        <v>250.3500061035156</v>
+      </c>
+      <c r="D716" t="n">
+        <v>1102.550048828125</v>
+      </c>
+      <c r="E716" t="n">
+        <v>552.3499755859375</v>
+      </c>
+      <c r="F716" t="n">
+        <v>51.13999938964844</v>
+      </c>
+      <c r="G716" t="n">
+        <v>957.5499877929688</v>
+      </c>
+      <c r="H716" t="n">
+        <v>26272.14016723633</v>
+      </c>
+      <c r="I716" t="n">
+        <v>-0.05524781719869438</v>
+      </c>
+      <c r="J716" t="n">
+        <v>293.7573057393013</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="12" t="n">
+        <v>45705</v>
+      </c>
+      <c r="C717" t="n">
+        <v>248.5</v>
+      </c>
+      <c r="D717" t="n">
+        <v>1071.900024414062</v>
+      </c>
+      <c r="E717" t="n">
+        <v>583</v>
+      </c>
+      <c r="F717" t="n">
+        <v>51.41999816894531</v>
+      </c>
+      <c r="G717" t="n">
+        <v>957.9000244140625</v>
+      </c>
+      <c r="H717" t="n">
+        <v>26307.12008666992</v>
+      </c>
+      <c r="I717" t="n">
+        <v>0.001331445371824591</v>
+      </c>
+      <c r="J717" t="n">
+        <v>294.1484275444675</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="12" t="n">
+        <v>45706</v>
+      </c>
+      <c r="C718" t="n">
+        <v>244.6000061035156</v>
+      </c>
+      <c r="D718" t="n">
+        <v>1009.849975585938</v>
+      </c>
+      <c r="E718" t="n">
+        <v>578.75</v>
+      </c>
+      <c r="F718" t="n">
+        <v>50.63999938964844</v>
+      </c>
+      <c r="G718" t="n">
+        <v>900.25</v>
+      </c>
+      <c r="H718" t="n">
+        <v>25493.93997192383</v>
+      </c>
+      <c r="I718" t="n">
+        <v>-0.03091102758747584</v>
+      </c>
+      <c r="J718" t="n">
+        <v>285.0559973858278</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="12" t="n">
+        <v>45707</v>
+      </c>
+      <c r="C719" t="n">
+        <v>253.3999938964844</v>
+      </c>
+      <c r="D719" t="n">
+        <v>1048.300048828125</v>
+      </c>
+      <c r="E719" t="n">
+        <v>584.2000122070312</v>
+      </c>
+      <c r="F719" t="n">
+        <v>54.15999984741211</v>
+      </c>
+      <c r="G719" t="n">
+        <v>903.9500122070312</v>
+      </c>
+      <c r="H719" t="n">
+        <v>26332.16025543213</v>
+      </c>
+      <c r="I719" t="n">
+        <v>0.03287919734773922</v>
+      </c>
+      <c r="J719" t="n">
+        <v>294.4284097790331</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="12" t="n">
+        <v>45708</v>
+      </c>
+      <c r="C720" t="n">
+        <v>260.25</v>
+      </c>
+      <c r="D720" t="n">
+        <v>1033.400024414062</v>
+      </c>
+      <c r="E720" t="n">
+        <v>595.7999877929688</v>
+      </c>
+      <c r="F720" t="n">
+        <v>54.88000106811523</v>
+      </c>
+      <c r="G720" t="n">
+        <v>881.25</v>
+      </c>
+      <c r="H720" t="n">
+        <v>26498.48014068604</v>
+      </c>
+      <c r="I720" t="n">
+        <v>0.00631622638023387</v>
+      </c>
+      <c r="J720" t="n">
+        <v>296.2880862679697</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="12" t="n">
+        <v>45709</v>
+      </c>
+      <c r="C721" t="n">
+        <v>256.1000061035156</v>
+      </c>
+      <c r="D721" t="n">
+        <v>1009.599975585938</v>
+      </c>
+      <c r="E721" t="n">
+        <v>589.9500122070312</v>
+      </c>
+      <c r="F721" t="n">
+        <v>55.16999816894531</v>
+      </c>
+      <c r="G721" t="n">
+        <v>897.0499877929688</v>
+      </c>
+      <c r="H721" t="n">
+        <v>26280.81991577148</v>
+      </c>
+      <c r="I721" t="n">
+        <v>-0.008214064495735099</v>
+      </c>
+      <c r="J721" t="n">
+        <v>293.8543568180467</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="12" t="n">
+        <v>45712</v>
+      </c>
+      <c r="C722" t="n">
+        <v>256.3500061035156</v>
+      </c>
+      <c r="D722" t="n">
+        <v>1011.549987792969</v>
+      </c>
+      <c r="E722" t="n">
+        <v>602.5</v>
+      </c>
+      <c r="F722" t="n">
+        <v>54.29000091552734</v>
+      </c>
+      <c r="G722" t="n">
+        <v>843.5499877929688</v>
+      </c>
+      <c r="H722" t="n">
+        <v>26110.24012756348</v>
+      </c>
+      <c r="I722" t="n">
+        <v>-0.006490657017349771</v>
+      </c>
+      <c r="J722" t="n">
+        <v>291.9470489748869</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="12" t="n">
+        <v>45713</v>
+      </c>
+      <c r="C723" t="n">
+        <v>256.6499938964844</v>
+      </c>
+      <c r="D723" t="n">
+        <v>1023.700012207031</v>
+      </c>
+      <c r="E723" t="n">
+        <v>598.5</v>
+      </c>
+      <c r="F723" t="n">
+        <v>54.58000183105469</v>
+      </c>
+      <c r="G723" t="n">
+        <v>846.75</v>
+      </c>
+      <c r="H723" t="n">
+        <v>26197.28005981445</v>
+      </c>
+      <c r="I723" t="n">
+        <v>0.00333355541066404</v>
+      </c>
+      <c r="J723" t="n">
+        <v>292.9202706396244</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="12" t="n">
+        <v>45715</v>
+      </c>
+      <c r="C724" t="n">
+        <v>252.4499969482422</v>
+      </c>
+      <c r="D724" t="n">
+        <v>1017.400024414062</v>
+      </c>
+      <c r="E724" t="n">
+        <v>580.3499755859375</v>
+      </c>
+      <c r="F724" t="n">
+        <v>52.13000106811523</v>
+      </c>
+      <c r="G724" t="n">
+        <v>796.75</v>
+      </c>
+      <c r="H724" t="n">
+        <v>25485.97995758057</v>
+      </c>
+      <c r="I724" t="n">
+        <v>-0.02715167760201914</v>
+      </c>
+      <c r="J724" t="n">
+        <v>284.9669938881212</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="12" t="n">
+        <v>45716</v>
+      </c>
+      <c r="C725" t="n">
+        <v>246.25</v>
+      </c>
+      <c r="D725" t="n">
+        <v>975.4000244140625</v>
+      </c>
+      <c r="E725" t="n">
+        <v>572.5999755859375</v>
+      </c>
+      <c r="F725" t="n">
+        <v>49.70999908447266</v>
+      </c>
+      <c r="G725" t="n">
+        <v>798.6500244140625</v>
+      </c>
+      <c r="H725" t="n">
+        <v>24797.85997009277</v>
+      </c>
+      <c r="I725" t="n">
+        <v>-0.02699994226759635</v>
+      </c>
+      <c r="J725" t="n">
+        <v>277.2729015049714</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="12" t="n">
+        <v>45719</v>
+      </c>
+      <c r="C726" t="n">
+        <v>257.3900146484375</v>
+      </c>
+      <c r="D726" t="n">
+        <v>979.75</v>
+      </c>
+      <c r="E726" t="n">
+        <v>586.7000122070312</v>
+      </c>
+      <c r="F726" t="n">
+        <v>49.77999877929688</v>
+      </c>
+      <c r="G726" t="n">
+        <v>770.75</v>
+      </c>
+      <c r="H726" t="n">
+        <v>25143.10040283203</v>
+      </c>
+      <c r="I726" t="n">
+        <v>0.01392218655785748</v>
+      </c>
+      <c r="J726" t="n">
+        <v>281.133146567162</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="12" t="n">
+        <v>45720</v>
+      </c>
+      <c r="C727" t="n">
+        <v>264.7099914550781</v>
+      </c>
+      <c r="D727" t="n">
+        <v>1049.300048828125</v>
+      </c>
+      <c r="E727" t="n">
+        <v>603.2999877929688</v>
+      </c>
+      <c r="F727" t="n">
+        <v>50.11000061035156</v>
+      </c>
+      <c r="G727" t="n">
+        <v>860.7999877929688</v>
+      </c>
+      <c r="H727" t="n">
+        <v>26286.7399597168</v>
+      </c>
+      <c r="I727" t="n">
+        <v>0.04548522411961375</v>
+      </c>
+      <c r="J727" t="n">
+        <v>293.9205507462216</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="12" t="n">
+        <v>45721</v>
+      </c>
+      <c r="C728" t="n">
+        <v>274.9200134277344</v>
+      </c>
+      <c r="D728" t="n">
+        <v>1063.5</v>
+      </c>
+      <c r="E728" t="n">
+        <v>612.9000244140625</v>
+      </c>
+      <c r="F728" t="n">
+        <v>51.4900016784668</v>
+      </c>
+      <c r="G728" t="n">
+        <v>833.2999877929688</v>
+      </c>
+      <c r="H728" t="n">
+        <v>26743.30066680908</v>
+      </c>
+      <c r="I728" t="n">
+        <v>0.01736847961336944</v>
+      </c>
+      <c r="J728" t="n">
+        <v>299.0255038398078</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="12" t="n">
+        <v>45722</v>
+      </c>
+      <c r="C729" t="n">
+        <v>272.9500122070312</v>
+      </c>
+      <c r="D729" t="n">
+        <v>1065.650024414062</v>
+      </c>
+      <c r="E729" t="n">
+        <v>628.0999755859375</v>
+      </c>
+      <c r="F729" t="n">
+        <v>52.09999847412109</v>
+      </c>
+      <c r="G729" t="n">
+        <v>911.6500244140625</v>
+      </c>
+      <c r="H729" t="n">
+        <v>27188.50025939941</v>
+      </c>
+      <c r="I729" t="n">
+        <v>0.01664714457414997</v>
+      </c>
+      <c r="J729" t="n">
+        <v>304.0034246335871</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="12" t="n">
+        <v>45723</v>
+      </c>
+      <c r="C730" t="n">
+        <v>276.989990234375</v>
+      </c>
+      <c r="D730" t="n">
+        <v>1135.199951171875</v>
+      </c>
+      <c r="E730" t="n">
+        <v>630.0499877929688</v>
+      </c>
+      <c r="F730" t="n">
+        <v>54.91999816894531</v>
+      </c>
+      <c r="G730" t="n">
+        <v>966.7000122070312</v>
+      </c>
+      <c r="H730" t="n">
+        <v>28197.23922729492</v>
+      </c>
+      <c r="I730" t="n">
+        <v>0.03710167748391248</v>
+      </c>
+      <c r="J730" t="n">
+        <v>315.2824616483474</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="12" t="n">
+        <v>45726</v>
+      </c>
+      <c r="C731" t="n">
+        <v>272.3299865722656</v>
+      </c>
+      <c r="D731" t="n">
+        <v>1143.400024414062</v>
+      </c>
+      <c r="E731" t="n">
+        <v>596.7999877929688</v>
+      </c>
+      <c r="F731" t="n">
+        <v>53.2400016784668</v>
+      </c>
+      <c r="G731" t="n">
+        <v>983.75</v>
+      </c>
+      <c r="H731" t="n">
+        <v>27773.67981719971</v>
+      </c>
+      <c r="I731" t="n">
+        <v>-0.01502130781956871</v>
+      </c>
+      <c r="J731" t="n">
+        <v>310.5465067418162</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="12" t="n">
+        <v>45727</v>
+      </c>
+      <c r="C732" t="n">
+        <v>277.1799926757812</v>
+      </c>
+      <c r="D732" t="n">
+        <v>1116.599975585938</v>
+      </c>
+      <c r="E732" t="n">
+        <v>608.1500244140625</v>
+      </c>
+      <c r="F732" t="n">
+        <v>53.7599983215332</v>
+      </c>
+      <c r="G732" t="n">
+        <v>957.7000122070312</v>
+      </c>
+      <c r="H732" t="n">
+        <v>27779.99974822998</v>
+      </c>
+      <c r="I732" t="n">
+        <v>0.0002275510869236573</v>
+      </c>
+      <c r="J732" t="n">
+        <v>310.6171719369656</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="12" t="n">
+        <v>45728</v>
+      </c>
+      <c r="C733" t="n">
+        <v>276.8299865722656</v>
+      </c>
+      <c r="D733" t="n">
+        <v>1093.699951171875</v>
+      </c>
+      <c r="E733" t="n">
+        <v>608.4000244140625</v>
+      </c>
+      <c r="F733" t="n">
+        <v>53.84999847412109</v>
+      </c>
+      <c r="G733" t="n">
+        <v>977.2000122070312</v>
+      </c>
+      <c r="H733" t="n">
+        <v>27720.53944396973</v>
+      </c>
+      <c r="I733" t="n">
+        <v>-0.002140399740789863</v>
+      </c>
+      <c r="J733" t="n">
+        <v>309.9523270226669</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="12" t="n">
+        <v>45729</v>
+      </c>
+      <c r="C734" t="n">
+        <v>280.0700073242188</v>
+      </c>
+      <c r="D734" t="n">
+        <v>1108.25</v>
+      </c>
+      <c r="E734" t="n">
+        <v>599.0999755859375</v>
+      </c>
+      <c r="F734" t="n">
+        <v>54.58000183105469</v>
+      </c>
+      <c r="G734" t="n">
+        <v>1000.299987792969</v>
+      </c>
+      <c r="H734" t="n">
+        <v>27979.3401184082</v>
+      </c>
+      <c r="I734" t="n">
+        <v>0.0093360619825447</v>
+      </c>
+      <c r="J734" t="n">
+        <v>312.8460611593845</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="12" t="n">
+        <v>45733</v>
+      </c>
+      <c r="C735" t="n">
+        <v>279.9299926757812</v>
+      </c>
+      <c r="D735" t="n">
+        <v>1107.150024414062</v>
+      </c>
+      <c r="E735" t="n">
+        <v>610.0999755859375</v>
+      </c>
+      <c r="F735" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="G735" t="n">
+        <v>1018.25</v>
+      </c>
+      <c r="H735" t="n">
+        <v>28121.73974609375</v>
+      </c>
+      <c r="I735" t="n">
+        <v>0.0050894562589008</v>
+      </c>
+      <c r="J735" t="n">
+        <v>314.4382775034246</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="12" t="n">
+        <v>45734</v>
+      </c>
+      <c r="C736" t="n">
+        <v>279.9299926757812</v>
+      </c>
+      <c r="D736" t="n">
+        <v>1107.150024414062</v>
+      </c>
+      <c r="E736" t="n">
+        <v>610.0999755859375</v>
+      </c>
+      <c r="F736" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="G736" t="n">
+        <v>1018.25</v>
+      </c>
+      <c r="H736" t="n">
+        <v>28121.73974609375</v>
+      </c>
+      <c r="I736" t="n">
+        <v>0</v>
+      </c>
+      <c r="J736" t="n">
+        <v>314.4382775034246</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="12" t="n">
+        <v>45735</v>
+      </c>
+      <c r="C737" t="n">
+        <v>290</v>
+      </c>
+      <c r="D737" t="n">
+        <v>1198</v>
+      </c>
+      <c r="E737" t="n">
+        <v>663.2999877929688</v>
+      </c>
+      <c r="F737" t="n">
+        <v>57.7599983215332</v>
+      </c>
+      <c r="G737" t="n">
+        <v>1076.900024414062</v>
+      </c>
+      <c r="H737" t="n">
+        <v>29889.35985565186</v>
+      </c>
+      <c r="I737" t="n">
+        <v>0.06285600128290914</v>
+      </c>
+      <c r="J737" t="n">
+        <v>334.2026102775756</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="12" t="n">
+        <v>45736</v>
+      </c>
+      <c r="C738" t="n">
+        <v>297.0499877929688</v>
+      </c>
+      <c r="D738" t="n">
+        <v>1247</v>
+      </c>
+      <c r="E738" t="n">
+        <v>654.5999755859375</v>
+      </c>
+      <c r="F738" t="n">
+        <v>58.38999938964844</v>
+      </c>
+      <c r="G738" t="n">
+        <v>1057.949951171875</v>
+      </c>
+      <c r="H738" t="n">
+        <v>30289.53921508789</v>
+      </c>
+      <c r="I738" t="n">
+        <v>0.01338868953261855</v>
+      </c>
+      <c r="J738" t="n">
+        <v>338.6771452675727</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="12" t="n">
+        <v>45737</v>
+      </c>
+      <c r="C739" t="n">
+        <v>295.739990234375</v>
+      </c>
+      <c r="D739" t="n">
+        <v>1293.099975585938</v>
+      </c>
+      <c r="E739" t="n">
+        <v>641.25</v>
+      </c>
+      <c r="F739" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="G739" t="n">
+        <v>1118.449951171875</v>
+      </c>
+      <c r="H739" t="n">
+        <v>30502.11938476562</v>
+      </c>
+      <c r="I739" t="n">
+        <v>0.007018270174669527</v>
+      </c>
+      <c r="J739" t="n">
+        <v>341.0540729750463</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="12" t="n">
+        <v>45740</v>
+      </c>
+      <c r="C740" t="n">
+        <v>302.1000061035156</v>
+      </c>
+      <c r="D740" t="n">
+        <v>1359.650024414062</v>
+      </c>
+      <c r="E740" t="n">
+        <v>632.9000244140625</v>
+      </c>
+      <c r="F740" t="n">
+        <v>57.90999984741211</v>
+      </c>
+      <c r="G740" t="n">
+        <v>1103.400024414062</v>
+      </c>
+      <c r="H740" t="n">
+        <v>31073.760597229</v>
+      </c>
+      <c r="I740" t="n">
+        <v>0.01874103255752408</v>
+      </c>
+      <c r="J740" t="n">
+        <v>347.4457784605479</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="12" t="n">
+        <v>45741</v>
+      </c>
+      <c r="C741" t="n">
+        <v>300.0299987792969</v>
+      </c>
+      <c r="D741" t="n">
+        <v>1315.599975585938</v>
+      </c>
+      <c r="E741" t="n">
+        <v>626.9000244140625</v>
+      </c>
+      <c r="F741" t="n">
+        <v>57.65000152587891</v>
+      </c>
+      <c r="G741" t="n">
+        <v>1089.599975585938</v>
+      </c>
+      <c r="H741" t="n">
+        <v>30625.94004821777</v>
+      </c>
+      <c r="I741" t="n">
+        <v>-0.01441153373149064</v>
+      </c>
+      <c r="J741" t="n">
+        <v>342.4385519043997</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="12" t="n">
+        <v>45742</v>
+      </c>
+      <c r="C742" t="n">
+        <v>299.5400085449219</v>
+      </c>
+      <c r="D742" t="n">
+        <v>1326.75</v>
+      </c>
+      <c r="E742" t="n">
+        <v>635.7999877929688</v>
+      </c>
+      <c r="F742" t="n">
+        <v>57.43000030517578</v>
+      </c>
+      <c r="G742" t="n">
+        <v>1039.400024414062</v>
+      </c>
+      <c r="H742" t="n">
+        <v>30530.60026550293</v>
+      </c>
+      <c r="I742" t="n">
+        <v>-0.003113040205941104</v>
+      </c>
+      <c r="J742" t="n">
+        <v>341.372526924257</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="12" t="n">
+        <v>45743</v>
+      </c>
+      <c r="C743" t="n">
+        <v>300.6499938964844</v>
+      </c>
+      <c r="D743" t="n">
+        <v>1281.650024414062</v>
+      </c>
+      <c r="E743" t="n">
+        <v>637.1500244140625</v>
+      </c>
+      <c r="F743" t="n">
+        <v>57.0099983215332</v>
+      </c>
+      <c r="G743" t="n">
+        <v>1063.099975585938</v>
+      </c>
+      <c r="H743" t="n">
+        <v>30360.55992889404</v>
+      </c>
+      <c r="I743" t="n">
+        <v>-0.005569505189225458</v>
+      </c>
+      <c r="J743" t="n">
+        <v>339.4712508640933</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="12" t="n">
+        <v>45744</v>
+      </c>
+      <c r="C744" t="n">
+        <v>301.3200073242188</v>
+      </c>
+      <c r="D744" t="n">
+        <v>1281.400024414062</v>
+      </c>
+      <c r="E744" t="n">
+        <v>638.5</v>
+      </c>
+      <c r="F744" t="n">
+        <v>56.65999984741211</v>
+      </c>
+      <c r="G744" t="n">
+        <v>1058.550048828125</v>
+      </c>
+      <c r="H744" t="n">
+        <v>30340.32053375244</v>
+      </c>
+      <c r="I744" t="n">
+        <v>-0.00066663444906824</v>
+      </c>
+      <c r="J744" t="n">
+        <v>339.2449476337991</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="12" t="n">
+        <v>45748</v>
+      </c>
+      <c r="C745" t="n">
+        <v>292</v>
+      </c>
+      <c r="D745" t="n">
+        <v>1245.150024414062</v>
+      </c>
+      <c r="E745" t="n">
+        <v>615</v>
+      </c>
+      <c r="F745" t="n">
+        <v>55.75</v>
+      </c>
+      <c r="G745" t="n">
+        <v>1072.550048828125</v>
+      </c>
+      <c r="H745" t="n">
+        <v>29651.60034179688</v>
+      </c>
+      <c r="I745" t="n">
+        <v>-0.02269983242890897</v>
+      </c>
+      <c r="J745" t="n">
+        <v>331.5441441701578</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="12" t="n">
+        <v>45749</v>
+      </c>
+      <c r="C746" t="n">
+        <v>282.3999938964844</v>
+      </c>
+      <c r="D746" t="n">
+        <v>1293.550048828125</v>
+      </c>
+      <c r="E746" t="n">
+        <v>623.5999755859375</v>
+      </c>
+      <c r="F746" t="n">
+        <v>57.43000030517578</v>
+      </c>
+      <c r="G746" t="n">
+        <v>1083.900024414062</v>
+      </c>
+      <c r="H746" t="n">
+        <v>29931.88005065918</v>
+      </c>
+      <c r="I746" t="n">
+        <v>0.009452431087411582</v>
+      </c>
+      <c r="J746" t="n">
+        <v>334.6780423453611</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="12" t="n">
+        <v>45750</v>
+      </c>
+      <c r="C747" t="n">
+        <v>287.5</v>
+      </c>
+      <c r="D747" t="n">
+        <v>1343.5</v>
+      </c>
+      <c r="E747" t="n">
+        <v>615.9500122070312</v>
+      </c>
+      <c r="F747" t="n">
+        <v>57.4900016784668</v>
+      </c>
+      <c r="G747" t="n">
+        <v>1054.699951171875</v>
+      </c>
+      <c r="H747" t="n">
+        <v>30201.54004669189</v>
+      </c>
+      <c r="I747" t="n">
+        <v>0.009009123235036358</v>
+      </c>
+      <c r="J747" t="n">
+        <v>337.6931980729112</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="12" t="n">
+        <v>45751</v>
+      </c>
+      <c r="C748" t="n">
+        <v>280</v>
+      </c>
+      <c r="D748" t="n">
+        <v>1337.849975585938</v>
+      </c>
+      <c r="E748" t="n">
+        <v>575.2000122070312</v>
+      </c>
+      <c r="F748" t="n">
+        <v>55.36000061035156</v>
+      </c>
+      <c r="G748" t="n">
+        <v>1022.75</v>
+      </c>
+      <c r="H748" t="n">
+        <v>29320.66000366211</v>
+      </c>
+      <c r="I748" t="n">
+        <v>-0.02916672599039438</v>
+      </c>
+      <c r="J748" t="n">
+        <v>327.8437930958987</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="12" t="n">
+        <v>45754</v>
+      </c>
+      <c r="C749" t="n">
+        <v>272.1000061035156</v>
+      </c>
+      <c r="D749" t="n">
+        <v>1255.449951171875</v>
+      </c>
+      <c r="E749" t="n">
+        <v>540.5</v>
+      </c>
+      <c r="F749" t="n">
+        <v>52.11999893188477</v>
+      </c>
+      <c r="G749" t="n">
+        <v>964.7000122070312</v>
+      </c>
+      <c r="H749" t="n">
+        <v>27816.6198348999</v>
+      </c>
+      <c r="I749" t="n">
+        <v>-0.05129625897146772</v>
+      </c>
+      <c r="J749" t="n">
+        <v>311.0266329830632</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="12" t="n">
+        <v>45755</v>
+      </c>
+      <c r="C750" t="n">
+        <v>281.4500122070312</v>
+      </c>
+      <c r="D750" t="n">
+        <v>1287.5</v>
+      </c>
+      <c r="E750" t="n">
+        <v>549.4000244140625</v>
+      </c>
+      <c r="F750" t="n">
+        <v>53.08000183105469</v>
+      </c>
+      <c r="G750" t="n">
+        <v>984.5999755859375</v>
+      </c>
+      <c r="H750" t="n">
+        <v>28504.08059692383</v>
+      </c>
+      <c r="I750" t="n">
+        <v>0.0247140294580799</v>
+      </c>
+      <c r="J750" t="n">
+        <v>318.713354352854</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="12" t="n">
+        <v>45756</v>
+      </c>
+      <c r="C751" t="n">
+        <v>280.1499938964844</v>
+      </c>
+      <c r="D751" t="n">
+        <v>1285.800048828125</v>
+      </c>
+      <c r="E751" t="n">
+        <v>551</v>
+      </c>
+      <c r="F751" t="n">
+        <v>51.20999908447266</v>
+      </c>
+      <c r="G751" t="n">
+        <v>967.9000244140625</v>
+      </c>
+      <c r="H751" t="n">
+        <v>28242.66014099121</v>
+      </c>
+      <c r="I751" t="n">
+        <v>-0.009171334435562527</v>
+      </c>
+      <c r="J751" t="n">
+        <v>315.790327591004</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="12" t="n">
+        <v>45758</v>
+      </c>
+      <c r="C752" t="n">
+        <v>285</v>
+      </c>
+      <c r="D752" t="n">
+        <v>1325.099975585938</v>
+      </c>
+      <c r="E752" t="n">
+        <v>572.4000244140625</v>
+      </c>
+      <c r="F752" t="n">
+        <v>53</v>
+      </c>
+      <c r="G752" t="n">
+        <v>1011.299987792969</v>
+      </c>
+      <c r="H752" t="n">
+        <v>29113</v>
+      </c>
+      <c r="I752" t="n">
+        <v>0.03081649726562349</v>
+      </c>
+      <c r="J752" t="n">
+        <v>325.5218793577226</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="12" t="n">
+        <v>45762</v>
+      </c>
+      <c r="C753" t="n">
+        <v>293.7000122070312</v>
+      </c>
+      <c r="D753" t="n">
+        <v>1404.900024414062</v>
+      </c>
+      <c r="E753" t="n">
+        <v>589.25</v>
+      </c>
+      <c r="F753" t="n">
+        <v>54.36999893188477</v>
+      </c>
+      <c r="G753" t="n">
+        <v>1062.199951171875</v>
+      </c>
+      <c r="H753" t="n">
+        <v>30291.62020111084</v>
+      </c>
+      <c r="I753" t="n">
+        <v>0.04048432662765224</v>
+      </c>
+      <c r="J753" t="n">
+        <v>338.7004134460879</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="12" t="n">
+        <v>45763</v>
+      </c>
+      <c r="C754" t="n">
+        <v>293.6000061035156</v>
+      </c>
+      <c r="D754" t="n">
+        <v>1399.300048828125</v>
+      </c>
+      <c r="E754" t="n">
+        <v>598.75</v>
+      </c>
+      <c r="F754" t="n">
+        <v>54.34000015258789</v>
+      </c>
+      <c r="G754" t="n">
+        <v>1078.699951171875</v>
+      </c>
+      <c r="H754" t="n">
+        <v>30394.64028167725</v>
+      </c>
+      <c r="I754" t="n">
+        <v>0.003400943227283312</v>
+      </c>
+      <c r="J754" t="n">
+        <v>339.8523143232754</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="12" t="n">
+        <v>45764</v>
+      </c>
+      <c r="C755" t="n">
+        <v>295.1499938964844</v>
+      </c>
+      <c r="D755" t="n">
+        <v>1393.199951171875</v>
+      </c>
+      <c r="E755" t="n">
+        <v>619.8499755859375</v>
+      </c>
+      <c r="F755" t="n">
+        <v>55.06999969482422</v>
+      </c>
+      <c r="G755" t="n">
+        <v>1069.300048828125</v>
+      </c>
+      <c r="H755" t="n">
+        <v>30595.4195098877</v>
+      </c>
+      <c r="I755" t="n">
+        <v>0.006605744511195438</v>
+      </c>
+      <c r="J755" t="n">
+        <v>342.0972918832334</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="12" t="n">
+        <v>45768</v>
+      </c>
+      <c r="C756" t="n">
+        <v>299.9500122070312</v>
+      </c>
+      <c r="D756" t="n">
+        <v>1427.400024414062</v>
+      </c>
+      <c r="E756" t="n">
+        <v>650.5999755859375</v>
+      </c>
+      <c r="F756" t="n">
+        <v>60.29000091552734</v>
+      </c>
+      <c r="G756" t="n">
+        <v>1058.099975585938</v>
+      </c>
+      <c r="H756" t="n">
+        <v>31585.14027404785</v>
+      </c>
+      <c r="I756" t="n">
+        <v>0.03234865806760069</v>
+      </c>
+      <c r="J756" t="n">
+        <v>353.1636802042163</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="12" t="n">
+        <v>45769</v>
+      </c>
+      <c r="C757" t="n">
+        <v>303.3500061035156</v>
+      </c>
+      <c r="D757" t="n">
+        <v>1409.900024414062</v>
+      </c>
+      <c r="E757" t="n">
+        <v>645.2999877929688</v>
+      </c>
+      <c r="F757" t="n">
+        <v>59.27000045776367</v>
+      </c>
+      <c r="G757" t="n">
+        <v>1090.699951171875</v>
+      </c>
+      <c r="H757" t="n">
+        <v>31575.62006378174</v>
+      </c>
+      <c r="I757" t="n">
+        <v>-0.0003014142151502689</v>
+      </c>
+      <c r="J757" t="n">
+        <v>353.0572316507279</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="12" t="n">
+        <v>45770</v>
+      </c>
+      <c r="C758" t="n">
+        <v>305.8500061035156</v>
+      </c>
+      <c r="D758" t="n">
+        <v>1427.300048828125</v>
+      </c>
+      <c r="E758" t="n">
+        <v>660.1500244140625</v>
+      </c>
+      <c r="F758" t="n">
+        <v>59.9900016784668</v>
+      </c>
+      <c r="G758" t="n">
+        <v>1111.199951171875</v>
+      </c>
+      <c r="H758" t="n">
+        <v>32012.74060821533</v>
+      </c>
+      <c r="I758" t="n">
+        <v>0.01384360920072589</v>
+      </c>
+      <c r="J758" t="n">
+        <v>357.9448179911908</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="12" t="n">
+        <v>45771</v>
+      </c>
+      <c r="C759" t="n">
+        <v>305.7000122070312</v>
+      </c>
+      <c r="D759" t="n">
+        <v>1429.599975585938</v>
+      </c>
+      <c r="E759" t="n">
+        <v>646</v>
+      </c>
+      <c r="F759" t="n">
+        <v>60.11000061035156</v>
+      </c>
+      <c r="G759" t="n">
+        <v>1115</v>
+      </c>
+      <c r="H759" t="n">
+        <v>31934.66024780273</v>
+      </c>
+      <c r="I759" t="n">
+        <v>-0.00243904017366636</v>
+      </c>
+      <c r="J759" t="n">
+        <v>357.0717762001546</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="12" t="n">
+        <v>45772</v>
+      </c>
+      <c r="C760" t="n">
+        <v>297.6000061035156</v>
+      </c>
+      <c r="D760" t="n">
+        <v>1413.599975585938</v>
+      </c>
+      <c r="E760" t="n">
+        <v>633.0999755859375</v>
+      </c>
+      <c r="F760" t="n">
+        <v>58.29999923706055</v>
+      </c>
+      <c r="G760" t="n">
+        <v>1081.699951171875</v>
+      </c>
+      <c r="H760" t="n">
+        <v>31219.79956817627</v>
+      </c>
+      <c r="I760" t="n">
+        <v>-0.02238510364849273</v>
+      </c>
+      <c r="J760" t="n">
+        <v>349.0786874799628</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="12" t="n">
+        <v>45775</v>
+      </c>
+      <c r="C761" t="n">
+        <v>305.0499877929688</v>
+      </c>
+      <c r="D761" t="n">
+        <v>1486.5</v>
+      </c>
+      <c r="E761" t="n">
+        <v>633.5999755859375</v>
+      </c>
+      <c r="F761" t="n">
+        <v>57.77999877929688</v>
+      </c>
+      <c r="G761" t="n">
+        <v>1089.900024414062</v>
+      </c>
+      <c r="H761" t="n">
+        <v>31857.87945556641</v>
+      </c>
+      <c r="I761" t="n">
+        <v>0.02043830826001074</v>
+      </c>
+      <c r="J761" t="n">
+        <v>356.2132653016782</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
